--- a/01_Dimension 11-29/19_Plain Ring Gauge, Master Ring Gauge.xlsx
+++ b/01_Dimension 11-29/19_Plain Ring Gauge, Master Ring Gauge.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pakaw\oxsoft\metrikos\proecho\01_Dimension 11-29\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pakaw\oxsoft\metrikos\evgenis\01_Dimension 11-29\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="465" windowWidth="38400" windowHeight="21045" tabRatio="453"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="38400" windowHeight="21045" tabRatio="453" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Data Record" sheetId="42" r:id="rId1"/>
@@ -1073,7 +1073,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="17">
+  <numFmts count="16">
     <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
     <numFmt numFmtId="166" formatCode="0.0000"/>
@@ -1089,7 +1089,6 @@
     <numFmt numFmtId="176" formatCode="[$-409]d\-mmm\-yyyy;@"/>
     <numFmt numFmtId="177" formatCode="[$-409]d\-mmm\-yy;@"/>
     <numFmt numFmtId="178" formatCode="[$-409]dd\-mmm\-yy;@"/>
-    <numFmt numFmtId="179" formatCode="0.00000000"/>
     <numFmt numFmtId="180" formatCode="0.0"/>
   </numFmts>
   <fonts count="81">
@@ -2076,7 +2075,7 @@
     <xf numFmtId="0" fontId="70" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="71" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="491">
+  <cellXfs count="473">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="8" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2814,33 +2813,258 @@
     <xf numFmtId="166" fontId="72" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="166" fontId="52" fillId="0" borderId="8" xfId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="10" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="52" fillId="0" borderId="12" xfId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="52" fillId="0" borderId="4" xfId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="52" fillId="0" borderId="5" xfId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="52" fillId="0" borderId="13" xfId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="52" fillId="0" borderId="0" xfId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="52" fillId="0" borderId="14" xfId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="52" fillId="0" borderId="11" xfId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="52" fillId="0" borderId="1" xfId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="52" fillId="0" borderId="7" xfId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="10" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="10" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="10" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="172" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="172" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="172" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="172" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="172" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="172" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="172" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="172" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="172" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="50" fillId="0" borderId="12" xfId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="50" fillId="0" borderId="4" xfId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="50" fillId="0" borderId="5" xfId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="50" fillId="0" borderId="13" xfId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="50" fillId="0" borderId="0" xfId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="50" fillId="0" borderId="14" xfId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="50" fillId="0" borderId="11" xfId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="50" fillId="0" borderId="1" xfId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="50" fillId="0" borderId="7" xfId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="63" fillId="9" borderId="12" xfId="15" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="63" fillId="9" borderId="4" xfId="15" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="63" fillId="9" borderId="5" xfId="15" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="63" fillId="9" borderId="13" xfId="15" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="63" fillId="9" borderId="0" xfId="15" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="63" fillId="9" borderId="14" xfId="15" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="63" fillId="9" borderId="11" xfId="15" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="63" fillId="9" borderId="1" xfId="15" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="63" fillId="9" borderId="7" xfId="15" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="10" xfId="15" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="2" xfId="15" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="15" xfId="15" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="3" xfId="15" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="10" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="10" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="8" xfId="15" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="6" xfId="15" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="9" xfId="15" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="180"/>
+    </xf>
+    <xf numFmtId="166" fontId="10" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="10" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="10" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="10" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="55" fillId="0" borderId="1" xfId="15" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="177" fontId="55" fillId="0" borderId="1" xfId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="64" fillId="10" borderId="0" xfId="15" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="11" borderId="0" xfId="15" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="65" fillId="12" borderId="0" xfId="15" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="55" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="55" fillId="0" borderId="15" xfId="15" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="55" fillId="0" borderId="1" xfId="15" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="55" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="55" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="55" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="55" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="55" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="55" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="52" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="55" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="10" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="10" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="10" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="10" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="55" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="166" fontId="10" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2850,285 +3074,6 @@
     <xf numFmtId="0" fontId="55" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="10" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="10" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="52" fillId="0" borderId="8" xfId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="55" fillId="0" borderId="1" xfId="15" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="177" fontId="55" fillId="0" borderId="1" xfId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="64" fillId="10" borderId="0" xfId="15" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="53" fillId="11" borderId="0" xfId="15" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="65" fillId="12" borderId="0" xfId="15" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="55" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="55" fillId="0" borderId="15" xfId="15" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="55" fillId="0" borderId="1" xfId="15" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="55" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="8" xfId="15" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="6" xfId="15" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="9" xfId="15" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="180"/>
-    </xf>
-    <xf numFmtId="180" fontId="52" fillId="0" borderId="12" xfId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="52" fillId="0" borderId="4" xfId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="52" fillId="0" borderId="5" xfId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="52" fillId="0" borderId="13" xfId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="52" fillId="0" borderId="0" xfId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="52" fillId="0" borderId="14" xfId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="10" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="2" xfId="15" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="15" xfId="15" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="3" xfId="15" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="10" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="10" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="172" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="172" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="172" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="172" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="172" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="172" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="172" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="172" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="172" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="50" fillId="0" borderId="12" xfId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="50" fillId="0" borderId="4" xfId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="50" fillId="0" borderId="5" xfId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="50" fillId="0" borderId="13" xfId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="50" fillId="0" borderId="0" xfId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="50" fillId="0" borderId="14" xfId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="50" fillId="0" borderId="11" xfId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="50" fillId="0" borderId="1" xfId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="50" fillId="0" borderId="7" xfId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="63" fillId="9" borderId="12" xfId="15" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="63" fillId="9" borderId="4" xfId="15" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="63" fillId="9" borderId="5" xfId="15" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="63" fillId="9" borderId="13" xfId="15" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="63" fillId="9" borderId="0" xfId="15" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="63" fillId="9" borderId="14" xfId="15" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="63" fillId="9" borderId="11" xfId="15" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="63" fillId="9" borderId="1" xfId="15" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="63" fillId="9" borderId="7" xfId="15" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="10" xfId="15" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="10" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="50" fillId="0" borderId="12" xfId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="4" xfId="15" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="5" xfId="15" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="13" xfId="15" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="15" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="14" xfId="15" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="11" xfId="15" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="1" xfId="15" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="7" xfId="15" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="52" fillId="0" borderId="11" xfId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="52" fillId="0" borderId="1" xfId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="52" fillId="0" borderId="7" xfId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="8" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3159,6 +3104,36 @@
     <xf numFmtId="178" fontId="36" fillId="0" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="8" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="10" fillId="0" borderId="10" xfId="8" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="8" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="8" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="171" fontId="10" fillId="0" borderId="0" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -3177,35 +3152,74 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="8" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="10" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="10" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="10" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="10" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="10" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="10" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="10" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="10" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="10" fillId="0" borderId="10" xfId="8" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="10" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="8" applyFont="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="10" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="10" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="10" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="8" applyFont="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="10" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="2" fontId="10" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3231,33 +3245,6 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="10" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="10" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="10" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="10" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3303,46 +3290,22 @@
     <xf numFmtId="165" fontId="10" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="10" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="10" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="10" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="10" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="10" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="10" fillId="5" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="10" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="10" fillId="5" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="10" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="10" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="10" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="10" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="180" fontId="72" fillId="18" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3351,6 +3314,30 @@
     <xf numFmtId="180" fontId="72" fillId="18" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="41" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="12" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="5" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="180" fontId="72" fillId="18" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3414,141 +3401,99 @@
     <xf numFmtId="0" fontId="74" fillId="17" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="68" fillId="14" borderId="2" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="68" fillId="14" borderId="15" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="68" fillId="14" borderId="3" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="12" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="2" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="5" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="15" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="176" fontId="69" fillId="15" borderId="2" xfId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="176" fontId="69" fillId="15" borderId="15" xfId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="176" fontId="69" fillId="15" borderId="3" xfId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="1" fontId="29" fillId="0" borderId="8" xfId="13" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="10" fillId="5" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="1" fontId="29" fillId="0" borderId="9" xfId="13" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="10" fillId="5" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="16" borderId="2" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="16" borderId="15" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="16" borderId="3" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="66" fillId="14" borderId="2" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="66" fillId="14" borderId="15" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="66" fillId="14" borderId="3" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="2" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="15" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="3" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="176" fontId="67" fillId="15" borderId="2" xfId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="176" fontId="67" fillId="15" borderId="15" xfId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="176" fontId="67" fillId="15" borderId="3" xfId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="166" fontId="29" fillId="0" borderId="8" xfId="13" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="166" fontId="29" fillId="0" borderId="9" xfId="13" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="16" borderId="2" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="16" borderId="15" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="16" borderId="3" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="68" fillId="14" borderId="2" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="68" fillId="14" borderId="15" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="68" fillId="14" borderId="3" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="2" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="15" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="176" fontId="69" fillId="15" borderId="2" xfId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="176" fontId="69" fillId="15" borderId="15" xfId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="176" fontId="69" fillId="15" borderId="3" xfId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="1" fontId="29" fillId="0" borderId="8" xfId="13" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="1" fontId="29" fillId="0" borderId="9" xfId="13" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="66" fillId="14" borderId="2" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="66" fillId="14" borderId="15" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="66" fillId="14" borderId="3" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="2" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="15" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="3" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="176" fontId="67" fillId="15" borderId="2" xfId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="176" fontId="67" fillId="15" borderId="15" xfId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="176" fontId="67" fillId="15" borderId="3" xfId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -4145,8 +4090,8 @@
   </sheetPr>
   <dimension ref="A1:IV62"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A10" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="BA23" sqref="BA23"/>
+    <sheetView topLeftCell="A10" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="AJ33" sqref="AJ33:AM35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.140625" defaultRowHeight="18.75" customHeight="1"/>
@@ -4164,31 +4109,31 @@
   <sheetData>
     <row r="1" spans="1:256" ht="21" customHeight="1">
       <c r="A1" s="177"/>
-      <c r="B1" s="272" t="s">
+      <c r="B1" s="319" t="s">
         <v>58</v>
       </c>
-      <c r="C1" s="272"/>
-      <c r="D1" s="272"/>
-      <c r="E1" s="272"/>
-      <c r="F1" s="272"/>
-      <c r="G1" s="272"/>
-      <c r="H1" s="272"/>
-      <c r="I1" s="272"/>
-      <c r="J1" s="272"/>
-      <c r="K1" s="272"/>
-      <c r="L1" s="272"/>
+      <c r="C1" s="319"/>
+      <c r="D1" s="319"/>
+      <c r="E1" s="319"/>
+      <c r="F1" s="319"/>
+      <c r="G1" s="319"/>
+      <c r="H1" s="319"/>
+      <c r="I1" s="319"/>
+      <c r="J1" s="319"/>
+      <c r="K1" s="319"/>
+      <c r="L1" s="319"/>
       <c r="M1" s="89" t="s">
         <v>130</v>
       </c>
       <c r="N1" s="89"/>
       <c r="O1" s="89"/>
-      <c r="Q1" s="270" t="s">
+      <c r="Q1" s="317" t="s">
         <v>131</v>
       </c>
-      <c r="R1" s="270"/>
-      <c r="S1" s="270"/>
-      <c r="T1" s="270"/>
-      <c r="U1" s="270"/>
+      <c r="R1" s="317"/>
+      <c r="S1" s="317"/>
+      <c r="T1" s="317"/>
+      <c r="U1" s="317"/>
       <c r="V1" s="90"/>
       <c r="W1" s="90"/>
       <c r="X1" s="90"/>
@@ -4209,53 +4154,53 @@
     </row>
     <row r="2" spans="1:256" ht="21" customHeight="1">
       <c r="A2" s="177"/>
-      <c r="B2" s="272"/>
-      <c r="C2" s="272"/>
-      <c r="D2" s="272"/>
-      <c r="E2" s="272"/>
-      <c r="F2" s="272"/>
-      <c r="G2" s="272"/>
-      <c r="H2" s="272"/>
-      <c r="I2" s="272"/>
-      <c r="J2" s="272"/>
-      <c r="K2" s="272"/>
-      <c r="L2" s="272"/>
+      <c r="B2" s="319"/>
+      <c r="C2" s="319"/>
+      <c r="D2" s="319"/>
+      <c r="E2" s="319"/>
+      <c r="F2" s="319"/>
+      <c r="G2" s="319"/>
+      <c r="H2" s="319"/>
+      <c r="I2" s="319"/>
+      <c r="J2" s="319"/>
+      <c r="K2" s="319"/>
+      <c r="L2" s="319"/>
       <c r="M2" s="90" t="s">
         <v>132</v>
       </c>
       <c r="N2" s="89"/>
       <c r="O2" s="90"/>
-      <c r="Q2" s="271">
+      <c r="Q2" s="318">
         <v>42005</v>
       </c>
-      <c r="R2" s="271"/>
-      <c r="S2" s="271"/>
-      <c r="T2" s="271"/>
+      <c r="R2" s="318"/>
+      <c r="S2" s="318"/>
+      <c r="T2" s="318"/>
       <c r="V2" s="90" t="s">
         <v>133</v>
       </c>
       <c r="W2" s="91"/>
-      <c r="AA2" s="271">
+      <c r="AA2" s="318">
         <v>42019</v>
       </c>
-      <c r="AB2" s="271"/>
-      <c r="AC2" s="271"/>
-      <c r="AD2" s="271"/>
+      <c r="AB2" s="318"/>
+      <c r="AC2" s="318"/>
+      <c r="AD2" s="318"/>
     </row>
     <row r="3" spans="1:256" ht="21" customHeight="1">
-      <c r="B3" s="273" t="s">
+      <c r="B3" s="320" t="s">
         <v>95</v>
       </c>
-      <c r="C3" s="273"/>
-      <c r="D3" s="273"/>
-      <c r="E3" s="273"/>
-      <c r="F3" s="273"/>
-      <c r="G3" s="273"/>
-      <c r="H3" s="273"/>
-      <c r="I3" s="273"/>
-      <c r="J3" s="273"/>
-      <c r="K3" s="273"/>
-      <c r="L3" s="273"/>
+      <c r="C3" s="320"/>
+      <c r="D3" s="320"/>
+      <c r="E3" s="320"/>
+      <c r="F3" s="320"/>
+      <c r="G3" s="320"/>
+      <c r="H3" s="320"/>
+      <c r="I3" s="320"/>
+      <c r="J3" s="320"/>
+      <c r="K3" s="320"/>
+      <c r="L3" s="320"/>
       <c r="M3" s="89" t="s">
         <v>134</v>
       </c>
@@ -4263,17 +4208,17 @@
       <c r="O3" s="89"/>
       <c r="P3" s="89"/>
       <c r="Q3" s="206"/>
-      <c r="R3" s="276">
+      <c r="R3" s="323">
         <v>20</v>
       </c>
-      <c r="S3" s="276"/>
+      <c r="S3" s="323"/>
       <c r="T3" s="92" t="s">
         <v>96</v>
       </c>
-      <c r="U3" s="277">
+      <c r="U3" s="324">
         <v>50</v>
       </c>
-      <c r="V3" s="277"/>
+      <c r="V3" s="324"/>
       <c r="W3" s="93" t="s">
         <v>60</v>
       </c>
@@ -4292,19 +4237,19 @@
       <c r="AK3" s="53"/>
     </row>
     <row r="4" spans="1:256" ht="21" customHeight="1">
-      <c r="B4" s="274" t="s">
+      <c r="B4" s="321" t="s">
         <v>107</v>
       </c>
-      <c r="C4" s="274"/>
-      <c r="D4" s="274"/>
-      <c r="E4" s="274"/>
-      <c r="F4" s="274"/>
-      <c r="G4" s="274"/>
-      <c r="H4" s="274"/>
-      <c r="I4" s="274"/>
-      <c r="J4" s="274"/>
-      <c r="K4" s="274"/>
-      <c r="L4" s="274"/>
+      <c r="C4" s="321"/>
+      <c r="D4" s="321"/>
+      <c r="E4" s="321"/>
+      <c r="F4" s="321"/>
+      <c r="G4" s="321"/>
+      <c r="H4" s="321"/>
+      <c r="I4" s="321"/>
+      <c r="J4" s="321"/>
+      <c r="K4" s="321"/>
+      <c r="L4" s="321"/>
       <c r="M4" s="89" t="s">
         <v>97</v>
       </c>
@@ -4345,33 +4290,33 @@
       <c r="E5" s="95"/>
       <c r="F5" s="95"/>
       <c r="G5" s="95"/>
-      <c r="H5" s="253" t="s">
+      <c r="H5" s="335" t="s">
         <v>75</v>
       </c>
-      <c r="I5" s="253"/>
-      <c r="J5" s="253"/>
-      <c r="K5" s="253"/>
-      <c r="L5" s="253"/>
-      <c r="M5" s="253"/>
-      <c r="N5" s="253"/>
-      <c r="O5" s="253"/>
-      <c r="P5" s="253"/>
-      <c r="Q5" s="253"/>
-      <c r="R5" s="253"/>
-      <c r="S5" s="253"/>
-      <c r="T5" s="253"/>
-      <c r="U5" s="253"/>
-      <c r="V5" s="253"/>
-      <c r="W5" s="253"/>
-      <c r="X5" s="253"/>
-      <c r="Y5" s="253"/>
-      <c r="Z5" s="253"/>
-      <c r="AA5" s="253"/>
-      <c r="AB5" s="253"/>
-      <c r="AC5" s="253"/>
-      <c r="AD5" s="253"/>
-      <c r="AE5" s="253"/>
-      <c r="AF5" s="253"/>
+      <c r="I5" s="335"/>
+      <c r="J5" s="335"/>
+      <c r="K5" s="335"/>
+      <c r="L5" s="335"/>
+      <c r="M5" s="335"/>
+      <c r="N5" s="335"/>
+      <c r="O5" s="335"/>
+      <c r="P5" s="335"/>
+      <c r="Q5" s="335"/>
+      <c r="R5" s="335"/>
+      <c r="S5" s="335"/>
+      <c r="T5" s="335"/>
+      <c r="U5" s="335"/>
+      <c r="V5" s="335"/>
+      <c r="W5" s="335"/>
+      <c r="X5" s="335"/>
+      <c r="Y5" s="335"/>
+      <c r="Z5" s="335"/>
+      <c r="AA5" s="335"/>
+      <c r="AB5" s="335"/>
+      <c r="AC5" s="335"/>
+      <c r="AD5" s="335"/>
+      <c r="AE5" s="335"/>
+      <c r="AF5" s="335"/>
       <c r="AG5" s="74"/>
       <c r="AH5" s="74"/>
       <c r="AI5" s="74"/>
@@ -4607,17 +4552,17 @@
       <c r="E6" s="95"/>
       <c r="F6" s="95"/>
       <c r="G6" s="95"/>
-      <c r="H6" s="254" t="s">
+      <c r="H6" s="326" t="s">
         <v>107</v>
       </c>
-      <c r="I6" s="254"/>
-      <c r="J6" s="254"/>
-      <c r="K6" s="254"/>
-      <c r="L6" s="254"/>
-      <c r="M6" s="254"/>
-      <c r="N6" s="254"/>
-      <c r="O6" s="254"/>
-      <c r="P6" s="254"/>
+      <c r="I6" s="326"/>
+      <c r="J6" s="326"/>
+      <c r="K6" s="326"/>
+      <c r="L6" s="326"/>
+      <c r="M6" s="326"/>
+      <c r="N6" s="326"/>
+      <c r="O6" s="326"/>
+      <c r="P6" s="326"/>
       <c r="Q6" s="94" t="s">
         <v>63</v>
       </c>
@@ -4625,19 +4570,19 @@
       <c r="S6" s="74"/>
       <c r="T6" s="74"/>
       <c r="U6" s="98"/>
-      <c r="V6" s="254" t="s">
+      <c r="V6" s="326" t="s">
         <v>65</v>
       </c>
-      <c r="W6" s="254"/>
-      <c r="X6" s="254"/>
-      <c r="Y6" s="254"/>
-      <c r="Z6" s="254"/>
-      <c r="AA6" s="254"/>
-      <c r="AB6" s="254"/>
-      <c r="AC6" s="254"/>
-      <c r="AD6" s="254"/>
-      <c r="AE6" s="254"/>
-      <c r="AF6" s="254"/>
+      <c r="W6" s="326"/>
+      <c r="X6" s="326"/>
+      <c r="Y6" s="326"/>
+      <c r="Z6" s="326"/>
+      <c r="AA6" s="326"/>
+      <c r="AB6" s="326"/>
+      <c r="AC6" s="326"/>
+      <c r="AD6" s="326"/>
+      <c r="AE6" s="326"/>
+      <c r="AF6" s="326"/>
       <c r="AG6" s="74"/>
       <c r="AH6" s="74"/>
       <c r="AI6" s="75"/>
@@ -4870,44 +4815,44 @@
       </c>
       <c r="C7" s="74"/>
       <c r="D7" s="74"/>
-      <c r="E7" s="255">
+      <c r="E7" s="336">
         <v>123</v>
       </c>
-      <c r="F7" s="255"/>
-      <c r="G7" s="255"/>
-      <c r="H7" s="255"/>
-      <c r="I7" s="255"/>
-      <c r="J7" s="255"/>
-      <c r="K7" s="255"/>
-      <c r="L7" s="255"/>
-      <c r="M7" s="278" t="s">
+      <c r="F7" s="336"/>
+      <c r="G7" s="336"/>
+      <c r="H7" s="336"/>
+      <c r="I7" s="336"/>
+      <c r="J7" s="336"/>
+      <c r="K7" s="336"/>
+      <c r="L7" s="336"/>
+      <c r="M7" s="325" t="s">
         <v>64</v>
       </c>
-      <c r="N7" s="278"/>
-      <c r="O7" s="278"/>
-      <c r="P7" s="255">
+      <c r="N7" s="325"/>
+      <c r="O7" s="325"/>
+      <c r="P7" s="336">
         <v>456</v>
       </c>
-      <c r="Q7" s="255"/>
-      <c r="R7" s="255"/>
-      <c r="S7" s="255"/>
-      <c r="T7" s="255"/>
-      <c r="U7" s="255"/>
-      <c r="V7" s="255"/>
-      <c r="W7" s="255"/>
-      <c r="X7" s="263" t="s">
+      <c r="Q7" s="336"/>
+      <c r="R7" s="336"/>
+      <c r="S7" s="336"/>
+      <c r="T7" s="336"/>
+      <c r="U7" s="336"/>
+      <c r="V7" s="336"/>
+      <c r="W7" s="336"/>
+      <c r="X7" s="338" t="s">
         <v>66</v>
       </c>
-      <c r="Y7" s="263"/>
-      <c r="Z7" s="254">
+      <c r="Y7" s="338"/>
+      <c r="Z7" s="326">
         <v>789</v>
       </c>
-      <c r="AA7" s="254"/>
-      <c r="AB7" s="254"/>
-      <c r="AC7" s="254"/>
-      <c r="AD7" s="254"/>
-      <c r="AE7" s="254"/>
-      <c r="AF7" s="254"/>
+      <c r="AA7" s="326"/>
+      <c r="AB7" s="326"/>
+      <c r="AC7" s="326"/>
+      <c r="AD7" s="326"/>
+      <c r="AE7" s="326"/>
+      <c r="AF7" s="326"/>
       <c r="AG7" s="99"/>
       <c r="AH7" s="74"/>
       <c r="AI7" s="75"/>
@@ -5140,17 +5085,17 @@
       </c>
       <c r="C8" s="97"/>
       <c r="D8" s="95"/>
-      <c r="E8" s="254">
+      <c r="E8" s="326">
         <v>0</v>
       </c>
-      <c r="F8" s="254"/>
+      <c r="F8" s="326"/>
       <c r="G8" s="136" t="s">
         <v>59</v>
       </c>
-      <c r="H8" s="275">
+      <c r="H8" s="322">
         <v>10</v>
       </c>
-      <c r="I8" s="275"/>
+      <c r="I8" s="322"/>
       <c r="J8" s="209" t="s">
         <v>47</v>
       </c>
@@ -5161,10 +5106,10 @@
       <c r="O8" s="101" t="s">
         <v>100</v>
       </c>
-      <c r="P8" s="261"/>
-      <c r="Q8" s="261"/>
-      <c r="R8" s="261"/>
-      <c r="S8" s="261"/>
+      <c r="P8" s="327"/>
+      <c r="Q8" s="327"/>
+      <c r="R8" s="327"/>
+      <c r="S8" s="327"/>
       <c r="T8" s="74"/>
       <c r="U8" s="74"/>
       <c r="V8" s="74"/>
@@ -5427,23 +5372,23 @@
       </c>
       <c r="N9" s="74"/>
       <c r="O9" s="100"/>
-      <c r="P9" s="264"/>
-      <c r="Q9" s="264"/>
-      <c r="R9" s="264"/>
-      <c r="S9" s="264"/>
-      <c r="T9" s="264"/>
-      <c r="U9" s="264"/>
-      <c r="V9" s="264"/>
-      <c r="W9" s="264"/>
-      <c r="X9" s="264"/>
-      <c r="Y9" s="264"/>
-      <c r="Z9" s="264"/>
-      <c r="AA9" s="264"/>
-      <c r="AB9" s="264"/>
-      <c r="AC9" s="264"/>
-      <c r="AD9" s="264"/>
-      <c r="AE9" s="264"/>
-      <c r="AF9" s="264"/>
+      <c r="P9" s="339"/>
+      <c r="Q9" s="339"/>
+      <c r="R9" s="339"/>
+      <c r="S9" s="339"/>
+      <c r="T9" s="339"/>
+      <c r="U9" s="339"/>
+      <c r="V9" s="339"/>
+      <c r="W9" s="339"/>
+      <c r="X9" s="339"/>
+      <c r="Y9" s="339"/>
+      <c r="Z9" s="339"/>
+      <c r="AA9" s="339"/>
+      <c r="AB9" s="339"/>
+      <c r="AC9" s="339"/>
+      <c r="AD9" s="339"/>
+      <c r="AE9" s="339"/>
+      <c r="AF9" s="339"/>
       <c r="AG9" s="99"/>
       <c r="AH9" s="74"/>
       <c r="AI9" s="75"/>
@@ -5938,32 +5883,32 @@
       <c r="F11" s="100"/>
       <c r="G11" s="100"/>
       <c r="H11" s="108"/>
-      <c r="I11" s="261"/>
-      <c r="J11" s="261"/>
-      <c r="K11" s="261"/>
-      <c r="L11" s="261"/>
-      <c r="M11" s="261"/>
-      <c r="N11" s="261"/>
-      <c r="O11" s="261"/>
-      <c r="P11" s="261"/>
-      <c r="Q11" s="261"/>
+      <c r="I11" s="327"/>
+      <c r="J11" s="327"/>
+      <c r="K11" s="327"/>
+      <c r="L11" s="327"/>
+      <c r="M11" s="327"/>
+      <c r="N11" s="327"/>
+      <c r="O11" s="327"/>
+      <c r="P11" s="327"/>
+      <c r="Q11" s="327"/>
       <c r="R11" s="94"/>
       <c r="S11" s="109" t="s">
         <v>105</v>
       </c>
       <c r="T11" s="109"/>
       <c r="U11" s="95"/>
-      <c r="V11" s="261"/>
-      <c r="W11" s="261"/>
-      <c r="X11" s="261"/>
-      <c r="Y11" s="261"/>
-      <c r="Z11" s="261"/>
-      <c r="AA11" s="261"/>
-      <c r="AB11" s="261"/>
-      <c r="AC11" s="261"/>
-      <c r="AD11" s="261"/>
-      <c r="AE11" s="261"/>
-      <c r="AF11" s="261"/>
+      <c r="V11" s="327"/>
+      <c r="W11" s="327"/>
+      <c r="X11" s="327"/>
+      <c r="Y11" s="327"/>
+      <c r="Z11" s="327"/>
+      <c r="AA11" s="327"/>
+      <c r="AB11" s="327"/>
+      <c r="AC11" s="327"/>
+      <c r="AD11" s="327"/>
+      <c r="AE11" s="327"/>
+      <c r="AF11" s="327"/>
       <c r="AG11" s="110"/>
       <c r="AH11" s="74"/>
       <c r="AI11" s="75"/>
@@ -6200,32 +6145,32 @@
       <c r="F12" s="100"/>
       <c r="G12" s="100"/>
       <c r="H12" s="108"/>
-      <c r="I12" s="256"/>
-      <c r="J12" s="256"/>
-      <c r="K12" s="256"/>
-      <c r="L12" s="256"/>
-      <c r="M12" s="256"/>
-      <c r="N12" s="256"/>
-      <c r="O12" s="256"/>
-      <c r="P12" s="256"/>
-      <c r="Q12" s="256"/>
+      <c r="I12" s="328"/>
+      <c r="J12" s="328"/>
+      <c r="K12" s="328"/>
+      <c r="L12" s="328"/>
+      <c r="M12" s="328"/>
+      <c r="N12" s="328"/>
+      <c r="O12" s="328"/>
+      <c r="P12" s="328"/>
+      <c r="Q12" s="328"/>
       <c r="R12" s="94"/>
       <c r="S12" s="109" t="s">
         <v>105</v>
       </c>
       <c r="T12" s="109"/>
       <c r="U12" s="95"/>
-      <c r="V12" s="256"/>
-      <c r="W12" s="256"/>
-      <c r="X12" s="256"/>
-      <c r="Y12" s="256"/>
-      <c r="Z12" s="256"/>
-      <c r="AA12" s="256"/>
-      <c r="AB12" s="256"/>
-      <c r="AC12" s="256"/>
-      <c r="AD12" s="256"/>
-      <c r="AE12" s="256"/>
-      <c r="AF12" s="256"/>
+      <c r="V12" s="328"/>
+      <c r="W12" s="328"/>
+      <c r="X12" s="328"/>
+      <c r="Y12" s="328"/>
+      <c r="Z12" s="328"/>
+      <c r="AA12" s="328"/>
+      <c r="AB12" s="328"/>
+      <c r="AC12" s="328"/>
+      <c r="AD12" s="328"/>
+      <c r="AE12" s="328"/>
+      <c r="AF12" s="328"/>
       <c r="AG12" s="74"/>
       <c r="AH12" s="74"/>
       <c r="AN12" s="75"/>
@@ -6489,537 +6434,537 @@
       <c r="AP14" s="112"/>
     </row>
     <row r="15" spans="1:256" ht="18.75" customHeight="1">
-      <c r="B15" s="288" t="s">
+      <c r="B15" s="306" t="s">
         <v>69</v>
       </c>
-      <c r="C15" s="289"/>
-      <c r="D15" s="290"/>
-      <c r="E15" s="291" t="s">
+      <c r="C15" s="307"/>
+      <c r="D15" s="308"/>
+      <c r="E15" s="309" t="s">
         <v>124</v>
       </c>
-      <c r="F15" s="285" t="s">
+      <c r="F15" s="297" t="s">
         <v>125</v>
       </c>
-      <c r="G15" s="286"/>
-      <c r="H15" s="286"/>
-      <c r="I15" s="286"/>
-      <c r="J15" s="286"/>
-      <c r="K15" s="286"/>
-      <c r="L15" s="286"/>
-      <c r="M15" s="286"/>
-      <c r="N15" s="286"/>
-      <c r="O15" s="286"/>
-      <c r="P15" s="286"/>
-      <c r="Q15" s="286"/>
-      <c r="R15" s="286"/>
-      <c r="S15" s="286"/>
-      <c r="T15" s="286"/>
-      <c r="U15" s="286"/>
-      <c r="V15" s="286"/>
-      <c r="W15" s="286"/>
-      <c r="X15" s="286"/>
-      <c r="Y15" s="286"/>
-      <c r="Z15" s="286"/>
-      <c r="AA15" s="286"/>
-      <c r="AB15" s="286"/>
-      <c r="AC15" s="287"/>
-      <c r="AD15" s="335" t="s">
+      <c r="G15" s="298"/>
+      <c r="H15" s="298"/>
+      <c r="I15" s="298"/>
+      <c r="J15" s="298"/>
+      <c r="K15" s="298"/>
+      <c r="L15" s="298"/>
+      <c r="M15" s="298"/>
+      <c r="N15" s="298"/>
+      <c r="O15" s="298"/>
+      <c r="P15" s="298"/>
+      <c r="Q15" s="298"/>
+      <c r="R15" s="298"/>
+      <c r="S15" s="298"/>
+      <c r="T15" s="298"/>
+      <c r="U15" s="298"/>
+      <c r="V15" s="298"/>
+      <c r="W15" s="298"/>
+      <c r="X15" s="298"/>
+      <c r="Y15" s="298"/>
+      <c r="Z15" s="298"/>
+      <c r="AA15" s="298"/>
+      <c r="AB15" s="298"/>
+      <c r="AC15" s="299"/>
+      <c r="AD15" s="296" t="s">
         <v>70</v>
       </c>
-      <c r="AE15" s="335"/>
-      <c r="AF15" s="335"/>
-      <c r="AG15" s="335"/>
-      <c r="AH15" s="335"/>
-      <c r="AI15" s="335"/>
-      <c r="AJ15" s="326" t="s">
+      <c r="AE15" s="296"/>
+      <c r="AF15" s="296"/>
+      <c r="AG15" s="296"/>
+      <c r="AH15" s="296"/>
+      <c r="AI15" s="296"/>
+      <c r="AJ15" s="287" t="s">
         <v>44</v>
       </c>
-      <c r="AK15" s="327"/>
-      <c r="AL15" s="327"/>
-      <c r="AM15" s="328"/>
-      <c r="AN15" s="335" t="s">
+      <c r="AK15" s="288"/>
+      <c r="AL15" s="288"/>
+      <c r="AM15" s="289"/>
+      <c r="AN15" s="296" t="s">
         <v>89</v>
       </c>
-      <c r="AO15" s="335"/>
-      <c r="AP15" s="335"/>
-      <c r="AQ15" s="335"/>
+      <c r="AO15" s="296"/>
+      <c r="AP15" s="296"/>
+      <c r="AQ15" s="296"/>
     </row>
     <row r="16" spans="1:256" ht="18.75" customHeight="1">
-      <c r="B16" s="279" t="s">
+      <c r="B16" s="329" t="s">
         <v>48</v>
       </c>
-      <c r="C16" s="280"/>
-      <c r="D16" s="281"/>
-      <c r="E16" s="292"/>
-      <c r="F16" s="285" t="s">
+      <c r="C16" s="330"/>
+      <c r="D16" s="331"/>
+      <c r="E16" s="310"/>
+      <c r="F16" s="297" t="s">
         <v>126</v>
       </c>
-      <c r="G16" s="286"/>
-      <c r="H16" s="286"/>
-      <c r="I16" s="286"/>
-      <c r="J16" s="286"/>
-      <c r="K16" s="286"/>
-      <c r="L16" s="286"/>
-      <c r="M16" s="286"/>
-      <c r="N16" s="286"/>
-      <c r="O16" s="286"/>
-      <c r="P16" s="286"/>
-      <c r="Q16" s="287"/>
-      <c r="R16" s="285" t="s">
+      <c r="G16" s="298"/>
+      <c r="H16" s="298"/>
+      <c r="I16" s="298"/>
+      <c r="J16" s="298"/>
+      <c r="K16" s="298"/>
+      <c r="L16" s="298"/>
+      <c r="M16" s="298"/>
+      <c r="N16" s="298"/>
+      <c r="O16" s="298"/>
+      <c r="P16" s="298"/>
+      <c r="Q16" s="299"/>
+      <c r="R16" s="297" t="s">
         <v>127</v>
       </c>
-      <c r="S16" s="286"/>
-      <c r="T16" s="286"/>
-      <c r="U16" s="286"/>
-      <c r="V16" s="286"/>
-      <c r="W16" s="286"/>
-      <c r="X16" s="286"/>
-      <c r="Y16" s="286"/>
-      <c r="Z16" s="286"/>
-      <c r="AA16" s="286"/>
-      <c r="AB16" s="286"/>
-      <c r="AC16" s="287"/>
-      <c r="AD16" s="335"/>
-      <c r="AE16" s="335"/>
-      <c r="AF16" s="335"/>
-      <c r="AG16" s="335"/>
-      <c r="AH16" s="335"/>
-      <c r="AI16" s="335"/>
-      <c r="AJ16" s="329"/>
-      <c r="AK16" s="330"/>
-      <c r="AL16" s="330"/>
-      <c r="AM16" s="331"/>
-      <c r="AN16" s="335"/>
-      <c r="AO16" s="335"/>
-      <c r="AP16" s="335"/>
-      <c r="AQ16" s="335"/>
+      <c r="S16" s="298"/>
+      <c r="T16" s="298"/>
+      <c r="U16" s="298"/>
+      <c r="V16" s="298"/>
+      <c r="W16" s="298"/>
+      <c r="X16" s="298"/>
+      <c r="Y16" s="298"/>
+      <c r="Z16" s="298"/>
+      <c r="AA16" s="298"/>
+      <c r="AB16" s="298"/>
+      <c r="AC16" s="299"/>
+      <c r="AD16" s="296"/>
+      <c r="AE16" s="296"/>
+      <c r="AF16" s="296"/>
+      <c r="AG16" s="296"/>
+      <c r="AH16" s="296"/>
+      <c r="AI16" s="296"/>
+      <c r="AJ16" s="290"/>
+      <c r="AK16" s="291"/>
+      <c r="AL16" s="291"/>
+      <c r="AM16" s="292"/>
+      <c r="AN16" s="296"/>
+      <c r="AO16" s="296"/>
+      <c r="AP16" s="296"/>
+      <c r="AQ16" s="296"/>
     </row>
     <row r="17" spans="2:43" ht="18.75" customHeight="1">
-      <c r="B17" s="282" t="s">
+      <c r="B17" s="332" t="s">
         <v>71</v>
       </c>
-      <c r="C17" s="283"/>
-      <c r="D17" s="284"/>
-      <c r="E17" s="293"/>
-      <c r="F17" s="285">
+      <c r="C17" s="333"/>
+      <c r="D17" s="334"/>
+      <c r="E17" s="311"/>
+      <c r="F17" s="297">
         <v>1</v>
       </c>
-      <c r="G17" s="286"/>
-      <c r="H17" s="286"/>
-      <c r="I17" s="285">
+      <c r="G17" s="298"/>
+      <c r="H17" s="298"/>
+      <c r="I17" s="297">
         <v>2</v>
       </c>
-      <c r="J17" s="286"/>
-      <c r="K17" s="287"/>
-      <c r="L17" s="302">
+      <c r="J17" s="298"/>
+      <c r="K17" s="299"/>
+      <c r="L17" s="300">
         <v>3</v>
       </c>
-      <c r="M17" s="303"/>
-      <c r="N17" s="304"/>
-      <c r="O17" s="302">
+      <c r="M17" s="301"/>
+      <c r="N17" s="302"/>
+      <c r="O17" s="300">
         <v>4</v>
       </c>
-      <c r="P17" s="303"/>
-      <c r="Q17" s="304"/>
-      <c r="R17" s="285">
+      <c r="P17" s="301"/>
+      <c r="Q17" s="302"/>
+      <c r="R17" s="297">
         <v>1</v>
       </c>
-      <c r="S17" s="286"/>
-      <c r="T17" s="287"/>
-      <c r="U17" s="286">
+      <c r="S17" s="298"/>
+      <c r="T17" s="299"/>
+      <c r="U17" s="298">
         <v>2</v>
       </c>
-      <c r="V17" s="286"/>
-      <c r="W17" s="286"/>
-      <c r="X17" s="302">
+      <c r="V17" s="298"/>
+      <c r="W17" s="298"/>
+      <c r="X17" s="300">
         <v>3</v>
       </c>
-      <c r="Y17" s="303"/>
-      <c r="Z17" s="304"/>
-      <c r="AA17" s="302">
+      <c r="Y17" s="301"/>
+      <c r="Z17" s="302"/>
+      <c r="AA17" s="300">
         <v>4</v>
       </c>
-      <c r="AB17" s="303"/>
-      <c r="AC17" s="304"/>
-      <c r="AD17" s="302" t="s">
+      <c r="AB17" s="301"/>
+      <c r="AC17" s="302"/>
+      <c r="AD17" s="300" t="s">
         <v>128</v>
       </c>
-      <c r="AE17" s="303"/>
-      <c r="AF17" s="304"/>
-      <c r="AG17" s="302" t="s">
+      <c r="AE17" s="301"/>
+      <c r="AF17" s="302"/>
+      <c r="AG17" s="300" t="s">
         <v>129</v>
       </c>
-      <c r="AH17" s="303"/>
-      <c r="AI17" s="304"/>
-      <c r="AJ17" s="332"/>
-      <c r="AK17" s="333"/>
-      <c r="AL17" s="333"/>
-      <c r="AM17" s="334"/>
-      <c r="AN17" s="335"/>
-      <c r="AO17" s="335"/>
-      <c r="AP17" s="335"/>
-      <c r="AQ17" s="335"/>
+      <c r="AH17" s="301"/>
+      <c r="AI17" s="302"/>
+      <c r="AJ17" s="293"/>
+      <c r="AK17" s="294"/>
+      <c r="AL17" s="294"/>
+      <c r="AM17" s="295"/>
+      <c r="AN17" s="296"/>
+      <c r="AO17" s="296"/>
+      <c r="AP17" s="296"/>
+      <c r="AQ17" s="296"/>
     </row>
     <row r="18" spans="2:43" ht="21" customHeight="1">
-      <c r="B18" s="294">
+      <c r="B18" s="256">
         <v>2.5</v>
       </c>
-      <c r="C18" s="295"/>
-      <c r="D18" s="296"/>
+      <c r="C18" s="257"/>
+      <c r="D18" s="258"/>
       <c r="E18" s="202" t="s">
         <v>15</v>
       </c>
-      <c r="F18" s="257">
+      <c r="F18" s="312">
         <v>2.5</v>
       </c>
-      <c r="G18" s="258"/>
-      <c r="H18" s="258"/>
-      <c r="I18" s="257">
+      <c r="G18" s="313"/>
+      <c r="H18" s="313"/>
+      <c r="I18" s="312">
         <v>2.5</v>
       </c>
-      <c r="J18" s="258"/>
-      <c r="K18" s="258"/>
-      <c r="L18" s="257">
+      <c r="J18" s="313"/>
+      <c r="K18" s="313"/>
+      <c r="L18" s="312">
         <v>2.5</v>
       </c>
-      <c r="M18" s="258"/>
-      <c r="N18" s="258"/>
-      <c r="O18" s="257">
+      <c r="M18" s="313"/>
+      <c r="N18" s="313"/>
+      <c r="O18" s="312">
         <v>2.5</v>
       </c>
-      <c r="P18" s="258"/>
-      <c r="Q18" s="258"/>
-      <c r="R18" s="257">
+      <c r="P18" s="313"/>
+      <c r="Q18" s="313"/>
+      <c r="R18" s="312">
         <v>2.5</v>
       </c>
-      <c r="S18" s="258"/>
-      <c r="T18" s="258"/>
-      <c r="U18" s="257">
+      <c r="S18" s="313"/>
+      <c r="T18" s="313"/>
+      <c r="U18" s="312">
         <v>2.5</v>
       </c>
-      <c r="V18" s="258"/>
-      <c r="W18" s="258"/>
-      <c r="X18" s="257">
+      <c r="V18" s="313"/>
+      <c r="W18" s="313"/>
+      <c r="X18" s="312">
         <v>2.5</v>
       </c>
-      <c r="Y18" s="258"/>
-      <c r="Z18" s="258"/>
-      <c r="AA18" s="257">
+      <c r="Y18" s="313"/>
+      <c r="Z18" s="313"/>
+      <c r="AA18" s="312">
         <v>2.5</v>
       </c>
-      <c r="AB18" s="258"/>
-      <c r="AC18" s="262"/>
-      <c r="AD18" s="269">
+      <c r="AB18" s="313"/>
+      <c r="AC18" s="337"/>
+      <c r="AD18" s="253">
         <f>AVERAGE(F18,I18,L18,O18)</f>
         <v>2.5</v>
       </c>
-      <c r="AE18" s="269"/>
-      <c r="AF18" s="269"/>
-      <c r="AG18" s="269">
+      <c r="AE18" s="253"/>
+      <c r="AF18" s="253"/>
+      <c r="AG18" s="253">
         <f>AVERAGE(R18,U18,X18,AA18)</f>
         <v>2.5</v>
       </c>
-      <c r="AH18" s="269"/>
-      <c r="AI18" s="269"/>
-      <c r="AJ18" s="308">
-        <f>STDEV(Z18:AE20)/SQRT(4)</f>
+      <c r="AH18" s="253"/>
+      <c r="AI18" s="253"/>
+      <c r="AJ18" s="269">
+        <f>MAX(_xlfn.STDEV.S(F18:Q18),_xlfn.STDEV.S(F19:Q19),_xlfn.STDEV.S(F20:Q20),_xlfn.STDEV.S(R18:AC18),_xlfn.STDEV.S(R19:AC19),_xlfn.STDEV.S(R20:AC20))/SQRT(4)</f>
         <v>0</v>
       </c>
-      <c r="AK18" s="309"/>
-      <c r="AL18" s="309"/>
-      <c r="AM18" s="310"/>
-      <c r="AN18" s="317">
-        <f>AVERAGE(AD18:AI20)-B18</f>
+      <c r="AK18" s="270"/>
+      <c r="AL18" s="270"/>
+      <c r="AM18" s="271"/>
+      <c r="AN18" s="278">
+        <f>MAX(ABS(AD18-B18),ABS(AD19-B18),ABS(AD20-B18),ABS(AG18-B18),ABS(AG19-B18),ABS(AG20-B18))</f>
         <v>0</v>
       </c>
-      <c r="AO18" s="318"/>
-      <c r="AP18" s="318"/>
-      <c r="AQ18" s="319"/>
+      <c r="AO18" s="279"/>
+      <c r="AP18" s="279"/>
+      <c r="AQ18" s="280"/>
     </row>
     <row r="19" spans="2:43" ht="21" customHeight="1">
-      <c r="B19" s="297"/>
-      <c r="C19" s="298"/>
-      <c r="D19" s="299"/>
+      <c r="B19" s="259"/>
+      <c r="C19" s="260"/>
+      <c r="D19" s="261"/>
       <c r="E19" s="203" t="s">
         <v>16</v>
       </c>
-      <c r="F19" s="300">
+      <c r="F19" s="303">
         <v>2.5</v>
       </c>
-      <c r="G19" s="301"/>
-      <c r="H19" s="301"/>
-      <c r="I19" s="300">
+      <c r="G19" s="304"/>
+      <c r="H19" s="304"/>
+      <c r="I19" s="303">
         <v>2.5</v>
       </c>
-      <c r="J19" s="301"/>
-      <c r="K19" s="301"/>
-      <c r="L19" s="300">
+      <c r="J19" s="304"/>
+      <c r="K19" s="304"/>
+      <c r="L19" s="303">
         <v>2.5</v>
       </c>
-      <c r="M19" s="301"/>
-      <c r="N19" s="301"/>
-      <c r="O19" s="300">
+      <c r="M19" s="304"/>
+      <c r="N19" s="304"/>
+      <c r="O19" s="303">
         <v>2.5</v>
       </c>
-      <c r="P19" s="301"/>
-      <c r="Q19" s="301"/>
-      <c r="R19" s="300">
+      <c r="P19" s="304"/>
+      <c r="Q19" s="304"/>
+      <c r="R19" s="303">
         <v>2.5</v>
       </c>
-      <c r="S19" s="301"/>
-      <c r="T19" s="301"/>
-      <c r="U19" s="300">
+      <c r="S19" s="304"/>
+      <c r="T19" s="304"/>
+      <c r="U19" s="303">
         <v>2.5</v>
       </c>
-      <c r="V19" s="301"/>
-      <c r="W19" s="301"/>
-      <c r="X19" s="300">
+      <c r="V19" s="304"/>
+      <c r="W19" s="304"/>
+      <c r="X19" s="303">
         <v>2.5</v>
       </c>
-      <c r="Y19" s="301"/>
-      <c r="Z19" s="301"/>
-      <c r="AA19" s="300">
+      <c r="Y19" s="304"/>
+      <c r="Z19" s="304"/>
+      <c r="AA19" s="303">
         <v>2.5</v>
       </c>
-      <c r="AB19" s="301"/>
-      <c r="AC19" s="336"/>
-      <c r="AD19" s="269">
+      <c r="AB19" s="304"/>
+      <c r="AC19" s="305"/>
+      <c r="AD19" s="253">
         <f t="shared" ref="AD19:AD35" si="0">AVERAGE(F19,I19,L19,O19)</f>
         <v>2.5</v>
       </c>
-      <c r="AE19" s="269"/>
-      <c r="AF19" s="269"/>
-      <c r="AG19" s="269">
+      <c r="AE19" s="253"/>
+      <c r="AF19" s="253"/>
+      <c r="AG19" s="253">
         <f t="shared" ref="AG19:AG35" si="1">AVERAGE(R19,U19,X19,AA19)</f>
         <v>2.5</v>
       </c>
-      <c r="AH19" s="269"/>
-      <c r="AI19" s="269"/>
-      <c r="AJ19" s="311"/>
-      <c r="AK19" s="312"/>
-      <c r="AL19" s="312"/>
-      <c r="AM19" s="313"/>
-      <c r="AN19" s="320"/>
-      <c r="AO19" s="321"/>
-      <c r="AP19" s="321"/>
-      <c r="AQ19" s="322"/>
+      <c r="AH19" s="253"/>
+      <c r="AI19" s="253"/>
+      <c r="AJ19" s="272"/>
+      <c r="AK19" s="273"/>
+      <c r="AL19" s="273"/>
+      <c r="AM19" s="274"/>
+      <c r="AN19" s="281"/>
+      <c r="AO19" s="282"/>
+      <c r="AP19" s="282"/>
+      <c r="AQ19" s="283"/>
     </row>
     <row r="20" spans="2:43" ht="21" customHeight="1">
-      <c r="B20" s="297"/>
-      <c r="C20" s="298"/>
-      <c r="D20" s="299"/>
+      <c r="B20" s="259"/>
+      <c r="C20" s="260"/>
+      <c r="D20" s="261"/>
       <c r="E20" s="204" t="s">
         <v>17</v>
       </c>
-      <c r="F20" s="305">
+      <c r="F20" s="314">
         <v>2.5</v>
       </c>
-      <c r="G20" s="306"/>
-      <c r="H20" s="306"/>
-      <c r="I20" s="305">
+      <c r="G20" s="315"/>
+      <c r="H20" s="315"/>
+      <c r="I20" s="314">
         <v>2.5</v>
       </c>
-      <c r="J20" s="306"/>
-      <c r="K20" s="306"/>
-      <c r="L20" s="305">
+      <c r="J20" s="315"/>
+      <c r="K20" s="315"/>
+      <c r="L20" s="314">
         <v>2.5</v>
       </c>
-      <c r="M20" s="306"/>
-      <c r="N20" s="306"/>
-      <c r="O20" s="305">
+      <c r="M20" s="315"/>
+      <c r="N20" s="315"/>
+      <c r="O20" s="314">
         <v>2.5</v>
       </c>
-      <c r="P20" s="306"/>
-      <c r="Q20" s="306"/>
-      <c r="R20" s="305">
+      <c r="P20" s="315"/>
+      <c r="Q20" s="315"/>
+      <c r="R20" s="314">
         <v>2.5</v>
       </c>
-      <c r="S20" s="306"/>
-      <c r="T20" s="306"/>
-      <c r="U20" s="305">
+      <c r="S20" s="315"/>
+      <c r="T20" s="315"/>
+      <c r="U20" s="314">
         <v>2.5</v>
       </c>
-      <c r="V20" s="306"/>
-      <c r="W20" s="306"/>
-      <c r="X20" s="305">
+      <c r="V20" s="315"/>
+      <c r="W20" s="315"/>
+      <c r="X20" s="314">
         <v>2.5</v>
       </c>
-      <c r="Y20" s="306"/>
-      <c r="Z20" s="306"/>
-      <c r="AA20" s="305">
+      <c r="Y20" s="315"/>
+      <c r="Z20" s="315"/>
+      <c r="AA20" s="314">
         <v>2.5</v>
       </c>
-      <c r="AB20" s="306"/>
-      <c r="AC20" s="307"/>
-      <c r="AD20" s="269">
+      <c r="AB20" s="315"/>
+      <c r="AC20" s="316"/>
+      <c r="AD20" s="253">
         <f t="shared" si="0"/>
         <v>2.5</v>
       </c>
-      <c r="AE20" s="269"/>
-      <c r="AF20" s="269"/>
-      <c r="AG20" s="269">
+      <c r="AE20" s="253"/>
+      <c r="AF20" s="253"/>
+      <c r="AG20" s="253">
         <f t="shared" si="1"/>
         <v>2.5</v>
       </c>
-      <c r="AH20" s="269"/>
-      <c r="AI20" s="269"/>
-      <c r="AJ20" s="314"/>
-      <c r="AK20" s="315"/>
-      <c r="AL20" s="315"/>
-      <c r="AM20" s="316"/>
-      <c r="AN20" s="323"/>
-      <c r="AO20" s="324"/>
-      <c r="AP20" s="324"/>
-      <c r="AQ20" s="325"/>
+      <c r="AH20" s="253"/>
+      <c r="AI20" s="253"/>
+      <c r="AJ20" s="275"/>
+      <c r="AK20" s="276"/>
+      <c r="AL20" s="276"/>
+      <c r="AM20" s="277"/>
+      <c r="AN20" s="284"/>
+      <c r="AO20" s="285"/>
+      <c r="AP20" s="285"/>
+      <c r="AQ20" s="286"/>
     </row>
     <row r="21" spans="2:43" ht="21" customHeight="1">
-      <c r="B21" s="294">
+      <c r="B21" s="256">
         <v>5.0999999999999996</v>
       </c>
-      <c r="C21" s="295"/>
-      <c r="D21" s="296"/>
+      <c r="C21" s="257"/>
+      <c r="D21" s="258"/>
       <c r="E21" s="202" t="s">
         <v>15</v>
       </c>
-      <c r="F21" s="259">
+      <c r="F21" s="265">
         <v>5.0999999999999996</v>
       </c>
-      <c r="G21" s="260"/>
-      <c r="H21" s="260"/>
-      <c r="I21" s="259">
+      <c r="G21" s="266"/>
+      <c r="H21" s="266"/>
+      <c r="I21" s="265">
         <v>5.0999999999999996</v>
       </c>
-      <c r="J21" s="260"/>
-      <c r="K21" s="260"/>
-      <c r="L21" s="259">
+      <c r="J21" s="266"/>
+      <c r="K21" s="266"/>
+      <c r="L21" s="265">
         <v>5.0999999999999996</v>
       </c>
-      <c r="M21" s="260"/>
-      <c r="N21" s="260"/>
-      <c r="O21" s="259">
+      <c r="M21" s="266"/>
+      <c r="N21" s="266"/>
+      <c r="O21" s="265">
         <v>5.0999999999999996</v>
       </c>
-      <c r="P21" s="260"/>
-      <c r="Q21" s="260"/>
-      <c r="R21" s="259">
+      <c r="P21" s="266"/>
+      <c r="Q21" s="266"/>
+      <c r="R21" s="265">
         <v>5.0999999999999996</v>
       </c>
-      <c r="S21" s="260"/>
-      <c r="T21" s="260"/>
-      <c r="U21" s="259">
+      <c r="S21" s="266"/>
+      <c r="T21" s="266"/>
+      <c r="U21" s="265">
         <v>5.0999999999999996</v>
       </c>
-      <c r="V21" s="260"/>
-      <c r="W21" s="260"/>
-      <c r="X21" s="259">
+      <c r="V21" s="266"/>
+      <c r="W21" s="266"/>
+      <c r="X21" s="265">
         <v>5.0999999999999996</v>
       </c>
-      <c r="Y21" s="260"/>
-      <c r="Z21" s="260"/>
-      <c r="AA21" s="259">
+      <c r="Y21" s="266"/>
+      <c r="Z21" s="266"/>
+      <c r="AA21" s="265">
         <v>5.0999999999999996</v>
       </c>
-      <c r="AB21" s="260"/>
-      <c r="AC21" s="260"/>
-      <c r="AD21" s="269">
+      <c r="AB21" s="266"/>
+      <c r="AC21" s="266"/>
+      <c r="AD21" s="253">
         <f t="shared" si="0"/>
         <v>5.0999999999999996</v>
       </c>
-      <c r="AE21" s="269"/>
-      <c r="AF21" s="269"/>
-      <c r="AG21" s="269">
+      <c r="AE21" s="253"/>
+      <c r="AF21" s="253"/>
+      <c r="AG21" s="253">
         <f t="shared" si="1"/>
         <v>5.0999999999999996</v>
       </c>
-      <c r="AH21" s="269"/>
-      <c r="AI21" s="269"/>
-      <c r="AJ21" s="337">
-        <f>STDEV(Z21:AE23)/SQRT(4)</f>
-        <v>4.8647535555904937E-16</v>
-      </c>
-      <c r="AK21" s="338"/>
-      <c r="AL21" s="338"/>
-      <c r="AM21" s="339"/>
-      <c r="AN21" s="346">
-        <f>AVERAGE(AD21:AI23)-B21</f>
+      <c r="AH21" s="253"/>
+      <c r="AI21" s="253"/>
+      <c r="AJ21" s="269">
+        <f t="shared" ref="AJ21" si="2">MAX(_xlfn.STDEV.S(F21:Q21),_xlfn.STDEV.S(F22:Q22),_xlfn.STDEV.S(F23:Q23),_xlfn.STDEV.S(R21:AC21),_xlfn.STDEV.S(R22:AC22),_xlfn.STDEV.S(R23:AC23))/SQRT(4)</f>
         <v>0</v>
       </c>
-      <c r="AO21" s="347"/>
-      <c r="AP21" s="347"/>
-      <c r="AQ21" s="348"/>
+      <c r="AK21" s="270"/>
+      <c r="AL21" s="270"/>
+      <c r="AM21" s="271"/>
+      <c r="AN21" s="278">
+        <f t="shared" ref="AN21" si="3">MAX(ABS(AD21-B21),ABS(AD22-B21),ABS(AD23-B21),ABS(AG21-B21),ABS(AG22-B21),ABS(AG23-B21))</f>
+        <v>0</v>
+      </c>
+      <c r="AO21" s="279"/>
+      <c r="AP21" s="279"/>
+      <c r="AQ21" s="280"/>
     </row>
     <row r="22" spans="2:43" ht="21" customHeight="1">
-      <c r="B22" s="297"/>
-      <c r="C22" s="298"/>
-      <c r="D22" s="299"/>
+      <c r="B22" s="259"/>
+      <c r="C22" s="260"/>
+      <c r="D22" s="261"/>
       <c r="E22" s="203" t="s">
         <v>16</v>
       </c>
-      <c r="F22" s="265">
+      <c r="F22" s="254">
         <v>5.0999999999999996</v>
       </c>
-      <c r="G22" s="266"/>
-      <c r="H22" s="266"/>
-      <c r="I22" s="265">
+      <c r="G22" s="255"/>
+      <c r="H22" s="255"/>
+      <c r="I22" s="254">
         <v>5.0999999999999996</v>
       </c>
-      <c r="J22" s="266"/>
-      <c r="K22" s="266"/>
-      <c r="L22" s="265">
+      <c r="J22" s="255"/>
+      <c r="K22" s="255"/>
+      <c r="L22" s="254">
         <v>5.0999999999999996</v>
       </c>
-      <c r="M22" s="266"/>
-      <c r="N22" s="266"/>
-      <c r="O22" s="265">
+      <c r="M22" s="255"/>
+      <c r="N22" s="255"/>
+      <c r="O22" s="254">
         <v>5.0999999999999996</v>
       </c>
-      <c r="P22" s="266"/>
-      <c r="Q22" s="266"/>
-      <c r="R22" s="265">
+      <c r="P22" s="255"/>
+      <c r="Q22" s="255"/>
+      <c r="R22" s="254">
         <v>5.0999999999999996</v>
       </c>
-      <c r="S22" s="266"/>
-      <c r="T22" s="266"/>
-      <c r="U22" s="265">
+      <c r="S22" s="255"/>
+      <c r="T22" s="255"/>
+      <c r="U22" s="254">
         <v>5.0999999999999996</v>
       </c>
-      <c r="V22" s="266"/>
-      <c r="W22" s="266"/>
-      <c r="X22" s="265">
+      <c r="V22" s="255"/>
+      <c r="W22" s="255"/>
+      <c r="X22" s="254">
         <v>5.0999999999999996</v>
       </c>
-      <c r="Y22" s="266"/>
-      <c r="Z22" s="266"/>
-      <c r="AA22" s="265">
+      <c r="Y22" s="255"/>
+      <c r="Z22" s="255"/>
+      <c r="AA22" s="254">
         <v>5.0999999999999996</v>
       </c>
-      <c r="AB22" s="266"/>
-      <c r="AC22" s="266"/>
-      <c r="AD22" s="269">
+      <c r="AB22" s="255"/>
+      <c r="AC22" s="255"/>
+      <c r="AD22" s="253">
         <f t="shared" si="0"/>
         <v>5.0999999999999996</v>
       </c>
-      <c r="AE22" s="269"/>
-      <c r="AF22" s="269"/>
-      <c r="AG22" s="269">
+      <c r="AE22" s="253"/>
+      <c r="AF22" s="253"/>
+      <c r="AG22" s="253">
         <f t="shared" si="1"/>
         <v>5.0999999999999996</v>
       </c>
-      <c r="AH22" s="269"/>
-      <c r="AI22" s="269"/>
-      <c r="AJ22" s="340"/>
-      <c r="AK22" s="341"/>
-      <c r="AL22" s="341"/>
-      <c r="AM22" s="342"/>
-      <c r="AN22" s="349"/>
-      <c r="AO22" s="350"/>
-      <c r="AP22" s="350"/>
-      <c r="AQ22" s="351"/>
+      <c r="AH22" s="253"/>
+      <c r="AI22" s="253"/>
+      <c r="AJ22" s="272"/>
+      <c r="AK22" s="273"/>
+      <c r="AL22" s="273"/>
+      <c r="AM22" s="274"/>
+      <c r="AN22" s="281"/>
+      <c r="AO22" s="282"/>
+      <c r="AP22" s="282"/>
+      <c r="AQ22" s="283"/>
     </row>
     <row r="23" spans="2:43" ht="21" customHeight="1">
-      <c r="B23" s="355"/>
-      <c r="C23" s="356"/>
-      <c r="D23" s="357"/>
+      <c r="B23" s="262"/>
+      <c r="C23" s="263"/>
+      <c r="D23" s="264"/>
       <c r="E23" s="204" t="s">
         <v>17</v>
       </c>
@@ -7063,175 +7008,175 @@
       </c>
       <c r="AB23" s="268"/>
       <c r="AC23" s="268"/>
-      <c r="AD23" s="269">
+      <c r="AD23" s="253">
         <f t="shared" si="0"/>
         <v>5.0999999999999996</v>
       </c>
-      <c r="AE23" s="269"/>
-      <c r="AF23" s="269"/>
-      <c r="AG23" s="269">
+      <c r="AE23" s="253"/>
+      <c r="AF23" s="253"/>
+      <c r="AG23" s="253">
         <f t="shared" si="1"/>
         <v>5.0999999999999996</v>
       </c>
-      <c r="AH23" s="269"/>
-      <c r="AI23" s="269"/>
-      <c r="AJ23" s="343"/>
-      <c r="AK23" s="344"/>
-      <c r="AL23" s="344"/>
-      <c r="AM23" s="345"/>
-      <c r="AN23" s="352"/>
-      <c r="AO23" s="353"/>
-      <c r="AP23" s="353"/>
-      <c r="AQ23" s="354"/>
+      <c r="AH23" s="253"/>
+      <c r="AI23" s="253"/>
+      <c r="AJ23" s="275"/>
+      <c r="AK23" s="276"/>
+      <c r="AL23" s="276"/>
+      <c r="AM23" s="277"/>
+      <c r="AN23" s="284"/>
+      <c r="AO23" s="285"/>
+      <c r="AP23" s="285"/>
+      <c r="AQ23" s="286"/>
     </row>
     <row r="24" spans="2:43" ht="21" customHeight="1">
-      <c r="B24" s="294">
+      <c r="B24" s="256">
         <v>7.7</v>
       </c>
-      <c r="C24" s="295"/>
-      <c r="D24" s="296"/>
+      <c r="C24" s="257"/>
+      <c r="D24" s="258"/>
       <c r="E24" s="202" t="s">
         <v>15</v>
       </c>
-      <c r="F24" s="259">
+      <c r="F24" s="265">
         <v>7.7</v>
       </c>
-      <c r="G24" s="260"/>
-      <c r="H24" s="260"/>
-      <c r="I24" s="259">
+      <c r="G24" s="266"/>
+      <c r="H24" s="266"/>
+      <c r="I24" s="265">
         <v>7.7</v>
       </c>
-      <c r="J24" s="260"/>
-      <c r="K24" s="260"/>
-      <c r="L24" s="259">
+      <c r="J24" s="266"/>
+      <c r="K24" s="266"/>
+      <c r="L24" s="265">
         <v>7.7</v>
       </c>
-      <c r="M24" s="260"/>
-      <c r="N24" s="260"/>
-      <c r="O24" s="259">
+      <c r="M24" s="266"/>
+      <c r="N24" s="266"/>
+      <c r="O24" s="265">
         <v>7.7</v>
       </c>
-      <c r="P24" s="260"/>
-      <c r="Q24" s="260"/>
-      <c r="R24" s="259">
+      <c r="P24" s="266"/>
+      <c r="Q24" s="266"/>
+      <c r="R24" s="265">
         <v>7.7</v>
       </c>
-      <c r="S24" s="260"/>
-      <c r="T24" s="260"/>
-      <c r="U24" s="259">
+      <c r="S24" s="266"/>
+      <c r="T24" s="266"/>
+      <c r="U24" s="265">
         <v>7.7</v>
       </c>
-      <c r="V24" s="260"/>
-      <c r="W24" s="260"/>
-      <c r="X24" s="259">
+      <c r="V24" s="266"/>
+      <c r="W24" s="266"/>
+      <c r="X24" s="265">
         <v>7.7</v>
       </c>
-      <c r="Y24" s="260"/>
-      <c r="Z24" s="260"/>
-      <c r="AA24" s="259">
+      <c r="Y24" s="266"/>
+      <c r="Z24" s="266"/>
+      <c r="AA24" s="265">
         <v>7.7</v>
       </c>
-      <c r="AB24" s="260"/>
-      <c r="AC24" s="260"/>
-      <c r="AD24" s="269">
+      <c r="AB24" s="266"/>
+      <c r="AC24" s="266"/>
+      <c r="AD24" s="253">
         <f t="shared" si="0"/>
         <v>7.7</v>
       </c>
-      <c r="AE24" s="269"/>
-      <c r="AF24" s="269"/>
-      <c r="AG24" s="269">
+      <c r="AE24" s="253"/>
+      <c r="AF24" s="253"/>
+      <c r="AG24" s="253">
         <f t="shared" si="1"/>
         <v>7.7</v>
       </c>
-      <c r="AH24" s="269"/>
-      <c r="AI24" s="269"/>
-      <c r="AJ24" s="337">
-        <f>STDEV(Z24:AE26)/SQRT(4)</f>
+      <c r="AH24" s="253"/>
+      <c r="AI24" s="253"/>
+      <c r="AJ24" s="269">
+        <f t="shared" ref="AJ24" si="4">MAX(_xlfn.STDEV.S(F24:Q24),_xlfn.STDEV.S(F25:Q25),_xlfn.STDEV.S(F26:Q26),_xlfn.STDEV.S(R24:AC24),_xlfn.STDEV.S(R25:AC25),_xlfn.STDEV.S(R26:AC26))/SQRT(4)</f>
         <v>0</v>
       </c>
-      <c r="AK24" s="338"/>
-      <c r="AL24" s="338"/>
-      <c r="AM24" s="339"/>
-      <c r="AN24" s="346">
-        <f>AVERAGE(AD24:AI26)-B24</f>
+      <c r="AK24" s="270"/>
+      <c r="AL24" s="270"/>
+      <c r="AM24" s="271"/>
+      <c r="AN24" s="278">
+        <f t="shared" ref="AN24" si="5">MAX(ABS(AD24-B24),ABS(AD25-B24),ABS(AD26-B24),ABS(AG24-B24),ABS(AG25-B24),ABS(AG26-B24))</f>
         <v>0</v>
       </c>
-      <c r="AO24" s="347"/>
-      <c r="AP24" s="347"/>
-      <c r="AQ24" s="348"/>
+      <c r="AO24" s="279"/>
+      <c r="AP24" s="279"/>
+      <c r="AQ24" s="280"/>
     </row>
     <row r="25" spans="2:43" ht="21" customHeight="1">
-      <c r="B25" s="297"/>
-      <c r="C25" s="298"/>
-      <c r="D25" s="299"/>
+      <c r="B25" s="259"/>
+      <c r="C25" s="260"/>
+      <c r="D25" s="261"/>
       <c r="E25" s="203" t="s">
         <v>16</v>
       </c>
-      <c r="F25" s="265">
+      <c r="F25" s="254">
         <v>7.7</v>
       </c>
-      <c r="G25" s="266"/>
-      <c r="H25" s="266"/>
-      <c r="I25" s="265">
+      <c r="G25" s="255"/>
+      <c r="H25" s="255"/>
+      <c r="I25" s="254">
         <v>7.7</v>
       </c>
-      <c r="J25" s="266"/>
-      <c r="K25" s="266"/>
-      <c r="L25" s="265">
+      <c r="J25" s="255"/>
+      <c r="K25" s="255"/>
+      <c r="L25" s="254">
         <v>7.7</v>
       </c>
-      <c r="M25" s="266"/>
-      <c r="N25" s="266"/>
-      <c r="O25" s="265">
+      <c r="M25" s="255"/>
+      <c r="N25" s="255"/>
+      <c r="O25" s="254">
         <v>7.7</v>
       </c>
-      <c r="P25" s="266"/>
-      <c r="Q25" s="266"/>
-      <c r="R25" s="265">
+      <c r="P25" s="255"/>
+      <c r="Q25" s="255"/>
+      <c r="R25" s="254">
         <v>7.7</v>
       </c>
-      <c r="S25" s="266"/>
-      <c r="T25" s="266"/>
-      <c r="U25" s="265">
+      <c r="S25" s="255"/>
+      <c r="T25" s="255"/>
+      <c r="U25" s="254">
         <v>7.7</v>
       </c>
-      <c r="V25" s="266"/>
-      <c r="W25" s="266"/>
-      <c r="X25" s="265">
+      <c r="V25" s="255"/>
+      <c r="W25" s="255"/>
+      <c r="X25" s="254">
         <v>7.7</v>
       </c>
-      <c r="Y25" s="266"/>
-      <c r="Z25" s="266"/>
-      <c r="AA25" s="265">
+      <c r="Y25" s="255"/>
+      <c r="Z25" s="255"/>
+      <c r="AA25" s="254">
         <v>7.7</v>
       </c>
-      <c r="AB25" s="266"/>
-      <c r="AC25" s="266"/>
-      <c r="AD25" s="269">
+      <c r="AB25" s="255"/>
+      <c r="AC25" s="255"/>
+      <c r="AD25" s="253">
         <f t="shared" si="0"/>
         <v>7.7</v>
       </c>
-      <c r="AE25" s="269"/>
-      <c r="AF25" s="269"/>
-      <c r="AG25" s="269">
+      <c r="AE25" s="253"/>
+      <c r="AF25" s="253"/>
+      <c r="AG25" s="253">
         <f t="shared" si="1"/>
         <v>7.7</v>
       </c>
-      <c r="AH25" s="269"/>
-      <c r="AI25" s="269"/>
-      <c r="AJ25" s="340"/>
-      <c r="AK25" s="341"/>
-      <c r="AL25" s="341"/>
-      <c r="AM25" s="342"/>
-      <c r="AN25" s="349"/>
-      <c r="AO25" s="350"/>
-      <c r="AP25" s="350"/>
-      <c r="AQ25" s="351"/>
+      <c r="AH25" s="253"/>
+      <c r="AI25" s="253"/>
+      <c r="AJ25" s="272"/>
+      <c r="AK25" s="273"/>
+      <c r="AL25" s="273"/>
+      <c r="AM25" s="274"/>
+      <c r="AN25" s="281"/>
+      <c r="AO25" s="282"/>
+      <c r="AP25" s="282"/>
+      <c r="AQ25" s="283"/>
     </row>
     <row r="26" spans="2:43" ht="21" customHeight="1">
-      <c r="B26" s="355"/>
-      <c r="C26" s="356"/>
-      <c r="D26" s="357"/>
+      <c r="B26" s="262"/>
+      <c r="C26" s="263"/>
+      <c r="D26" s="264"/>
       <c r="E26" s="204" t="s">
         <v>17</v>
       </c>
@@ -7275,175 +7220,175 @@
       </c>
       <c r="AB26" s="268"/>
       <c r="AC26" s="268"/>
-      <c r="AD26" s="269">
+      <c r="AD26" s="253">
         <f t="shared" si="0"/>
         <v>7.7</v>
       </c>
-      <c r="AE26" s="269"/>
-      <c r="AF26" s="269"/>
-      <c r="AG26" s="269">
+      <c r="AE26" s="253"/>
+      <c r="AF26" s="253"/>
+      <c r="AG26" s="253">
         <f t="shared" si="1"/>
         <v>7.7</v>
       </c>
-      <c r="AH26" s="269"/>
-      <c r="AI26" s="269"/>
-      <c r="AJ26" s="343"/>
-      <c r="AK26" s="344"/>
-      <c r="AL26" s="344"/>
-      <c r="AM26" s="345"/>
-      <c r="AN26" s="352"/>
-      <c r="AO26" s="353"/>
-      <c r="AP26" s="353"/>
-      <c r="AQ26" s="354"/>
+      <c r="AH26" s="253"/>
+      <c r="AI26" s="253"/>
+      <c r="AJ26" s="275"/>
+      <c r="AK26" s="276"/>
+      <c r="AL26" s="276"/>
+      <c r="AM26" s="277"/>
+      <c r="AN26" s="284"/>
+      <c r="AO26" s="285"/>
+      <c r="AP26" s="285"/>
+      <c r="AQ26" s="286"/>
     </row>
     <row r="27" spans="2:43" ht="21" customHeight="1">
-      <c r="B27" s="294">
+      <c r="B27" s="256">
         <v>10</v>
       </c>
-      <c r="C27" s="295"/>
-      <c r="D27" s="296"/>
+      <c r="C27" s="257"/>
+      <c r="D27" s="258"/>
       <c r="E27" s="202" t="s">
         <v>15</v>
       </c>
-      <c r="F27" s="259">
+      <c r="F27" s="265">
         <v>10</v>
       </c>
-      <c r="G27" s="260"/>
-      <c r="H27" s="260"/>
-      <c r="I27" s="259">
+      <c r="G27" s="266"/>
+      <c r="H27" s="266"/>
+      <c r="I27" s="265">
         <v>10</v>
       </c>
-      <c r="J27" s="260"/>
-      <c r="K27" s="260"/>
-      <c r="L27" s="259">
+      <c r="J27" s="266"/>
+      <c r="K27" s="266"/>
+      <c r="L27" s="265">
         <v>10</v>
       </c>
-      <c r="M27" s="260"/>
-      <c r="N27" s="260"/>
-      <c r="O27" s="259">
+      <c r="M27" s="266"/>
+      <c r="N27" s="266"/>
+      <c r="O27" s="265">
         <v>10</v>
       </c>
-      <c r="P27" s="260"/>
-      <c r="Q27" s="260"/>
-      <c r="R27" s="259">
+      <c r="P27" s="266"/>
+      <c r="Q27" s="266"/>
+      <c r="R27" s="265">
         <v>10</v>
       </c>
-      <c r="S27" s="260"/>
-      <c r="T27" s="260"/>
-      <c r="U27" s="259">
+      <c r="S27" s="266"/>
+      <c r="T27" s="266"/>
+      <c r="U27" s="265">
         <v>10</v>
       </c>
-      <c r="V27" s="260"/>
-      <c r="W27" s="260"/>
-      <c r="X27" s="259">
+      <c r="V27" s="266"/>
+      <c r="W27" s="266"/>
+      <c r="X27" s="265">
         <v>10</v>
       </c>
-      <c r="Y27" s="260"/>
-      <c r="Z27" s="260"/>
-      <c r="AA27" s="259">
+      <c r="Y27" s="266"/>
+      <c r="Z27" s="266"/>
+      <c r="AA27" s="265">
         <v>10</v>
       </c>
-      <c r="AB27" s="260"/>
-      <c r="AC27" s="260"/>
-      <c r="AD27" s="269">
+      <c r="AB27" s="266"/>
+      <c r="AC27" s="266"/>
+      <c r="AD27" s="253">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="AE27" s="269"/>
-      <c r="AF27" s="269"/>
-      <c r="AG27" s="269">
+      <c r="AE27" s="253"/>
+      <c r="AF27" s="253"/>
+      <c r="AG27" s="253">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="AH27" s="269"/>
-      <c r="AI27" s="269"/>
-      <c r="AJ27" s="337">
-        <f>STDEV(Z27:AE29)/SQRT(4)</f>
+      <c r="AH27" s="253"/>
+      <c r="AI27" s="253"/>
+      <c r="AJ27" s="269">
+        <f t="shared" ref="AJ27" si="6">MAX(_xlfn.STDEV.S(F27:Q27),_xlfn.STDEV.S(F28:Q28),_xlfn.STDEV.S(F29:Q29),_xlfn.STDEV.S(R27:AC27),_xlfn.STDEV.S(R28:AC28),_xlfn.STDEV.S(R29:AC29))/SQRT(4)</f>
         <v>0</v>
       </c>
-      <c r="AK27" s="338"/>
-      <c r="AL27" s="338"/>
-      <c r="AM27" s="339"/>
-      <c r="AN27" s="346">
-        <f>AVERAGE(AD27:AI29)-B27</f>
+      <c r="AK27" s="270"/>
+      <c r="AL27" s="270"/>
+      <c r="AM27" s="271"/>
+      <c r="AN27" s="278">
+        <f t="shared" ref="AN27" si="7">MAX(ABS(AD27-B27),ABS(AD28-B27),ABS(AD29-B27),ABS(AG27-B27),ABS(AG28-B27),ABS(AG29-B27))</f>
         <v>0</v>
       </c>
-      <c r="AO27" s="347"/>
-      <c r="AP27" s="347"/>
-      <c r="AQ27" s="348"/>
+      <c r="AO27" s="279"/>
+      <c r="AP27" s="279"/>
+      <c r="AQ27" s="280"/>
     </row>
     <row r="28" spans="2:43" ht="21" customHeight="1">
-      <c r="B28" s="297"/>
-      <c r="C28" s="298"/>
-      <c r="D28" s="299"/>
+      <c r="B28" s="259"/>
+      <c r="C28" s="260"/>
+      <c r="D28" s="261"/>
       <c r="E28" s="203" t="s">
         <v>16</v>
       </c>
-      <c r="F28" s="265">
+      <c r="F28" s="254">
         <v>10</v>
       </c>
-      <c r="G28" s="266"/>
-      <c r="H28" s="266"/>
-      <c r="I28" s="265">
+      <c r="G28" s="255"/>
+      <c r="H28" s="255"/>
+      <c r="I28" s="254">
         <v>10</v>
       </c>
-      <c r="J28" s="266"/>
-      <c r="K28" s="266"/>
-      <c r="L28" s="265">
+      <c r="J28" s="255"/>
+      <c r="K28" s="255"/>
+      <c r="L28" s="254">
         <v>10</v>
       </c>
-      <c r="M28" s="266"/>
-      <c r="N28" s="266"/>
-      <c r="O28" s="265">
+      <c r="M28" s="255"/>
+      <c r="N28" s="255"/>
+      <c r="O28" s="254">
         <v>10</v>
       </c>
-      <c r="P28" s="266"/>
-      <c r="Q28" s="266"/>
-      <c r="R28" s="265">
+      <c r="P28" s="255"/>
+      <c r="Q28" s="255"/>
+      <c r="R28" s="254">
         <v>10</v>
       </c>
-      <c r="S28" s="266"/>
-      <c r="T28" s="266"/>
-      <c r="U28" s="265">
+      <c r="S28" s="255"/>
+      <c r="T28" s="255"/>
+      <c r="U28" s="254">
         <v>10</v>
       </c>
-      <c r="V28" s="266"/>
-      <c r="W28" s="266"/>
-      <c r="X28" s="265">
+      <c r="V28" s="255"/>
+      <c r="W28" s="255"/>
+      <c r="X28" s="254">
         <v>10</v>
       </c>
-      <c r="Y28" s="266"/>
-      <c r="Z28" s="266"/>
-      <c r="AA28" s="265">
+      <c r="Y28" s="255"/>
+      <c r="Z28" s="255"/>
+      <c r="AA28" s="254">
         <v>10</v>
       </c>
-      <c r="AB28" s="266"/>
-      <c r="AC28" s="266"/>
-      <c r="AD28" s="269">
+      <c r="AB28" s="255"/>
+      <c r="AC28" s="255"/>
+      <c r="AD28" s="253">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="AE28" s="269"/>
-      <c r="AF28" s="269"/>
-      <c r="AG28" s="269">
+      <c r="AE28" s="253"/>
+      <c r="AF28" s="253"/>
+      <c r="AG28" s="253">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="AH28" s="269"/>
-      <c r="AI28" s="269"/>
-      <c r="AJ28" s="340"/>
-      <c r="AK28" s="341"/>
-      <c r="AL28" s="341"/>
-      <c r="AM28" s="342"/>
-      <c r="AN28" s="349"/>
-      <c r="AO28" s="350"/>
-      <c r="AP28" s="350"/>
-      <c r="AQ28" s="351"/>
+      <c r="AH28" s="253"/>
+      <c r="AI28" s="253"/>
+      <c r="AJ28" s="272"/>
+      <c r="AK28" s="273"/>
+      <c r="AL28" s="273"/>
+      <c r="AM28" s="274"/>
+      <c r="AN28" s="281"/>
+      <c r="AO28" s="282"/>
+      <c r="AP28" s="282"/>
+      <c r="AQ28" s="283"/>
     </row>
     <row r="29" spans="2:43" ht="21" customHeight="1">
-      <c r="B29" s="355"/>
-      <c r="C29" s="356"/>
-      <c r="D29" s="357"/>
+      <c r="B29" s="262"/>
+      <c r="C29" s="263"/>
+      <c r="D29" s="264"/>
       <c r="E29" s="204" t="s">
         <v>17</v>
       </c>
@@ -7487,175 +7432,175 @@
       </c>
       <c r="AB29" s="268"/>
       <c r="AC29" s="268"/>
-      <c r="AD29" s="269">
+      <c r="AD29" s="253">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="AE29" s="269"/>
-      <c r="AF29" s="269"/>
-      <c r="AG29" s="269">
+      <c r="AE29" s="253"/>
+      <c r="AF29" s="253"/>
+      <c r="AG29" s="253">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="AH29" s="269"/>
-      <c r="AI29" s="269"/>
-      <c r="AJ29" s="343"/>
-      <c r="AK29" s="344"/>
-      <c r="AL29" s="344"/>
-      <c r="AM29" s="345"/>
-      <c r="AN29" s="352"/>
-      <c r="AO29" s="353"/>
-      <c r="AP29" s="353"/>
-      <c r="AQ29" s="354"/>
+      <c r="AH29" s="253"/>
+      <c r="AI29" s="253"/>
+      <c r="AJ29" s="275"/>
+      <c r="AK29" s="276"/>
+      <c r="AL29" s="276"/>
+      <c r="AM29" s="277"/>
+      <c r="AN29" s="284"/>
+      <c r="AO29" s="285"/>
+      <c r="AP29" s="285"/>
+      <c r="AQ29" s="286"/>
     </row>
     <row r="30" spans="2:43" ht="21" customHeight="1">
-      <c r="B30" s="297">
+      <c r="B30" s="259">
         <v>12.9</v>
       </c>
-      <c r="C30" s="298"/>
-      <c r="D30" s="299"/>
+      <c r="C30" s="260"/>
+      <c r="D30" s="261"/>
       <c r="E30" s="202" t="s">
         <v>15</v>
       </c>
-      <c r="F30" s="259">
+      <c r="F30" s="265">
         <v>12.9</v>
       </c>
-      <c r="G30" s="260"/>
-      <c r="H30" s="260"/>
-      <c r="I30" s="259">
+      <c r="G30" s="266"/>
+      <c r="H30" s="266"/>
+      <c r="I30" s="265">
         <v>12.9</v>
       </c>
-      <c r="J30" s="260"/>
-      <c r="K30" s="260"/>
-      <c r="L30" s="259">
+      <c r="J30" s="266"/>
+      <c r="K30" s="266"/>
+      <c r="L30" s="265">
         <v>12.9</v>
       </c>
-      <c r="M30" s="260"/>
-      <c r="N30" s="260"/>
-      <c r="O30" s="259">
+      <c r="M30" s="266"/>
+      <c r="N30" s="266"/>
+      <c r="O30" s="265">
         <v>12.9</v>
       </c>
-      <c r="P30" s="260"/>
-      <c r="Q30" s="260"/>
-      <c r="R30" s="259">
+      <c r="P30" s="266"/>
+      <c r="Q30" s="266"/>
+      <c r="R30" s="265">
         <v>12.9</v>
       </c>
-      <c r="S30" s="260"/>
-      <c r="T30" s="260"/>
-      <c r="U30" s="259">
+      <c r="S30" s="266"/>
+      <c r="T30" s="266"/>
+      <c r="U30" s="265">
         <v>12.9</v>
       </c>
-      <c r="V30" s="260"/>
-      <c r="W30" s="260"/>
-      <c r="X30" s="259">
+      <c r="V30" s="266"/>
+      <c r="W30" s="266"/>
+      <c r="X30" s="265">
         <v>12.9</v>
       </c>
-      <c r="Y30" s="260"/>
-      <c r="Z30" s="260"/>
-      <c r="AA30" s="259">
+      <c r="Y30" s="266"/>
+      <c r="Z30" s="266"/>
+      <c r="AA30" s="265">
         <v>12.9</v>
       </c>
-      <c r="AB30" s="260"/>
-      <c r="AC30" s="260"/>
-      <c r="AD30" s="269">
+      <c r="AB30" s="266"/>
+      <c r="AC30" s="266"/>
+      <c r="AD30" s="253">
         <f t="shared" si="0"/>
         <v>12.9</v>
       </c>
-      <c r="AE30" s="269"/>
-      <c r="AF30" s="269"/>
-      <c r="AG30" s="269">
+      <c r="AE30" s="253"/>
+      <c r="AF30" s="253"/>
+      <c r="AG30" s="253">
         <f t="shared" si="1"/>
         <v>12.9</v>
       </c>
-      <c r="AH30" s="269"/>
-      <c r="AI30" s="269"/>
-      <c r="AJ30" s="337">
-        <f>STDEV(Z30:AE32)/SQRT(4)</f>
+      <c r="AH30" s="253"/>
+      <c r="AI30" s="253"/>
+      <c r="AJ30" s="269">
+        <f t="shared" ref="AJ30" si="8">MAX(_xlfn.STDEV.S(F30:Q30),_xlfn.STDEV.S(F31:Q31),_xlfn.STDEV.S(F32:Q32),_xlfn.STDEV.S(R30:AC30),_xlfn.STDEV.S(R31:AC31),_xlfn.STDEV.S(R32:AC32))/SQRT(4)</f>
         <v>0</v>
       </c>
-      <c r="AK30" s="338"/>
-      <c r="AL30" s="338"/>
-      <c r="AM30" s="339"/>
-      <c r="AN30" s="346">
-        <f>AVERAGE(AD30:AI32)-B30</f>
+      <c r="AK30" s="270"/>
+      <c r="AL30" s="270"/>
+      <c r="AM30" s="271"/>
+      <c r="AN30" s="278">
+        <f t="shared" ref="AN30" si="9">MAX(ABS(AD30-B30),ABS(AD31-B30),ABS(AD32-B30),ABS(AG30-B30),ABS(AG31-B30),ABS(AG32-B30))</f>
         <v>0</v>
       </c>
-      <c r="AO30" s="347"/>
-      <c r="AP30" s="347"/>
-      <c r="AQ30" s="348"/>
+      <c r="AO30" s="279"/>
+      <c r="AP30" s="279"/>
+      <c r="AQ30" s="280"/>
     </row>
     <row r="31" spans="2:43" ht="21" customHeight="1">
-      <c r="B31" s="297"/>
-      <c r="C31" s="298"/>
-      <c r="D31" s="299"/>
+      <c r="B31" s="259"/>
+      <c r="C31" s="260"/>
+      <c r="D31" s="261"/>
       <c r="E31" s="203" t="s">
         <v>16</v>
       </c>
-      <c r="F31" s="265">
+      <c r="F31" s="254">
         <v>12.9</v>
       </c>
-      <c r="G31" s="266"/>
-      <c r="H31" s="266"/>
-      <c r="I31" s="265">
+      <c r="G31" s="255"/>
+      <c r="H31" s="255"/>
+      <c r="I31" s="254">
         <v>12.9</v>
       </c>
-      <c r="J31" s="266"/>
-      <c r="K31" s="266"/>
-      <c r="L31" s="265">
+      <c r="J31" s="255"/>
+      <c r="K31" s="255"/>
+      <c r="L31" s="254">
         <v>12.9</v>
       </c>
-      <c r="M31" s="266"/>
-      <c r="N31" s="266"/>
-      <c r="O31" s="265">
+      <c r="M31" s="255"/>
+      <c r="N31" s="255"/>
+      <c r="O31" s="254">
         <v>12.9</v>
       </c>
-      <c r="P31" s="266"/>
-      <c r="Q31" s="266"/>
-      <c r="R31" s="265">
+      <c r="P31" s="255"/>
+      <c r="Q31" s="255"/>
+      <c r="R31" s="254">
         <v>12.9</v>
       </c>
-      <c r="S31" s="266"/>
-      <c r="T31" s="266"/>
-      <c r="U31" s="265">
+      <c r="S31" s="255"/>
+      <c r="T31" s="255"/>
+      <c r="U31" s="254">
         <v>12.9</v>
       </c>
-      <c r="V31" s="266"/>
-      <c r="W31" s="266"/>
-      <c r="X31" s="265">
+      <c r="V31" s="255"/>
+      <c r="W31" s="255"/>
+      <c r="X31" s="254">
         <v>12.9</v>
       </c>
-      <c r="Y31" s="266"/>
-      <c r="Z31" s="266"/>
-      <c r="AA31" s="265">
+      <c r="Y31" s="255"/>
+      <c r="Z31" s="255"/>
+      <c r="AA31" s="254">
         <v>12.9</v>
       </c>
-      <c r="AB31" s="266"/>
-      <c r="AC31" s="266"/>
-      <c r="AD31" s="269">
+      <c r="AB31" s="255"/>
+      <c r="AC31" s="255"/>
+      <c r="AD31" s="253">
         <f t="shared" si="0"/>
         <v>12.9</v>
       </c>
-      <c r="AE31" s="269"/>
-      <c r="AF31" s="269"/>
-      <c r="AG31" s="269">
+      <c r="AE31" s="253"/>
+      <c r="AF31" s="253"/>
+      <c r="AG31" s="253">
         <f t="shared" si="1"/>
         <v>12.9</v>
       </c>
-      <c r="AH31" s="269"/>
-      <c r="AI31" s="269"/>
-      <c r="AJ31" s="340"/>
-      <c r="AK31" s="341"/>
-      <c r="AL31" s="341"/>
-      <c r="AM31" s="342"/>
-      <c r="AN31" s="349"/>
-      <c r="AO31" s="350"/>
-      <c r="AP31" s="350"/>
-      <c r="AQ31" s="351"/>
+      <c r="AH31" s="253"/>
+      <c r="AI31" s="253"/>
+      <c r="AJ31" s="272"/>
+      <c r="AK31" s="273"/>
+      <c r="AL31" s="273"/>
+      <c r="AM31" s="274"/>
+      <c r="AN31" s="281"/>
+      <c r="AO31" s="282"/>
+      <c r="AP31" s="282"/>
+      <c r="AQ31" s="283"/>
     </row>
     <row r="32" spans="2:43" ht="21" customHeight="1">
-      <c r="B32" s="355"/>
-      <c r="C32" s="356"/>
-      <c r="D32" s="357"/>
+      <c r="B32" s="262"/>
+      <c r="C32" s="263"/>
+      <c r="D32" s="264"/>
       <c r="E32" s="204" t="s">
         <v>17</v>
       </c>
@@ -7699,175 +7644,175 @@
       </c>
       <c r="AB32" s="268"/>
       <c r="AC32" s="268"/>
-      <c r="AD32" s="269">
+      <c r="AD32" s="253">
         <f t="shared" si="0"/>
         <v>12.9</v>
       </c>
-      <c r="AE32" s="269"/>
-      <c r="AF32" s="269"/>
-      <c r="AG32" s="269">
+      <c r="AE32" s="253"/>
+      <c r="AF32" s="253"/>
+      <c r="AG32" s="253">
         <f t="shared" si="1"/>
         <v>12.9</v>
       </c>
-      <c r="AH32" s="269"/>
-      <c r="AI32" s="269"/>
-      <c r="AJ32" s="343"/>
-      <c r="AK32" s="344"/>
-      <c r="AL32" s="344"/>
-      <c r="AM32" s="345"/>
-      <c r="AN32" s="352"/>
-      <c r="AO32" s="353"/>
-      <c r="AP32" s="353"/>
-      <c r="AQ32" s="354"/>
+      <c r="AH32" s="253"/>
+      <c r="AI32" s="253"/>
+      <c r="AJ32" s="275"/>
+      <c r="AK32" s="276"/>
+      <c r="AL32" s="276"/>
+      <c r="AM32" s="277"/>
+      <c r="AN32" s="284"/>
+      <c r="AO32" s="285"/>
+      <c r="AP32" s="285"/>
+      <c r="AQ32" s="286"/>
     </row>
     <row r="33" spans="2:43" ht="21" customHeight="1">
-      <c r="B33" s="294">
+      <c r="B33" s="256">
         <v>15</v>
       </c>
-      <c r="C33" s="295"/>
-      <c r="D33" s="296"/>
+      <c r="C33" s="257"/>
+      <c r="D33" s="258"/>
       <c r="E33" s="202" t="s">
         <v>15</v>
       </c>
-      <c r="F33" s="259">
+      <c r="F33" s="265">
         <v>15</v>
       </c>
-      <c r="G33" s="260"/>
-      <c r="H33" s="260"/>
-      <c r="I33" s="259">
+      <c r="G33" s="266"/>
+      <c r="H33" s="266"/>
+      <c r="I33" s="265">
         <v>15</v>
       </c>
-      <c r="J33" s="260"/>
-      <c r="K33" s="260"/>
-      <c r="L33" s="259">
+      <c r="J33" s="266"/>
+      <c r="K33" s="266"/>
+      <c r="L33" s="265">
         <v>15</v>
       </c>
-      <c r="M33" s="260"/>
-      <c r="N33" s="260"/>
-      <c r="O33" s="259">
+      <c r="M33" s="266"/>
+      <c r="N33" s="266"/>
+      <c r="O33" s="265">
         <v>15</v>
       </c>
-      <c r="P33" s="260"/>
-      <c r="Q33" s="260"/>
-      <c r="R33" s="259">
+      <c r="P33" s="266"/>
+      <c r="Q33" s="266"/>
+      <c r="R33" s="265">
         <v>15</v>
       </c>
-      <c r="S33" s="260"/>
-      <c r="T33" s="260"/>
-      <c r="U33" s="259">
+      <c r="S33" s="266"/>
+      <c r="T33" s="266"/>
+      <c r="U33" s="265">
         <v>15</v>
       </c>
-      <c r="V33" s="260"/>
-      <c r="W33" s="260"/>
-      <c r="X33" s="259">
+      <c r="V33" s="266"/>
+      <c r="W33" s="266"/>
+      <c r="X33" s="265">
         <v>15</v>
       </c>
-      <c r="Y33" s="260"/>
-      <c r="Z33" s="260"/>
-      <c r="AA33" s="259">
+      <c r="Y33" s="266"/>
+      <c r="Z33" s="266"/>
+      <c r="AA33" s="265">
         <v>15</v>
       </c>
-      <c r="AB33" s="260"/>
-      <c r="AC33" s="260"/>
-      <c r="AD33" s="269">
+      <c r="AB33" s="266"/>
+      <c r="AC33" s="266"/>
+      <c r="AD33" s="253">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="AE33" s="269"/>
-      <c r="AF33" s="269"/>
-      <c r="AG33" s="269">
+      <c r="AE33" s="253"/>
+      <c r="AF33" s="253"/>
+      <c r="AG33" s="253">
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="AH33" s="269"/>
-      <c r="AI33" s="269"/>
-      <c r="AJ33" s="337">
-        <f>STDEV(Z33:AE35)/SQRT(4)</f>
+      <c r="AH33" s="253"/>
+      <c r="AI33" s="253"/>
+      <c r="AJ33" s="269">
+        <f t="shared" ref="AJ33" si="10">MAX(_xlfn.STDEV.S(F33:Q33),_xlfn.STDEV.S(F34:Q34),_xlfn.STDEV.S(F35:Q35),_xlfn.STDEV.S(R33:AC33),_xlfn.STDEV.S(R34:AC34),_xlfn.STDEV.S(R35:AC35))/SQRT(4)</f>
         <v>0</v>
       </c>
-      <c r="AK33" s="338"/>
-      <c r="AL33" s="338"/>
-      <c r="AM33" s="339"/>
-      <c r="AN33" s="346">
-        <f>AVERAGE(AD33:AI35)-B33</f>
+      <c r="AK33" s="270"/>
+      <c r="AL33" s="270"/>
+      <c r="AM33" s="271"/>
+      <c r="AN33" s="278">
+        <f t="shared" ref="AN33" si="11">MAX(ABS(AD33-B33),ABS(AD34-B33),ABS(AD35-B33),ABS(AG33-B33),ABS(AG34-B33),ABS(AG35-B33))</f>
         <v>0</v>
       </c>
-      <c r="AO33" s="347"/>
-      <c r="AP33" s="347"/>
-      <c r="AQ33" s="348"/>
+      <c r="AO33" s="279"/>
+      <c r="AP33" s="279"/>
+      <c r="AQ33" s="280"/>
     </row>
     <row r="34" spans="2:43" ht="21" customHeight="1">
-      <c r="B34" s="297"/>
-      <c r="C34" s="298"/>
-      <c r="D34" s="299"/>
+      <c r="B34" s="259"/>
+      <c r="C34" s="260"/>
+      <c r="D34" s="261"/>
       <c r="E34" s="203" t="s">
         <v>16</v>
       </c>
-      <c r="F34" s="265">
+      <c r="F34" s="254">
         <v>15</v>
       </c>
-      <c r="G34" s="266"/>
-      <c r="H34" s="266"/>
-      <c r="I34" s="265">
+      <c r="G34" s="255"/>
+      <c r="H34" s="255"/>
+      <c r="I34" s="254">
         <v>15</v>
       </c>
-      <c r="J34" s="266"/>
-      <c r="K34" s="266"/>
-      <c r="L34" s="265">
+      <c r="J34" s="255"/>
+      <c r="K34" s="255"/>
+      <c r="L34" s="254">
         <v>15</v>
       </c>
-      <c r="M34" s="266"/>
-      <c r="N34" s="266"/>
-      <c r="O34" s="265">
+      <c r="M34" s="255"/>
+      <c r="N34" s="255"/>
+      <c r="O34" s="254">
         <v>15</v>
       </c>
-      <c r="P34" s="266"/>
-      <c r="Q34" s="266"/>
-      <c r="R34" s="265">
+      <c r="P34" s="255"/>
+      <c r="Q34" s="255"/>
+      <c r="R34" s="254">
         <v>15</v>
       </c>
-      <c r="S34" s="266"/>
-      <c r="T34" s="266"/>
-      <c r="U34" s="265">
+      <c r="S34" s="255"/>
+      <c r="T34" s="255"/>
+      <c r="U34" s="254">
         <v>15</v>
       </c>
-      <c r="V34" s="266"/>
-      <c r="W34" s="266"/>
-      <c r="X34" s="265">
+      <c r="V34" s="255"/>
+      <c r="W34" s="255"/>
+      <c r="X34" s="254">
         <v>15</v>
       </c>
-      <c r="Y34" s="266"/>
-      <c r="Z34" s="266"/>
-      <c r="AA34" s="265">
+      <c r="Y34" s="255"/>
+      <c r="Z34" s="255"/>
+      <c r="AA34" s="254">
         <v>15</v>
       </c>
-      <c r="AB34" s="266"/>
-      <c r="AC34" s="266"/>
-      <c r="AD34" s="269">
+      <c r="AB34" s="255"/>
+      <c r="AC34" s="255"/>
+      <c r="AD34" s="253">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="AE34" s="269"/>
-      <c r="AF34" s="269"/>
-      <c r="AG34" s="269">
+      <c r="AE34" s="253"/>
+      <c r="AF34" s="253"/>
+      <c r="AG34" s="253">
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="AH34" s="269"/>
-      <c r="AI34" s="269"/>
-      <c r="AJ34" s="340"/>
-      <c r="AK34" s="341"/>
-      <c r="AL34" s="341"/>
-      <c r="AM34" s="342"/>
-      <c r="AN34" s="349"/>
-      <c r="AO34" s="350"/>
-      <c r="AP34" s="350"/>
-      <c r="AQ34" s="351"/>
+      <c r="AH34" s="253"/>
+      <c r="AI34" s="253"/>
+      <c r="AJ34" s="272"/>
+      <c r="AK34" s="273"/>
+      <c r="AL34" s="273"/>
+      <c r="AM34" s="274"/>
+      <c r="AN34" s="281"/>
+      <c r="AO34" s="282"/>
+      <c r="AP34" s="282"/>
+      <c r="AQ34" s="283"/>
     </row>
     <row r="35" spans="2:43" ht="21" customHeight="1">
-      <c r="B35" s="355"/>
-      <c r="C35" s="356"/>
-      <c r="D35" s="357"/>
+      <c r="B35" s="262"/>
+      <c r="C35" s="263"/>
+      <c r="D35" s="264"/>
       <c r="E35" s="204" t="s">
         <v>17</v>
       </c>
@@ -7911,26 +7856,26 @@
       </c>
       <c r="AB35" s="268"/>
       <c r="AC35" s="268"/>
-      <c r="AD35" s="269">
+      <c r="AD35" s="253">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="AE35" s="269"/>
-      <c r="AF35" s="269"/>
-      <c r="AG35" s="269">
+      <c r="AE35" s="253"/>
+      <c r="AF35" s="253"/>
+      <c r="AG35" s="253">
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="AH35" s="269"/>
-      <c r="AI35" s="269"/>
-      <c r="AJ35" s="343"/>
-      <c r="AK35" s="344"/>
-      <c r="AL35" s="344"/>
-      <c r="AM35" s="345"/>
-      <c r="AN35" s="352"/>
-      <c r="AO35" s="353"/>
-      <c r="AP35" s="353"/>
-      <c r="AQ35" s="354"/>
+      <c r="AH35" s="253"/>
+      <c r="AI35" s="253"/>
+      <c r="AJ35" s="275"/>
+      <c r="AK35" s="276"/>
+      <c r="AL35" s="276"/>
+      <c r="AM35" s="277"/>
+      <c r="AN35" s="284"/>
+      <c r="AO35" s="285"/>
+      <c r="AP35" s="285"/>
+      <c r="AQ35" s="286"/>
     </row>
     <row r="37" spans="2:43" ht="18.75" customHeight="1">
       <c r="B37" s="74" t="s">
@@ -8134,84 +8079,146 @@
     </row>
   </sheetData>
   <mergeCells count="242">
-    <mergeCell ref="AG35:AI35"/>
-    <mergeCell ref="AG33:AI33"/>
-    <mergeCell ref="AJ33:AM35"/>
-    <mergeCell ref="AN33:AQ35"/>
-    <mergeCell ref="F34:H34"/>
-    <mergeCell ref="L34:N34"/>
-    <mergeCell ref="U34:W34"/>
-    <mergeCell ref="X34:Z34"/>
-    <mergeCell ref="AA34:AC34"/>
-    <mergeCell ref="AD34:AF34"/>
-    <mergeCell ref="AG34:AI34"/>
-    <mergeCell ref="B33:D35"/>
-    <mergeCell ref="F33:H33"/>
-    <mergeCell ref="L33:N33"/>
-    <mergeCell ref="U33:W33"/>
-    <mergeCell ref="X33:Z33"/>
-    <mergeCell ref="AA33:AC33"/>
-    <mergeCell ref="AD33:AF33"/>
-    <mergeCell ref="L35:N35"/>
-    <mergeCell ref="I35:K35"/>
-    <mergeCell ref="R35:T35"/>
-    <mergeCell ref="I33:K33"/>
-    <mergeCell ref="I34:K34"/>
-    <mergeCell ref="O33:Q33"/>
-    <mergeCell ref="O34:Q34"/>
-    <mergeCell ref="O35:Q35"/>
-    <mergeCell ref="R33:T33"/>
-    <mergeCell ref="R34:T34"/>
-    <mergeCell ref="F35:H35"/>
-    <mergeCell ref="U35:W35"/>
-    <mergeCell ref="X35:Z35"/>
-    <mergeCell ref="AA35:AC35"/>
-    <mergeCell ref="AD35:AF35"/>
-    <mergeCell ref="AJ30:AM32"/>
-    <mergeCell ref="AN30:AQ32"/>
-    <mergeCell ref="F31:H31"/>
-    <mergeCell ref="O31:Q31"/>
-    <mergeCell ref="U31:W31"/>
-    <mergeCell ref="X31:Z31"/>
-    <mergeCell ref="AA31:AC31"/>
-    <mergeCell ref="AD31:AF31"/>
-    <mergeCell ref="AG31:AI31"/>
-    <mergeCell ref="F32:H32"/>
-    <mergeCell ref="AA32:AC32"/>
-    <mergeCell ref="AD32:AF32"/>
-    <mergeCell ref="AG32:AI32"/>
-    <mergeCell ref="B30:D32"/>
-    <mergeCell ref="F30:H30"/>
-    <mergeCell ref="O30:Q30"/>
-    <mergeCell ref="U30:W30"/>
-    <mergeCell ref="X30:Z30"/>
-    <mergeCell ref="AA30:AC30"/>
-    <mergeCell ref="AD30:AF30"/>
-    <mergeCell ref="AG30:AI30"/>
-    <mergeCell ref="I30:K30"/>
-    <mergeCell ref="I31:K31"/>
-    <mergeCell ref="I32:K32"/>
-    <mergeCell ref="O32:Q32"/>
-    <mergeCell ref="L32:N32"/>
-    <mergeCell ref="L30:N30"/>
-    <mergeCell ref="R31:T31"/>
-    <mergeCell ref="U32:W32"/>
-    <mergeCell ref="R32:T32"/>
-    <mergeCell ref="X32:Z32"/>
-    <mergeCell ref="R30:T30"/>
-    <mergeCell ref="R27:T27"/>
-    <mergeCell ref="AJ27:AM29"/>
-    <mergeCell ref="AN27:AQ29"/>
-    <mergeCell ref="F28:H28"/>
-    <mergeCell ref="U28:W28"/>
-    <mergeCell ref="X28:Z28"/>
-    <mergeCell ref="AA28:AC28"/>
-    <mergeCell ref="AD28:AF28"/>
-    <mergeCell ref="AG28:AI28"/>
-    <mergeCell ref="F29:H29"/>
-    <mergeCell ref="U29:W29"/>
-    <mergeCell ref="AD29:AF29"/>
-    <mergeCell ref="AG29:AI29"/>
+    <mergeCell ref="H5:AF5"/>
+    <mergeCell ref="H6:P6"/>
+    <mergeCell ref="E7:L7"/>
+    <mergeCell ref="I12:Q12"/>
+    <mergeCell ref="R18:T18"/>
+    <mergeCell ref="L24:N24"/>
+    <mergeCell ref="V11:AF11"/>
+    <mergeCell ref="I24:K24"/>
+    <mergeCell ref="X18:Z18"/>
+    <mergeCell ref="AA18:AC18"/>
+    <mergeCell ref="X7:Y7"/>
+    <mergeCell ref="L18:N18"/>
+    <mergeCell ref="V6:AF6"/>
+    <mergeCell ref="P7:W7"/>
+    <mergeCell ref="Z7:AF7"/>
+    <mergeCell ref="P9:AF9"/>
+    <mergeCell ref="I11:Q11"/>
+    <mergeCell ref="R22:T22"/>
+    <mergeCell ref="R23:T23"/>
+    <mergeCell ref="R24:T24"/>
+    <mergeCell ref="AD18:AF18"/>
+    <mergeCell ref="AD20:AF20"/>
+    <mergeCell ref="AD23:AF23"/>
+    <mergeCell ref="O24:Q24"/>
+    <mergeCell ref="Q1:U1"/>
+    <mergeCell ref="Q2:T2"/>
+    <mergeCell ref="AA2:AD2"/>
+    <mergeCell ref="B1:L2"/>
+    <mergeCell ref="B3:L3"/>
+    <mergeCell ref="B4:L4"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="O25:Q25"/>
+    <mergeCell ref="L31:N31"/>
+    <mergeCell ref="R3:S3"/>
+    <mergeCell ref="U3:V3"/>
+    <mergeCell ref="M7:O7"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="P8:S8"/>
+    <mergeCell ref="O29:Q29"/>
+    <mergeCell ref="R28:T28"/>
+    <mergeCell ref="L21:N21"/>
+    <mergeCell ref="L22:N22"/>
+    <mergeCell ref="L23:N23"/>
+    <mergeCell ref="L29:N29"/>
+    <mergeCell ref="V12:AF12"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="I17:K17"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="E15:E17"/>
+    <mergeCell ref="F15:AC15"/>
+    <mergeCell ref="B18:D20"/>
+    <mergeCell ref="F18:H18"/>
+    <mergeCell ref="O18:Q18"/>
+    <mergeCell ref="U18:W18"/>
+    <mergeCell ref="R17:T17"/>
+    <mergeCell ref="I18:K18"/>
+    <mergeCell ref="I19:K19"/>
+    <mergeCell ref="L17:N17"/>
+    <mergeCell ref="O17:Q17"/>
+    <mergeCell ref="F20:H20"/>
+    <mergeCell ref="O20:Q20"/>
+    <mergeCell ref="U20:W20"/>
+    <mergeCell ref="X20:Z20"/>
+    <mergeCell ref="AA20:AC20"/>
+    <mergeCell ref="I20:K20"/>
+    <mergeCell ref="L20:N20"/>
+    <mergeCell ref="R20:T20"/>
+    <mergeCell ref="AG18:AI18"/>
+    <mergeCell ref="AJ18:AM20"/>
+    <mergeCell ref="AN18:AQ20"/>
+    <mergeCell ref="AG19:AI19"/>
+    <mergeCell ref="AG20:AI20"/>
+    <mergeCell ref="AJ15:AM17"/>
+    <mergeCell ref="AN15:AQ17"/>
+    <mergeCell ref="F16:Q16"/>
+    <mergeCell ref="R16:AC16"/>
+    <mergeCell ref="F17:H17"/>
+    <mergeCell ref="U17:W17"/>
+    <mergeCell ref="X17:Z17"/>
+    <mergeCell ref="AA17:AC17"/>
+    <mergeCell ref="AD17:AF17"/>
+    <mergeCell ref="AG17:AI17"/>
+    <mergeCell ref="AD15:AI16"/>
+    <mergeCell ref="F19:H19"/>
+    <mergeCell ref="O19:Q19"/>
+    <mergeCell ref="U19:W19"/>
+    <mergeCell ref="X19:Z19"/>
+    <mergeCell ref="AA19:AC19"/>
+    <mergeCell ref="AD19:AF19"/>
+    <mergeCell ref="L19:N19"/>
+    <mergeCell ref="R19:T19"/>
+    <mergeCell ref="AJ21:AM23"/>
+    <mergeCell ref="AN21:AQ23"/>
+    <mergeCell ref="F22:H22"/>
+    <mergeCell ref="O22:Q22"/>
+    <mergeCell ref="U22:W22"/>
+    <mergeCell ref="X22:Z22"/>
+    <mergeCell ref="AA22:AC22"/>
+    <mergeCell ref="AD22:AF22"/>
+    <mergeCell ref="B21:D23"/>
+    <mergeCell ref="F21:H21"/>
+    <mergeCell ref="O21:Q21"/>
+    <mergeCell ref="U21:W21"/>
+    <mergeCell ref="X21:Z21"/>
+    <mergeCell ref="AA21:AC21"/>
+    <mergeCell ref="I21:K21"/>
+    <mergeCell ref="R21:T21"/>
+    <mergeCell ref="I22:K22"/>
+    <mergeCell ref="I23:K23"/>
+    <mergeCell ref="O23:Q23"/>
+    <mergeCell ref="AG22:AI22"/>
+    <mergeCell ref="F23:H23"/>
+    <mergeCell ref="U23:W23"/>
+    <mergeCell ref="X23:Z23"/>
+    <mergeCell ref="AA23:AC23"/>
+    <mergeCell ref="AG23:AI23"/>
+    <mergeCell ref="AD21:AF21"/>
+    <mergeCell ref="AG21:AI21"/>
+    <mergeCell ref="AG24:AI24"/>
+    <mergeCell ref="AJ24:AM26"/>
+    <mergeCell ref="AN24:AQ26"/>
+    <mergeCell ref="F25:H25"/>
+    <mergeCell ref="U25:W25"/>
+    <mergeCell ref="X25:Z25"/>
+    <mergeCell ref="AA25:AC25"/>
+    <mergeCell ref="AD25:AF25"/>
+    <mergeCell ref="AG25:AI25"/>
+    <mergeCell ref="F26:H26"/>
+    <mergeCell ref="F24:H24"/>
+    <mergeCell ref="U24:W24"/>
+    <mergeCell ref="X24:Z24"/>
+    <mergeCell ref="AA24:AC24"/>
+    <mergeCell ref="AD24:AF24"/>
+    <mergeCell ref="U26:W26"/>
+    <mergeCell ref="X26:Z26"/>
+    <mergeCell ref="AA26:AC26"/>
+    <mergeCell ref="AD26:AF26"/>
+    <mergeCell ref="I25:K25"/>
+    <mergeCell ref="I26:K26"/>
     <mergeCell ref="L25:N25"/>
     <mergeCell ref="L26:N26"/>
     <mergeCell ref="AG26:AI26"/>
@@ -8236,146 +8243,84 @@
     <mergeCell ref="O26:Q26"/>
     <mergeCell ref="R25:T25"/>
     <mergeCell ref="R26:T26"/>
-    <mergeCell ref="AG23:AI23"/>
-    <mergeCell ref="AD21:AF21"/>
-    <mergeCell ref="AG21:AI21"/>
-    <mergeCell ref="AG24:AI24"/>
-    <mergeCell ref="AJ24:AM26"/>
-    <mergeCell ref="AN24:AQ26"/>
-    <mergeCell ref="F25:H25"/>
-    <mergeCell ref="U25:W25"/>
-    <mergeCell ref="X25:Z25"/>
-    <mergeCell ref="AA25:AC25"/>
-    <mergeCell ref="AD25:AF25"/>
-    <mergeCell ref="AG25:AI25"/>
-    <mergeCell ref="F26:H26"/>
-    <mergeCell ref="F24:H24"/>
-    <mergeCell ref="U24:W24"/>
-    <mergeCell ref="X24:Z24"/>
-    <mergeCell ref="AA24:AC24"/>
-    <mergeCell ref="AD24:AF24"/>
-    <mergeCell ref="U26:W26"/>
-    <mergeCell ref="X26:Z26"/>
-    <mergeCell ref="AA26:AC26"/>
-    <mergeCell ref="AD26:AF26"/>
-    <mergeCell ref="I25:K25"/>
-    <mergeCell ref="I26:K26"/>
-    <mergeCell ref="AJ21:AM23"/>
-    <mergeCell ref="AN21:AQ23"/>
-    <mergeCell ref="F22:H22"/>
-    <mergeCell ref="O22:Q22"/>
-    <mergeCell ref="U22:W22"/>
-    <mergeCell ref="X22:Z22"/>
-    <mergeCell ref="AA22:AC22"/>
-    <mergeCell ref="AD22:AF22"/>
-    <mergeCell ref="B21:D23"/>
-    <mergeCell ref="F21:H21"/>
-    <mergeCell ref="O21:Q21"/>
-    <mergeCell ref="U21:W21"/>
-    <mergeCell ref="X21:Z21"/>
-    <mergeCell ref="AA21:AC21"/>
-    <mergeCell ref="I21:K21"/>
-    <mergeCell ref="R21:T21"/>
-    <mergeCell ref="I22:K22"/>
-    <mergeCell ref="I23:K23"/>
-    <mergeCell ref="O23:Q23"/>
-    <mergeCell ref="AG22:AI22"/>
-    <mergeCell ref="F23:H23"/>
-    <mergeCell ref="U23:W23"/>
-    <mergeCell ref="X23:Z23"/>
-    <mergeCell ref="AA23:AC23"/>
-    <mergeCell ref="AG18:AI18"/>
-    <mergeCell ref="AJ18:AM20"/>
-    <mergeCell ref="AN18:AQ20"/>
-    <mergeCell ref="AG19:AI19"/>
-    <mergeCell ref="AG20:AI20"/>
-    <mergeCell ref="AJ15:AM17"/>
-    <mergeCell ref="AN15:AQ17"/>
-    <mergeCell ref="F16:Q16"/>
-    <mergeCell ref="R16:AC16"/>
-    <mergeCell ref="F17:H17"/>
-    <mergeCell ref="U17:W17"/>
-    <mergeCell ref="X17:Z17"/>
-    <mergeCell ref="AA17:AC17"/>
-    <mergeCell ref="AD17:AF17"/>
-    <mergeCell ref="AG17:AI17"/>
-    <mergeCell ref="AD15:AI16"/>
-    <mergeCell ref="F19:H19"/>
-    <mergeCell ref="O19:Q19"/>
-    <mergeCell ref="U19:W19"/>
-    <mergeCell ref="X19:Z19"/>
-    <mergeCell ref="AA19:AC19"/>
-    <mergeCell ref="AD19:AF19"/>
-    <mergeCell ref="L19:N19"/>
-    <mergeCell ref="R19:T19"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="E15:E17"/>
-    <mergeCell ref="F15:AC15"/>
-    <mergeCell ref="B18:D20"/>
-    <mergeCell ref="F18:H18"/>
-    <mergeCell ref="O18:Q18"/>
-    <mergeCell ref="U18:W18"/>
-    <mergeCell ref="R17:T17"/>
-    <mergeCell ref="I18:K18"/>
-    <mergeCell ref="I19:K19"/>
-    <mergeCell ref="L17:N17"/>
-    <mergeCell ref="O17:Q17"/>
-    <mergeCell ref="F20:H20"/>
-    <mergeCell ref="O20:Q20"/>
-    <mergeCell ref="U20:W20"/>
-    <mergeCell ref="X20:Z20"/>
-    <mergeCell ref="AA20:AC20"/>
-    <mergeCell ref="I20:K20"/>
-    <mergeCell ref="L20:N20"/>
-    <mergeCell ref="R20:T20"/>
-    <mergeCell ref="Q1:U1"/>
-    <mergeCell ref="Q2:T2"/>
-    <mergeCell ref="AA2:AD2"/>
-    <mergeCell ref="B1:L2"/>
-    <mergeCell ref="B3:L3"/>
-    <mergeCell ref="B4:L4"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="O25:Q25"/>
-    <mergeCell ref="L31:N31"/>
-    <mergeCell ref="R3:S3"/>
-    <mergeCell ref="U3:V3"/>
-    <mergeCell ref="M7:O7"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="P8:S8"/>
-    <mergeCell ref="O29:Q29"/>
-    <mergeCell ref="R28:T28"/>
-    <mergeCell ref="L21:N21"/>
-    <mergeCell ref="L22:N22"/>
-    <mergeCell ref="L23:N23"/>
-    <mergeCell ref="L29:N29"/>
-    <mergeCell ref="V12:AF12"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="I17:K17"/>
-    <mergeCell ref="H5:AF5"/>
-    <mergeCell ref="H6:P6"/>
-    <mergeCell ref="E7:L7"/>
-    <mergeCell ref="I12:Q12"/>
-    <mergeCell ref="R18:T18"/>
-    <mergeCell ref="L24:N24"/>
-    <mergeCell ref="V11:AF11"/>
-    <mergeCell ref="I24:K24"/>
-    <mergeCell ref="X18:Z18"/>
-    <mergeCell ref="AA18:AC18"/>
-    <mergeCell ref="X7:Y7"/>
-    <mergeCell ref="L18:N18"/>
-    <mergeCell ref="V6:AF6"/>
-    <mergeCell ref="P7:W7"/>
-    <mergeCell ref="Z7:AF7"/>
-    <mergeCell ref="P9:AF9"/>
-    <mergeCell ref="I11:Q11"/>
-    <mergeCell ref="R22:T22"/>
-    <mergeCell ref="R23:T23"/>
-    <mergeCell ref="R24:T24"/>
-    <mergeCell ref="AD18:AF18"/>
-    <mergeCell ref="AD20:AF20"/>
-    <mergeCell ref="AD23:AF23"/>
-    <mergeCell ref="O24:Q24"/>
+    <mergeCell ref="R27:T27"/>
+    <mergeCell ref="AJ27:AM29"/>
+    <mergeCell ref="AN27:AQ29"/>
+    <mergeCell ref="F28:H28"/>
+    <mergeCell ref="U28:W28"/>
+    <mergeCell ref="X28:Z28"/>
+    <mergeCell ref="AA28:AC28"/>
+    <mergeCell ref="AD28:AF28"/>
+    <mergeCell ref="AG28:AI28"/>
+    <mergeCell ref="F29:H29"/>
+    <mergeCell ref="U29:W29"/>
+    <mergeCell ref="AD29:AF29"/>
+    <mergeCell ref="AG29:AI29"/>
+    <mergeCell ref="B30:D32"/>
+    <mergeCell ref="F30:H30"/>
+    <mergeCell ref="O30:Q30"/>
+    <mergeCell ref="U30:W30"/>
+    <mergeCell ref="X30:Z30"/>
+    <mergeCell ref="AA30:AC30"/>
+    <mergeCell ref="AD30:AF30"/>
+    <mergeCell ref="AG30:AI30"/>
+    <mergeCell ref="I30:K30"/>
+    <mergeCell ref="I31:K31"/>
+    <mergeCell ref="I32:K32"/>
+    <mergeCell ref="O32:Q32"/>
+    <mergeCell ref="L32:N32"/>
+    <mergeCell ref="L30:N30"/>
+    <mergeCell ref="R31:T31"/>
+    <mergeCell ref="U32:W32"/>
+    <mergeCell ref="R32:T32"/>
+    <mergeCell ref="X32:Z32"/>
+    <mergeCell ref="R30:T30"/>
+    <mergeCell ref="AJ30:AM32"/>
+    <mergeCell ref="AN30:AQ32"/>
+    <mergeCell ref="F31:H31"/>
+    <mergeCell ref="O31:Q31"/>
+    <mergeCell ref="U31:W31"/>
+    <mergeCell ref="X31:Z31"/>
+    <mergeCell ref="AA31:AC31"/>
+    <mergeCell ref="AD31:AF31"/>
+    <mergeCell ref="AG31:AI31"/>
+    <mergeCell ref="F32:H32"/>
+    <mergeCell ref="AA32:AC32"/>
+    <mergeCell ref="AD32:AF32"/>
+    <mergeCell ref="AG32:AI32"/>
+    <mergeCell ref="B33:D35"/>
+    <mergeCell ref="F33:H33"/>
+    <mergeCell ref="L33:N33"/>
+    <mergeCell ref="U33:W33"/>
+    <mergeCell ref="X33:Z33"/>
+    <mergeCell ref="AA33:AC33"/>
+    <mergeCell ref="AD33:AF33"/>
+    <mergeCell ref="L35:N35"/>
+    <mergeCell ref="I35:K35"/>
+    <mergeCell ref="R35:T35"/>
+    <mergeCell ref="I33:K33"/>
+    <mergeCell ref="I34:K34"/>
+    <mergeCell ref="O33:Q33"/>
+    <mergeCell ref="O34:Q34"/>
+    <mergeCell ref="O35:Q35"/>
+    <mergeCell ref="R33:T33"/>
+    <mergeCell ref="R34:T34"/>
+    <mergeCell ref="F35:H35"/>
+    <mergeCell ref="U35:W35"/>
+    <mergeCell ref="X35:Z35"/>
+    <mergeCell ref="AA35:AC35"/>
+    <mergeCell ref="AD35:AF35"/>
+    <mergeCell ref="AG35:AI35"/>
+    <mergeCell ref="AG33:AI33"/>
+    <mergeCell ref="AJ33:AM35"/>
+    <mergeCell ref="AN33:AQ35"/>
+    <mergeCell ref="F34:H34"/>
+    <mergeCell ref="L34:N34"/>
+    <mergeCell ref="U34:W34"/>
+    <mergeCell ref="X34:Z34"/>
+    <mergeCell ref="AA34:AC34"/>
+    <mergeCell ref="AD34:AF34"/>
+    <mergeCell ref="AG34:AI34"/>
   </mergeCells>
   <phoneticPr fontId="20" type="noConversion"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.39370078740157483" bottom="0" header="0.31496062992125984" footer="0"/>
@@ -8467,35 +8412,35 @@
     <row r="1" spans="1:256" ht="12.75" customHeight="1"/>
     <row r="2" spans="1:256" ht="12.75" customHeight="1"/>
     <row r="3" spans="1:256" ht="35.25" customHeight="1">
-      <c r="A3" s="358" t="s">
+      <c r="A3" s="340" t="s">
         <v>24</v>
       </c>
-      <c r="B3" s="358"/>
-      <c r="C3" s="358"/>
-      <c r="D3" s="358"/>
-      <c r="E3" s="358"/>
-      <c r="F3" s="358"/>
-      <c r="G3" s="358"/>
-      <c r="H3" s="358"/>
-      <c r="I3" s="358"/>
-      <c r="J3" s="358"/>
-      <c r="K3" s="358"/>
-      <c r="L3" s="358"/>
-      <c r="M3" s="358"/>
-      <c r="N3" s="358"/>
-      <c r="O3" s="358"/>
-      <c r="P3" s="358"/>
-      <c r="Q3" s="358"/>
-      <c r="R3" s="358"/>
-      <c r="S3" s="358"/>
-      <c r="T3" s="358"/>
-      <c r="U3" s="358"/>
-      <c r="V3" s="358"/>
-      <c r="W3" s="358"/>
-      <c r="X3" s="358"/>
-      <c r="Y3" s="358"/>
-      <c r="Z3" s="358"/>
-      <c r="AA3" s="358"/>
+      <c r="B3" s="340"/>
+      <c r="C3" s="340"/>
+      <c r="D3" s="340"/>
+      <c r="E3" s="340"/>
+      <c r="F3" s="340"/>
+      <c r="G3" s="340"/>
+      <c r="H3" s="340"/>
+      <c r="I3" s="340"/>
+      <c r="J3" s="340"/>
+      <c r="K3" s="340"/>
+      <c r="L3" s="340"/>
+      <c r="M3" s="340"/>
+      <c r="N3" s="340"/>
+      <c r="O3" s="340"/>
+      <c r="P3" s="340"/>
+      <c r="Q3" s="340"/>
+      <c r="R3" s="340"/>
+      <c r="S3" s="340"/>
+      <c r="T3" s="340"/>
+      <c r="U3" s="340"/>
+      <c r="V3" s="340"/>
+      <c r="W3" s="340"/>
+      <c r="X3" s="340"/>
+      <c r="Y3" s="340"/>
+      <c r="Z3" s="340"/>
+      <c r="AA3" s="340"/>
     </row>
     <row r="4" spans="1:256" ht="19.5" customHeight="1">
       <c r="A4" s="9"/>
@@ -11118,13 +11063,13 @@
       <c r="I14" s="125" t="s">
         <v>26</v>
       </c>
-      <c r="J14" s="362">
+      <c r="J14" s="344">
         <f>'Data Record'!E7</f>
         <v>123</v>
       </c>
-      <c r="K14" s="362"/>
-      <c r="L14" s="362"/>
-      <c r="M14" s="362"/>
+      <c r="K14" s="344"/>
+      <c r="L14" s="344"/>
+      <c r="M14" s="344"/>
       <c r="N14" s="14"/>
       <c r="O14" s="1"/>
       <c r="P14" s="14"/>
@@ -11383,12 +11328,12 @@
       <c r="I15" s="125" t="s">
         <v>26</v>
       </c>
-      <c r="J15" s="366">
+      <c r="J15" s="348">
         <f>'Data Record'!P7</f>
         <v>456</v>
       </c>
-      <c r="K15" s="366"/>
-      <c r="L15" s="366"/>
+      <c r="K15" s="348"/>
+      <c r="L15" s="348"/>
       <c r="M15" s="152"/>
       <c r="N15" s="152"/>
       <c r="O15" s="1"/>
@@ -11648,13 +11593,13 @@
       <c r="I16" s="125" t="s">
         <v>26</v>
       </c>
-      <c r="J16" s="363">
+      <c r="J16" s="345">
         <f>'Data Record'!Z7</f>
         <v>789</v>
       </c>
-      <c r="K16" s="363"/>
-      <c r="L16" s="363"/>
-      <c r="M16" s="363"/>
+      <c r="K16" s="345"/>
+      <c r="L16" s="345"/>
+      <c r="M16" s="345"/>
       <c r="N16" s="14"/>
       <c r="O16" s="1"/>
       <c r="P16" s="14"/>
@@ -12450,14 +12395,14 @@
       <c r="V19" s="125" t="s">
         <v>26</v>
       </c>
-      <c r="W19" s="364">
+      <c r="W19" s="346">
         <f>'Data Record'!Q2</f>
         <v>42005</v>
       </c>
-      <c r="X19" s="364"/>
-      <c r="Y19" s="364"/>
-      <c r="Z19" s="364"/>
-      <c r="AA19" s="364"/>
+      <c r="X19" s="346"/>
+      <c r="Y19" s="346"/>
+      <c r="Z19" s="346"/>
+      <c r="AA19" s="346"/>
       <c r="AB19" s="1"/>
       <c r="AC19" s="1"/>
       <c r="AD19" s="1"/>
@@ -12721,14 +12666,14 @@
       <c r="V20" s="125" t="s">
         <v>26</v>
       </c>
-      <c r="W20" s="364">
+      <c r="W20" s="346">
         <f>'Data Record'!AA2</f>
         <v>42019</v>
       </c>
-      <c r="X20" s="364"/>
-      <c r="Y20" s="364"/>
-      <c r="Z20" s="364"/>
-      <c r="AA20" s="364"/>
+      <c r="X20" s="346"/>
+      <c r="Y20" s="346"/>
+      <c r="Z20" s="346"/>
+      <c r="AA20" s="346"/>
       <c r="AB20" s="1"/>
       <c r="AC20" s="1"/>
       <c r="AD20" s="1"/>
@@ -12992,14 +12937,14 @@
       <c r="V21" s="125" t="s">
         <v>26</v>
       </c>
-      <c r="W21" s="365">
+      <c r="W21" s="347">
         <f>W20+365</f>
         <v>42384</v>
       </c>
-      <c r="X21" s="365"/>
-      <c r="Y21" s="365"/>
-      <c r="Z21" s="365"/>
-      <c r="AA21" s="365"/>
+      <c r="X21" s="347"/>
+      <c r="Y21" s="347"/>
+      <c r="Z21" s="347"/>
+      <c r="AA21" s="347"/>
       <c r="AB21" s="1"/>
       <c r="AC21" s="1"/>
       <c r="AD21" s="1"/>
@@ -16616,12 +16561,12 @@
       <c r="G35" s="125" t="s">
         <v>26</v>
       </c>
-      <c r="H35" s="367">
+      <c r="H35" s="349">
         <f>W20+1</f>
         <v>42020</v>
       </c>
-      <c r="I35" s="367"/>
-      <c r="J35" s="367"/>
+      <c r="I35" s="349"/>
+      <c r="J35" s="349"/>
       <c r="K35" s="158"/>
       <c r="L35" s="141"/>
       <c r="M35" s="141"/>
@@ -16899,17 +16844,17 @@
         <v>3</v>
       </c>
       <c r="R36" s="141"/>
-      <c r="S36" s="359" t="str">
+      <c r="S36" s="341" t="str">
         <f>IF(Q36=1,"( Mr.Sombut Srikampa )",IF(Q36=3,"( Mr. Natthaphol Boonmee )"))</f>
         <v>( Mr. Natthaphol Boonmee )</v>
       </c>
-      <c r="T36" s="359"/>
-      <c r="U36" s="359"/>
-      <c r="V36" s="359"/>
-      <c r="W36" s="359"/>
-      <c r="X36" s="359"/>
-      <c r="Y36" s="359"/>
-      <c r="Z36" s="359"/>
+      <c r="T36" s="341"/>
+      <c r="U36" s="341"/>
+      <c r="V36" s="341"/>
+      <c r="W36" s="341"/>
+      <c r="X36" s="341"/>
+      <c r="Y36" s="341"/>
+      <c r="Z36" s="341"/>
       <c r="AA36" s="2"/>
       <c r="AB36" s="1"/>
       <c r="AC36" s="1"/>
@@ -17160,16 +17105,16 @@
       <c r="P37" s="141"/>
       <c r="Q37" s="141"/>
       <c r="R37" s="141"/>
-      <c r="S37" s="360" t="s">
+      <c r="S37" s="342" t="s">
         <v>12</v>
       </c>
-      <c r="T37" s="360"/>
-      <c r="U37" s="360"/>
-      <c r="V37" s="360"/>
-      <c r="W37" s="360"/>
-      <c r="X37" s="360"/>
-      <c r="Y37" s="360"/>
-      <c r="Z37" s="360"/>
+      <c r="T37" s="342"/>
+      <c r="U37" s="342"/>
+      <c r="V37" s="342"/>
+      <c r="W37" s="342"/>
+      <c r="X37" s="342"/>
+      <c r="Y37" s="342"/>
+      <c r="Z37" s="342"/>
       <c r="AA37" s="2"/>
       <c r="AB37" s="63"/>
       <c r="AC37" s="165"/>
@@ -17660,28 +17605,28 @@
       <c r="IV38" s="1"/>
     </row>
     <row r="39" spans="1:256">
-      <c r="A39" s="361"/>
-      <c r="B39" s="361"/>
-      <c r="C39" s="361"/>
-      <c r="D39" s="361"/>
-      <c r="E39" s="361"/>
-      <c r="F39" s="361"/>
-      <c r="G39" s="361"/>
-      <c r="H39" s="361"/>
-      <c r="I39" s="361"/>
-      <c r="J39" s="361"/>
-      <c r="K39" s="361"/>
-      <c r="L39" s="361"/>
-      <c r="M39" s="361"/>
-      <c r="N39" s="361"/>
-      <c r="O39" s="361"/>
-      <c r="P39" s="361"/>
-      <c r="Q39" s="361"/>
-      <c r="R39" s="361"/>
-      <c r="S39" s="361"/>
-      <c r="T39" s="361"/>
-      <c r="U39" s="361"/>
-      <c r="V39" s="361"/>
+      <c r="A39" s="343"/>
+      <c r="B39" s="343"/>
+      <c r="C39" s="343"/>
+      <c r="D39" s="343"/>
+      <c r="E39" s="343"/>
+      <c r="F39" s="343"/>
+      <c r="G39" s="343"/>
+      <c r="H39" s="343"/>
+      <c r="I39" s="343"/>
+      <c r="J39" s="343"/>
+      <c r="K39" s="343"/>
+      <c r="L39" s="343"/>
+      <c r="M39" s="343"/>
+      <c r="N39" s="343"/>
+      <c r="O39" s="343"/>
+      <c r="P39" s="343"/>
+      <c r="Q39" s="343"/>
+      <c r="R39" s="343"/>
+      <c r="S39" s="343"/>
+      <c r="T39" s="343"/>
+      <c r="U39" s="343"/>
+      <c r="V39" s="343"/>
       <c r="W39" s="70"/>
       <c r="X39" s="1"/>
       <c r="Y39" s="1"/>
@@ -17997,29 +17942,29 @@
   <sheetData>
     <row r="1" spans="1:36" ht="14.1" customHeight="1"/>
     <row r="3" spans="1:36" ht="34.5" customHeight="1">
-      <c r="A3" s="377" t="s">
+      <c r="A3" s="353" t="s">
         <v>53</v>
       </c>
-      <c r="B3" s="377"/>
-      <c r="C3" s="377"/>
-      <c r="D3" s="377"/>
-      <c r="E3" s="377"/>
-      <c r="F3" s="377"/>
-      <c r="G3" s="377"/>
-      <c r="H3" s="377"/>
-      <c r="I3" s="377"/>
-      <c r="J3" s="377"/>
-      <c r="K3" s="377"/>
-      <c r="L3" s="377"/>
-      <c r="M3" s="377"/>
-      <c r="N3" s="377"/>
-      <c r="O3" s="377"/>
-      <c r="P3" s="377"/>
-      <c r="Q3" s="377"/>
-      <c r="R3" s="377"/>
-      <c r="S3" s="377"/>
-      <c r="T3" s="377"/>
-      <c r="U3" s="377"/>
+      <c r="B3" s="353"/>
+      <c r="C3" s="353"/>
+      <c r="D3" s="353"/>
+      <c r="E3" s="353"/>
+      <c r="F3" s="353"/>
+      <c r="G3" s="353"/>
+      <c r="H3" s="353"/>
+      <c r="I3" s="353"/>
+      <c r="J3" s="353"/>
+      <c r="K3" s="353"/>
+      <c r="L3" s="353"/>
+      <c r="M3" s="353"/>
+      <c r="N3" s="353"/>
+      <c r="O3" s="353"/>
+      <c r="P3" s="353"/>
+      <c r="Q3" s="353"/>
+      <c r="R3" s="353"/>
+      <c r="S3" s="353"/>
+      <c r="T3" s="353"/>
+      <c r="U3" s="353"/>
       <c r="V3" s="115"/>
     </row>
     <row r="4" spans="1:36" ht="18.75" customHeight="1">
@@ -18113,18 +18058,18 @@
       <c r="D8" s="119"/>
       <c r="E8" s="115"/>
       <c r="F8" s="115"/>
-      <c r="G8" s="381" t="s">
+      <c r="G8" s="357" t="s">
         <v>122</v>
       </c>
-      <c r="H8" s="381"/>
-      <c r="I8" s="381"/>
-      <c r="J8" s="381"/>
-      <c r="K8" s="381"/>
-      <c r="L8" s="381"/>
-      <c r="M8" s="381"/>
-      <c r="N8" s="381"/>
-      <c r="O8" s="381"/>
-      <c r="P8" s="381"/>
+      <c r="H8" s="357"/>
+      <c r="I8" s="357"/>
+      <c r="J8" s="357"/>
+      <c r="K8" s="357"/>
+      <c r="L8" s="357"/>
+      <c r="M8" s="357"/>
+      <c r="N8" s="357"/>
+      <c r="O8" s="357"/>
+      <c r="P8" s="357"/>
       <c r="Q8" s="16"/>
       <c r="R8" s="16"/>
       <c r="S8" s="16"/>
@@ -18141,16 +18086,16 @@
       <c r="D9" s="119"/>
       <c r="E9" s="115"/>
       <c r="F9" s="115"/>
-      <c r="G9" s="381"/>
-      <c r="H9" s="381"/>
-      <c r="I9" s="381"/>
-      <c r="J9" s="381"/>
-      <c r="K9" s="381"/>
-      <c r="L9" s="381"/>
-      <c r="M9" s="381"/>
-      <c r="N9" s="381"/>
-      <c r="O9" s="381"/>
-      <c r="P9" s="381"/>
+      <c r="G9" s="357"/>
+      <c r="H9" s="357"/>
+      <c r="I9" s="357"/>
+      <c r="J9" s="357"/>
+      <c r="K9" s="357"/>
+      <c r="L9" s="357"/>
+      <c r="M9" s="357"/>
+      <c r="N9" s="357"/>
+      <c r="O9" s="357"/>
+      <c r="P9" s="357"/>
       <c r="Q9" s="16"/>
       <c r="R9" s="16"/>
       <c r="S9" s="16"/>
@@ -18183,98 +18128,98 @@
       <c r="W10" s="194"/>
     </row>
     <row r="11" spans="1:36" ht="21" customHeight="1">
-      <c r="B11" s="378" t="s">
+      <c r="B11" s="354" t="s">
         <v>27</v>
       </c>
-      <c r="C11" s="379"/>
-      <c r="D11" s="379"/>
-      <c r="E11" s="379"/>
-      <c r="F11" s="379"/>
-      <c r="G11" s="380"/>
-      <c r="H11" s="382" t="s">
+      <c r="C11" s="355"/>
+      <c r="D11" s="355"/>
+      <c r="E11" s="355"/>
+      <c r="F11" s="355"/>
+      <c r="G11" s="356"/>
+      <c r="H11" s="358" t="s">
         <v>1</v>
       </c>
-      <c r="I11" s="382"/>
-      <c r="J11" s="382"/>
-      <c r="K11" s="382"/>
-      <c r="L11" s="378" t="s">
+      <c r="I11" s="358"/>
+      <c r="J11" s="358"/>
+      <c r="K11" s="358"/>
+      <c r="L11" s="354" t="s">
         <v>0</v>
       </c>
-      <c r="M11" s="379"/>
-      <c r="N11" s="380"/>
-      <c r="O11" s="378" t="s">
+      <c r="M11" s="355"/>
+      <c r="N11" s="356"/>
+      <c r="O11" s="354" t="s">
         <v>8</v>
       </c>
-      <c r="P11" s="379"/>
-      <c r="Q11" s="379"/>
-      <c r="R11" s="380"/>
-      <c r="S11" s="382" t="s">
+      <c r="P11" s="355"/>
+      <c r="Q11" s="355"/>
+      <c r="R11" s="356"/>
+      <c r="S11" s="358" t="s">
         <v>30</v>
       </c>
-      <c r="T11" s="382"/>
-      <c r="U11" s="382"/>
-      <c r="V11" s="382"/>
+      <c r="T11" s="358"/>
+      <c r="U11" s="358"/>
+      <c r="V11" s="358"/>
       <c r="W11" s="133"/>
     </row>
     <row r="12" spans="1:36" ht="21" customHeight="1">
-      <c r="B12" s="383" t="s">
+      <c r="B12" s="359" t="s">
         <v>145</v>
       </c>
-      <c r="C12" s="374"/>
-      <c r="D12" s="374"/>
-      <c r="E12" s="374"/>
-      <c r="F12" s="374"/>
-      <c r="G12" s="374"/>
-      <c r="H12" s="374" t="s">
+      <c r="C12" s="350"/>
+      <c r="D12" s="350"/>
+      <c r="E12" s="350"/>
+      <c r="F12" s="350"/>
+      <c r="G12" s="350"/>
+      <c r="H12" s="350" t="s">
         <v>37</v>
       </c>
-      <c r="I12" s="374"/>
-      <c r="J12" s="374"/>
-      <c r="K12" s="374"/>
-      <c r="L12" s="375" t="s">
+      <c r="I12" s="350"/>
+      <c r="J12" s="350"/>
+      <c r="K12" s="350"/>
+      <c r="L12" s="351" t="s">
         <v>21</v>
       </c>
-      <c r="M12" s="375"/>
-      <c r="N12" s="375"/>
-      <c r="O12" s="374" t="s">
+      <c r="M12" s="351"/>
+      <c r="N12" s="351"/>
+      <c r="O12" s="350" t="s">
         <v>146</v>
       </c>
-      <c r="P12" s="374"/>
-      <c r="Q12" s="374"/>
-      <c r="R12" s="374"/>
-      <c r="S12" s="376">
+      <c r="P12" s="350"/>
+      <c r="Q12" s="350"/>
+      <c r="R12" s="350"/>
+      <c r="S12" s="352">
         <v>42853</v>
       </c>
-      <c r="T12" s="376"/>
-      <c r="U12" s="376"/>
-      <c r="V12" s="376"/>
+      <c r="T12" s="352"/>
+      <c r="U12" s="352"/>
+      <c r="V12" s="352"/>
       <c r="W12" s="15"/>
       <c r="X12" s="15"/>
       <c r="Y12" s="15"/>
       <c r="Z12" s="79"/>
     </row>
     <row r="13" spans="1:36" ht="21" customHeight="1">
-      <c r="B13" s="374"/>
-      <c r="C13" s="374"/>
-      <c r="D13" s="374"/>
-      <c r="E13" s="374"/>
-      <c r="F13" s="374"/>
-      <c r="G13" s="374"/>
-      <c r="H13" s="374"/>
-      <c r="I13" s="374"/>
-      <c r="J13" s="374"/>
-      <c r="K13" s="374"/>
-      <c r="L13" s="375"/>
-      <c r="M13" s="375"/>
-      <c r="N13" s="375"/>
-      <c r="O13" s="374"/>
-      <c r="P13" s="374"/>
-      <c r="Q13" s="374"/>
-      <c r="R13" s="374"/>
-      <c r="S13" s="376"/>
-      <c r="T13" s="376"/>
-      <c r="U13" s="376"/>
-      <c r="V13" s="376"/>
+      <c r="B13" s="350"/>
+      <c r="C13" s="350"/>
+      <c r="D13" s="350"/>
+      <c r="E13" s="350"/>
+      <c r="F13" s="350"/>
+      <c r="G13" s="350"/>
+      <c r="H13" s="350"/>
+      <c r="I13" s="350"/>
+      <c r="J13" s="350"/>
+      <c r="K13" s="350"/>
+      <c r="L13" s="351"/>
+      <c r="M13" s="351"/>
+      <c r="N13" s="351"/>
+      <c r="O13" s="350"/>
+      <c r="P13" s="350"/>
+      <c r="Q13" s="350"/>
+      <c r="R13" s="350"/>
+      <c r="S13" s="352"/>
+      <c r="T13" s="352"/>
+      <c r="U13" s="352"/>
+      <c r="V13" s="352"/>
       <c r="AH13" s="15"/>
       <c r="AI13" s="15"/>
     </row>
@@ -18354,10 +18299,10 @@
       <c r="G18" s="115"/>
       <c r="H18" s="115"/>
       <c r="I18" s="125"/>
-      <c r="J18" s="368"/>
-      <c r="K18" s="369"/>
-      <c r="L18" s="369"/>
-      <c r="M18" s="369"/>
+      <c r="J18" s="360"/>
+      <c r="K18" s="361"/>
+      <c r="L18" s="361"/>
+      <c r="M18" s="361"/>
       <c r="O18" s="15"/>
       <c r="P18" s="15"/>
       <c r="Q18" s="15"/>
@@ -18378,10 +18323,10 @@
       <c r="G19" s="115"/>
       <c r="H19" s="115"/>
       <c r="I19" s="125"/>
-      <c r="J19" s="368"/>
-      <c r="K19" s="369"/>
-      <c r="L19" s="369"/>
-      <c r="M19" s="369"/>
+      <c r="J19" s="360"/>
+      <c r="K19" s="361"/>
+      <c r="L19" s="361"/>
+      <c r="M19" s="361"/>
       <c r="O19" s="15"/>
       <c r="P19" s="15"/>
       <c r="Q19" s="15"/>
@@ -18399,10 +18344,10 @@
       <c r="G20" s="115"/>
       <c r="H20" s="115"/>
       <c r="I20" s="125"/>
-      <c r="J20" s="369"/>
-      <c r="K20" s="369"/>
-      <c r="L20" s="369"/>
-      <c r="M20" s="369"/>
+      <c r="J20" s="361"/>
+      <c r="K20" s="361"/>
+      <c r="L20" s="361"/>
+      <c r="M20" s="361"/>
       <c r="O20" s="15"/>
       <c r="P20" s="15"/>
       <c r="Q20" s="15"/>
@@ -18675,16 +18620,16 @@
       <c r="C39" s="13"/>
       <c r="D39" s="13"/>
       <c r="E39" s="13"/>
-      <c r="F39" s="371"/>
-      <c r="G39" s="371"/>
-      <c r="H39" s="371"/>
-      <c r="I39" s="371"/>
+      <c r="F39" s="363"/>
+      <c r="G39" s="363"/>
+      <c r="H39" s="363"/>
+      <c r="I39" s="363"/>
       <c r="J39" s="198"/>
       <c r="K39" s="13"/>
-      <c r="L39" s="372"/>
-      <c r="M39" s="372"/>
-      <c r="N39" s="372"/>
-      <c r="O39" s="372"/>
+      <c r="L39" s="364"/>
+      <c r="M39" s="364"/>
+      <c r="N39" s="364"/>
+      <c r="O39" s="364"/>
       <c r="P39" s="13"/>
       <c r="Q39" s="13"/>
       <c r="R39" s="13"/>
@@ -18734,11 +18679,11 @@
       <c r="M41" s="13"/>
       <c r="N41" s="13"/>
       <c r="O41" s="13"/>
-      <c r="P41" s="373"/>
-      <c r="Q41" s="373"/>
-      <c r="R41" s="373"/>
-      <c r="S41" s="373"/>
-      <c r="T41" s="373"/>
+      <c r="P41" s="365"/>
+      <c r="Q41" s="365"/>
+      <c r="R41" s="365"/>
+      <c r="S41" s="365"/>
+      <c r="T41" s="365"/>
       <c r="U41" s="114"/>
       <c r="V41" s="114"/>
       <c r="W41" s="114"/>
@@ -18747,11 +18692,11 @@
       <c r="Z41" s="114"/>
     </row>
     <row r="42" spans="1:26" ht="18.75" customHeight="1">
-      <c r="D42" s="373"/>
-      <c r="E42" s="373"/>
-      <c r="F42" s="373"/>
-      <c r="G42" s="373"/>
-      <c r="H42" s="373"/>
+      <c r="D42" s="365"/>
+      <c r="E42" s="365"/>
+      <c r="F42" s="365"/>
+      <c r="G42" s="365"/>
+      <c r="H42" s="365"/>
       <c r="K42" s="13"/>
       <c r="N42" s="21"/>
       <c r="O42" s="21"/>
@@ -18767,26 +18712,26 @@
       <c r="Y42" s="114"/>
     </row>
     <row r="43" spans="1:26" ht="16.5" customHeight="1">
-      <c r="A43" s="370"/>
-      <c r="B43" s="370"/>
-      <c r="C43" s="370"/>
-      <c r="D43" s="370"/>
-      <c r="E43" s="370"/>
-      <c r="F43" s="370"/>
-      <c r="G43" s="370"/>
-      <c r="H43" s="370"/>
-      <c r="I43" s="370"/>
-      <c r="J43" s="370"/>
-      <c r="K43" s="370"/>
-      <c r="L43" s="370"/>
-      <c r="M43" s="370"/>
-      <c r="N43" s="370"/>
-      <c r="O43" s="370"/>
-      <c r="P43" s="370"/>
-      <c r="Q43" s="370"/>
-      <c r="R43" s="370"/>
-      <c r="S43" s="370"/>
-      <c r="T43" s="370"/>
+      <c r="A43" s="362"/>
+      <c r="B43" s="362"/>
+      <c r="C43" s="362"/>
+      <c r="D43" s="362"/>
+      <c r="E43" s="362"/>
+      <c r="F43" s="362"/>
+      <c r="G43" s="362"/>
+      <c r="H43" s="362"/>
+      <c r="I43" s="362"/>
+      <c r="J43" s="362"/>
+      <c r="K43" s="362"/>
+      <c r="L43" s="362"/>
+      <c r="M43" s="362"/>
+      <c r="N43" s="362"/>
+      <c r="O43" s="362"/>
+      <c r="P43" s="362"/>
+      <c r="Q43" s="362"/>
+      <c r="R43" s="362"/>
+      <c r="S43" s="362"/>
+      <c r="T43" s="362"/>
       <c r="U43" s="201"/>
     </row>
     <row r="44" spans="1:26" ht="18.75" customHeight="1"/>
@@ -18810,6 +18755,14 @@
     <row r="62" ht="18.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="J18:M18"/>
+    <mergeCell ref="A43:T43"/>
+    <mergeCell ref="J19:M19"/>
+    <mergeCell ref="J20:M20"/>
+    <mergeCell ref="F39:I39"/>
+    <mergeCell ref="L39:O39"/>
+    <mergeCell ref="P41:T41"/>
+    <mergeCell ref="D42:H42"/>
     <mergeCell ref="H12:K13"/>
     <mergeCell ref="L12:N13"/>
     <mergeCell ref="O12:R13"/>
@@ -18822,14 +18775,6 @@
     <mergeCell ref="O11:R11"/>
     <mergeCell ref="S11:V11"/>
     <mergeCell ref="B12:G13"/>
-    <mergeCell ref="J18:M18"/>
-    <mergeCell ref="A43:T43"/>
-    <mergeCell ref="J19:M19"/>
-    <mergeCell ref="J20:M20"/>
-    <mergeCell ref="F39:I39"/>
-    <mergeCell ref="L39:O39"/>
-    <mergeCell ref="P41:T41"/>
-    <mergeCell ref="D42:H42"/>
   </mergeCells>
   <phoneticPr fontId="20" type="noConversion"/>
   <pageMargins left="0.31496062992125984" right="0.31496062992125984" top="0.98425196850393704" bottom="0.19685039370078741" header="0.31496062992125984" footer="0.11811023622047245"/>
@@ -18874,31 +18819,31 @@
       <c r="AE2" s="26"/>
     </row>
     <row r="3" spans="1:51" s="25" customFormat="1" ht="34.5" customHeight="1">
-      <c r="A3" s="416" t="s">
+      <c r="A3" s="366" t="s">
         <v>35</v>
       </c>
-      <c r="B3" s="416"/>
-      <c r="C3" s="416"/>
-      <c r="D3" s="416"/>
-      <c r="E3" s="416"/>
-      <c r="F3" s="416"/>
-      <c r="G3" s="416"/>
-      <c r="H3" s="416"/>
-      <c r="I3" s="416"/>
-      <c r="J3" s="416"/>
-      <c r="K3" s="416"/>
-      <c r="L3" s="416"/>
-      <c r="M3" s="416"/>
-      <c r="N3" s="416"/>
-      <c r="O3" s="416"/>
-      <c r="P3" s="416"/>
-      <c r="Q3" s="416"/>
-      <c r="R3" s="416"/>
-      <c r="S3" s="416"/>
-      <c r="T3" s="416"/>
-      <c r="U3" s="416"/>
-      <c r="V3" s="416"/>
-      <c r="W3" s="416"/>
+      <c r="B3" s="366"/>
+      <c r="C3" s="366"/>
+      <c r="D3" s="366"/>
+      <c r="E3" s="366"/>
+      <c r="F3" s="366"/>
+      <c r="G3" s="366"/>
+      <c r="H3" s="366"/>
+      <c r="I3" s="366"/>
+      <c r="J3" s="366"/>
+      <c r="K3" s="366"/>
+      <c r="L3" s="366"/>
+      <c r="M3" s="366"/>
+      <c r="N3" s="366"/>
+      <c r="O3" s="366"/>
+      <c r="P3" s="366"/>
+      <c r="Q3" s="366"/>
+      <c r="R3" s="366"/>
+      <c r="S3" s="366"/>
+      <c r="T3" s="366"/>
+      <c r="U3" s="366"/>
+      <c r="V3" s="366"/>
+      <c r="W3" s="366"/>
       <c r="X3" s="29"/>
       <c r="AA3" s="26"/>
       <c r="AB3" s="26"/>
@@ -18919,13 +18864,13 @@
       </c>
       <c r="C5" s="25"/>
       <c r="D5" s="25"/>
-      <c r="F5" s="420" t="str">
+      <c r="F5" s="379" t="str">
         <f>Report!H5</f>
         <v>SPR15120012-1</v>
       </c>
-      <c r="G5" s="420"/>
-      <c r="H5" s="420"/>
-      <c r="I5" s="420"/>
+      <c r="G5" s="379"/>
+      <c r="H5" s="379"/>
+      <c r="I5" s="379"/>
       <c r="J5" s="25"/>
       <c r="K5" s="25"/>
       <c r="L5" s="25"/>
@@ -19277,10 +19222,10 @@
       <c r="R15" s="31"/>
       <c r="S15" s="31"/>
       <c r="T15" s="31"/>
-      <c r="U15" s="385" t="s">
+      <c r="U15" s="390" t="s">
         <v>144</v>
       </c>
-      <c r="V15" s="385"/>
+      <c r="V15" s="390"/>
       <c r="W15" s="79" t="s">
         <v>51</v>
       </c>
@@ -19291,221 +19236,221 @@
     </row>
     <row r="16" spans="1:51" ht="17.100000000000001" customHeight="1">
       <c r="A16" s="183"/>
-      <c r="B16" s="386" t="s">
+      <c r="B16" s="391" t="s">
         <v>142</v>
       </c>
-      <c r="C16" s="387"/>
-      <c r="D16" s="387"/>
-      <c r="E16" s="386" t="s">
+      <c r="C16" s="392"/>
+      <c r="D16" s="392"/>
+      <c r="E16" s="391" t="s">
         <v>22</v>
       </c>
-      <c r="F16" s="387"/>
-      <c r="G16" s="387"/>
-      <c r="H16" s="388"/>
-      <c r="I16" s="386" t="s">
+      <c r="F16" s="392"/>
+      <c r="G16" s="392"/>
+      <c r="H16" s="393"/>
+      <c r="I16" s="391" t="s">
         <v>143</v>
       </c>
-      <c r="J16" s="387"/>
-      <c r="K16" s="387"/>
-      <c r="L16" s="387"/>
-      <c r="M16" s="387"/>
-      <c r="N16" s="388"/>
-      <c r="O16" s="386" t="s">
+      <c r="J16" s="392"/>
+      <c r="K16" s="392"/>
+      <c r="L16" s="392"/>
+      <c r="M16" s="392"/>
+      <c r="N16" s="393"/>
+      <c r="O16" s="391" t="s">
         <v>89</v>
       </c>
-      <c r="P16" s="387"/>
-      <c r="Q16" s="387"/>
-      <c r="R16" s="387"/>
-      <c r="S16" s="387"/>
-      <c r="T16" s="388"/>
-      <c r="U16" s="386" t="s">
+      <c r="P16" s="392"/>
+      <c r="Q16" s="392"/>
+      <c r="R16" s="392"/>
+      <c r="S16" s="392"/>
+      <c r="T16" s="393"/>
+      <c r="U16" s="391" t="s">
         <v>90</v>
       </c>
-      <c r="V16" s="387"/>
-      <c r="W16" s="388"/>
+      <c r="V16" s="392"/>
+      <c r="W16" s="393"/>
     </row>
     <row r="17" spans="1:51" ht="17.100000000000001" customHeight="1">
       <c r="A17" s="183"/>
-      <c r="B17" s="401"/>
-      <c r="C17" s="402"/>
-      <c r="D17" s="402"/>
-      <c r="E17" s="401"/>
-      <c r="F17" s="402"/>
-      <c r="G17" s="402"/>
-      <c r="H17" s="403"/>
-      <c r="I17" s="389"/>
-      <c r="J17" s="390"/>
-      <c r="K17" s="390"/>
-      <c r="L17" s="390"/>
-      <c r="M17" s="390"/>
-      <c r="N17" s="391"/>
-      <c r="O17" s="389"/>
-      <c r="P17" s="390"/>
-      <c r="Q17" s="390"/>
-      <c r="R17" s="390"/>
-      <c r="S17" s="390"/>
-      <c r="T17" s="391"/>
-      <c r="U17" s="401"/>
-      <c r="V17" s="402"/>
-      <c r="W17" s="403"/>
+      <c r="B17" s="397"/>
+      <c r="C17" s="398"/>
+      <c r="D17" s="398"/>
+      <c r="E17" s="397"/>
+      <c r="F17" s="398"/>
+      <c r="G17" s="398"/>
+      <c r="H17" s="399"/>
+      <c r="I17" s="394"/>
+      <c r="J17" s="395"/>
+      <c r="K17" s="395"/>
+      <c r="L17" s="395"/>
+      <c r="M17" s="395"/>
+      <c r="N17" s="396"/>
+      <c r="O17" s="394"/>
+      <c r="P17" s="395"/>
+      <c r="Q17" s="395"/>
+      <c r="R17" s="395"/>
+      <c r="S17" s="395"/>
+      <c r="T17" s="396"/>
+      <c r="U17" s="397"/>
+      <c r="V17" s="398"/>
+      <c r="W17" s="399"/>
       <c r="AC17" s="79"/>
       <c r="AD17" s="79"/>
     </row>
     <row r="18" spans="1:51" ht="18.75" customHeight="1">
       <c r="A18" s="183"/>
-      <c r="B18" s="389"/>
-      <c r="C18" s="390"/>
-      <c r="D18" s="390"/>
-      <c r="E18" s="389"/>
-      <c r="F18" s="390"/>
-      <c r="G18" s="390"/>
-      <c r="H18" s="391"/>
-      <c r="I18" s="392" t="s">
+      <c r="B18" s="394"/>
+      <c r="C18" s="395"/>
+      <c r="D18" s="395"/>
+      <c r="E18" s="394"/>
+      <c r="F18" s="395"/>
+      <c r="G18" s="395"/>
+      <c r="H18" s="396"/>
+      <c r="I18" s="373" t="s">
         <v>13</v>
       </c>
-      <c r="J18" s="393"/>
-      <c r="K18" s="394"/>
-      <c r="L18" s="392" t="s">
+      <c r="J18" s="374"/>
+      <c r="K18" s="375"/>
+      <c r="L18" s="373" t="s">
         <v>14</v>
       </c>
-      <c r="M18" s="393"/>
-      <c r="N18" s="394"/>
-      <c r="O18" s="392" t="s">
+      <c r="M18" s="374"/>
+      <c r="N18" s="375"/>
+      <c r="O18" s="373" t="s">
         <v>13</v>
       </c>
-      <c r="P18" s="393"/>
-      <c r="Q18" s="394"/>
-      <c r="R18" s="392" t="s">
+      <c r="P18" s="374"/>
+      <c r="Q18" s="375"/>
+      <c r="R18" s="373" t="s">
         <v>14</v>
       </c>
-      <c r="S18" s="393"/>
-      <c r="T18" s="394"/>
-      <c r="U18" s="389"/>
-      <c r="V18" s="390"/>
-      <c r="W18" s="391"/>
+      <c r="S18" s="374"/>
+      <c r="T18" s="375"/>
+      <c r="U18" s="394"/>
+      <c r="V18" s="395"/>
+      <c r="W18" s="396"/>
     </row>
     <row r="19" spans="1:51" ht="21" customHeight="1">
       <c r="A19" s="183"/>
-      <c r="B19" s="404">
+      <c r="B19" s="400">
         <f>'Data Record'!B18</f>
         <v>2.5</v>
       </c>
-      <c r="C19" s="405"/>
-      <c r="D19" s="406"/>
-      <c r="E19" s="386" t="s">
+      <c r="C19" s="401"/>
+      <c r="D19" s="402"/>
+      <c r="E19" s="391" t="s">
         <v>20</v>
       </c>
-      <c r="F19" s="387"/>
-      <c r="G19" s="387"/>
-      <c r="H19" s="388"/>
-      <c r="I19" s="417">
+      <c r="F19" s="392"/>
+      <c r="G19" s="392"/>
+      <c r="H19" s="393"/>
+      <c r="I19" s="376">
         <f>'Data Record'!AD18</f>
         <v>2.5</v>
       </c>
-      <c r="J19" s="418"/>
-      <c r="K19" s="419"/>
-      <c r="L19" s="417">
+      <c r="J19" s="377"/>
+      <c r="K19" s="378"/>
+      <c r="L19" s="376">
         <f>'Data Record'!AG18</f>
         <v>2.5</v>
       </c>
-      <c r="M19" s="418"/>
-      <c r="N19" s="419"/>
-      <c r="O19" s="417">
+      <c r="M19" s="377"/>
+      <c r="N19" s="378"/>
+      <c r="O19" s="376">
         <f>B19-I19</f>
         <v>0</v>
       </c>
-      <c r="P19" s="418"/>
-      <c r="Q19" s="419"/>
-      <c r="R19" s="257">
+      <c r="P19" s="377"/>
+      <c r="Q19" s="378"/>
+      <c r="R19" s="312">
         <f>B19-L19</f>
         <v>0</v>
       </c>
-      <c r="S19" s="258"/>
-      <c r="T19" s="262"/>
-      <c r="U19" s="421">
+      <c r="S19" s="313"/>
+      <c r="T19" s="337"/>
+      <c r="U19" s="380">
         <f>'Uncertainty Budget'!R7</f>
         <v>0.44393750778881808</v>
       </c>
-      <c r="V19" s="422"/>
-      <c r="W19" s="423"/>
+      <c r="V19" s="381"/>
+      <c r="W19" s="382"/>
     </row>
     <row r="20" spans="1:51" ht="21" customHeight="1">
       <c r="A20" s="183"/>
-      <c r="B20" s="407"/>
-      <c r="C20" s="408"/>
-      <c r="D20" s="409"/>
-      <c r="E20" s="401" t="s">
+      <c r="B20" s="403"/>
+      <c r="C20" s="404"/>
+      <c r="D20" s="405"/>
+      <c r="E20" s="397" t="s">
         <v>19</v>
       </c>
-      <c r="F20" s="402"/>
-      <c r="G20" s="402"/>
-      <c r="H20" s="403"/>
-      <c r="I20" s="398">
+      <c r="F20" s="398"/>
+      <c r="G20" s="398"/>
+      <c r="H20" s="399"/>
+      <c r="I20" s="370">
         <f>'Data Record'!AD19</f>
         <v>2.5</v>
       </c>
-      <c r="J20" s="399"/>
-      <c r="K20" s="400"/>
-      <c r="L20" s="398">
+      <c r="J20" s="371"/>
+      <c r="K20" s="372"/>
+      <c r="L20" s="370">
         <f>'Data Record'!AG19</f>
         <v>2.5</v>
       </c>
-      <c r="M20" s="399"/>
-      <c r="N20" s="400"/>
-      <c r="O20" s="398">
+      <c r="M20" s="371"/>
+      <c r="N20" s="372"/>
+      <c r="O20" s="370">
         <f>B19-I20</f>
         <v>0</v>
       </c>
-      <c r="P20" s="399"/>
-      <c r="Q20" s="400"/>
-      <c r="R20" s="300">
+      <c r="P20" s="371"/>
+      <c r="Q20" s="372"/>
+      <c r="R20" s="303">
         <f>B19-L20</f>
         <v>0</v>
       </c>
-      <c r="S20" s="301"/>
-      <c r="T20" s="336"/>
-      <c r="U20" s="424"/>
-      <c r="V20" s="425"/>
-      <c r="W20" s="426"/>
+      <c r="S20" s="304"/>
+      <c r="T20" s="305"/>
+      <c r="U20" s="383"/>
+      <c r="V20" s="384"/>
+      <c r="W20" s="385"/>
     </row>
     <row r="21" spans="1:51" ht="21" customHeight="1">
       <c r="A21" s="183"/>
-      <c r="B21" s="410"/>
-      <c r="C21" s="411"/>
-      <c r="D21" s="412"/>
-      <c r="E21" s="413" t="s">
+      <c r="B21" s="406"/>
+      <c r="C21" s="407"/>
+      <c r="D21" s="408"/>
+      <c r="E21" s="409" t="s">
         <v>18</v>
       </c>
-      <c r="F21" s="414"/>
-      <c r="G21" s="414"/>
-      <c r="H21" s="415"/>
-      <c r="I21" s="395">
+      <c r="F21" s="410"/>
+      <c r="G21" s="410"/>
+      <c r="H21" s="411"/>
+      <c r="I21" s="367">
         <f>'Data Record'!AD20</f>
         <v>2.5</v>
       </c>
-      <c r="J21" s="396"/>
-      <c r="K21" s="397"/>
-      <c r="L21" s="395">
+      <c r="J21" s="368"/>
+      <c r="K21" s="369"/>
+      <c r="L21" s="367">
         <f>'Data Record'!AG20</f>
         <v>2.5</v>
       </c>
-      <c r="M21" s="396"/>
-      <c r="N21" s="397"/>
-      <c r="O21" s="395">
+      <c r="M21" s="368"/>
+      <c r="N21" s="369"/>
+      <c r="O21" s="367">
         <f>B19-I21</f>
         <v>0</v>
       </c>
-      <c r="P21" s="396"/>
-      <c r="Q21" s="397"/>
-      <c r="R21" s="305">
+      <c r="P21" s="368"/>
+      <c r="Q21" s="369"/>
+      <c r="R21" s="314">
         <f>B19-L21</f>
         <v>0</v>
       </c>
-      <c r="S21" s="306"/>
-      <c r="T21" s="307"/>
-      <c r="U21" s="427"/>
-      <c r="V21" s="428"/>
-      <c r="W21" s="429"/>
+      <c r="S21" s="315"/>
+      <c r="T21" s="316"/>
+      <c r="U21" s="386"/>
+      <c r="V21" s="387"/>
+      <c r="W21" s="388"/>
     </row>
     <row r="22" spans="1:51" s="79" customFormat="1" ht="17.850000000000001" customHeight="1">
       <c r="A22" s="183"/>
@@ -19644,31 +19589,31 @@
       <c r="AA25" s="28"/>
     </row>
     <row r="26" spans="1:51" ht="21" customHeight="1">
-      <c r="A26" s="384" t="s">
+      <c r="A26" s="389" t="s">
         <v>57</v>
       </c>
-      <c r="B26" s="384"/>
-      <c r="C26" s="384"/>
-      <c r="D26" s="384"/>
-      <c r="E26" s="384"/>
-      <c r="F26" s="384"/>
-      <c r="G26" s="384"/>
-      <c r="H26" s="384"/>
-      <c r="I26" s="384"/>
-      <c r="J26" s="384"/>
-      <c r="K26" s="384"/>
-      <c r="L26" s="384"/>
-      <c r="M26" s="384"/>
-      <c r="N26" s="384"/>
-      <c r="O26" s="384"/>
-      <c r="P26" s="384"/>
-      <c r="Q26" s="384"/>
-      <c r="R26" s="384"/>
-      <c r="S26" s="384"/>
-      <c r="T26" s="384"/>
-      <c r="U26" s="384"/>
-      <c r="V26" s="384"/>
-      <c r="W26" s="384"/>
+      <c r="B26" s="389"/>
+      <c r="C26" s="389"/>
+      <c r="D26" s="389"/>
+      <c r="E26" s="389"/>
+      <c r="F26" s="389"/>
+      <c r="G26" s="389"/>
+      <c r="H26" s="389"/>
+      <c r="I26" s="389"/>
+      <c r="J26" s="389"/>
+      <c r="K26" s="389"/>
+      <c r="L26" s="389"/>
+      <c r="M26" s="389"/>
+      <c r="N26" s="389"/>
+      <c r="O26" s="389"/>
+      <c r="P26" s="389"/>
+      <c r="Q26" s="389"/>
+      <c r="R26" s="389"/>
+      <c r="S26" s="389"/>
+      <c r="T26" s="389"/>
+      <c r="U26" s="389"/>
+      <c r="V26" s="389"/>
+      <c r="W26" s="389"/>
       <c r="X26" s="177"/>
       <c r="Y26" s="15"/>
       <c r="Z26" s="79"/>
@@ -19702,20 +19647,6 @@
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="A3:W3"/>
-    <mergeCell ref="R21:T21"/>
-    <mergeCell ref="R20:T20"/>
-    <mergeCell ref="O21:Q21"/>
-    <mergeCell ref="O20:Q20"/>
-    <mergeCell ref="I18:K18"/>
-    <mergeCell ref="L19:N19"/>
-    <mergeCell ref="I19:K19"/>
-    <mergeCell ref="F5:I5"/>
-    <mergeCell ref="U19:W21"/>
-    <mergeCell ref="O18:Q18"/>
-    <mergeCell ref="R18:T18"/>
-    <mergeCell ref="O19:Q19"/>
-    <mergeCell ref="R19:T19"/>
     <mergeCell ref="A26:W26"/>
     <mergeCell ref="U15:V15"/>
     <mergeCell ref="I16:N17"/>
@@ -19732,6 +19663,20 @@
     <mergeCell ref="E21:H21"/>
     <mergeCell ref="E20:H20"/>
     <mergeCell ref="E19:H19"/>
+    <mergeCell ref="A3:W3"/>
+    <mergeCell ref="R21:T21"/>
+    <mergeCell ref="R20:T20"/>
+    <mergeCell ref="O21:Q21"/>
+    <mergeCell ref="O20:Q20"/>
+    <mergeCell ref="I18:K18"/>
+    <mergeCell ref="L19:N19"/>
+    <mergeCell ref="I19:K19"/>
+    <mergeCell ref="F5:I5"/>
+    <mergeCell ref="U19:W21"/>
+    <mergeCell ref="O18:Q18"/>
+    <mergeCell ref="R18:T18"/>
+    <mergeCell ref="O19:Q19"/>
+    <mergeCell ref="R19:T19"/>
   </mergeCells>
   <phoneticPr fontId="20" type="noConversion"/>
   <pageMargins left="0.31496062992125984" right="0.31496062992125984" top="0.98425196850393704" bottom="0.19685039370078741" header="0.31496062992125984" footer="0.11811023622047245"/>
@@ -19778,8 +19723,8 @@
   </sheetPr>
   <dimension ref="A1:AH122"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection activeCell="Q7" sqref="Q7:Q12"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
+      <selection activeCell="T10" sqref="T10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
@@ -19799,31 +19744,31 @@
       <c r="F1" s="213"/>
     </row>
     <row r="2" spans="1:18" ht="23.25">
-      <c r="B2" s="453" t="s">
+      <c r="B2" s="420" t="s">
         <v>91</v>
       </c>
-      <c r="C2" s="453"/>
-      <c r="D2" s="453"/>
-      <c r="E2" s="453"/>
-      <c r="F2" s="453"/>
-      <c r="G2" s="453"/>
-      <c r="H2" s="453"/>
-      <c r="I2" s="453"/>
-      <c r="J2" s="453"/>
-      <c r="K2" s="453"/>
-      <c r="L2" s="453"/>
-      <c r="M2" s="453"/>
-      <c r="N2" s="453"/>
-      <c r="O2" s="453"/>
-      <c r="P2" s="453"/>
-      <c r="Q2" s="453"/>
-      <c r="R2" s="453"/>
+      <c r="C2" s="420"/>
+      <c r="D2" s="420"/>
+      <c r="E2" s="420"/>
+      <c r="F2" s="420"/>
+      <c r="G2" s="420"/>
+      <c r="H2" s="420"/>
+      <c r="I2" s="420"/>
+      <c r="J2" s="420"/>
+      <c r="K2" s="420"/>
+      <c r="L2" s="420"/>
+      <c r="M2" s="420"/>
+      <c r="N2" s="420"/>
+      <c r="O2" s="420"/>
+      <c r="P2" s="420"/>
+      <c r="Q2" s="420"/>
+      <c r="R2" s="420"/>
     </row>
     <row r="3" spans="1:18">
-      <c r="B3" s="454"/>
-      <c r="C3" s="454"/>
-      <c r="D3" s="454"/>
-      <c r="E3" s="454"/>
+      <c r="B3" s="421"/>
+      <c r="C3" s="421"/>
+      <c r="D3" s="421"/>
+      <c r="E3" s="421"/>
       <c r="F3" s="213"/>
       <c r="G3" s="213"/>
       <c r="H3" s="213"/>
@@ -19831,40 +19776,40 @@
       <c r="R3" s="213"/>
     </row>
     <row r="4" spans="1:18" ht="21" customHeight="1">
-      <c r="B4" s="455" t="s">
+      <c r="B4" s="422" t="s">
         <v>41</v>
       </c>
-      <c r="C4" s="456"/>
-      <c r="D4" s="455" t="s">
+      <c r="C4" s="423"/>
+      <c r="D4" s="422" t="s">
         <v>141</v>
       </c>
-      <c r="E4" s="456"/>
-      <c r="F4" s="455" t="s">
+      <c r="E4" s="423"/>
+      <c r="F4" s="422" t="s">
         <v>80</v>
       </c>
-      <c r="G4" s="456"/>
-      <c r="H4" s="457" t="s">
+      <c r="G4" s="423"/>
+      <c r="H4" s="424" t="s">
         <v>42</v>
       </c>
-      <c r="I4" s="458"/>
-      <c r="J4" s="455" t="s">
+      <c r="I4" s="425"/>
+      <c r="J4" s="422" t="s">
         <v>43</v>
       </c>
-      <c r="K4" s="456"/>
-      <c r="L4" s="455" t="s">
+      <c r="K4" s="423"/>
+      <c r="L4" s="422" t="s">
         <v>44</v>
       </c>
-      <c r="M4" s="456"/>
-      <c r="N4" s="459" t="s">
+      <c r="M4" s="423"/>
+      <c r="N4" s="426" t="s">
         <v>45</v>
       </c>
-      <c r="O4" s="459" t="s">
+      <c r="O4" s="426" t="s">
         <v>46</v>
       </c>
-      <c r="P4" s="459" t="s">
+      <c r="P4" s="426" t="s">
         <v>136</v>
       </c>
-      <c r="Q4" s="459" t="s">
+      <c r="Q4" s="426" t="s">
         <v>137</v>
       </c>
       <c r="R4" s="214" t="s">
@@ -19872,43 +19817,43 @@
       </c>
     </row>
     <row r="5" spans="1:18" ht="21" customHeight="1">
-      <c r="B5" s="461" t="s">
+      <c r="B5" s="412" t="s">
         <v>139</v>
       </c>
-      <c r="C5" s="462"/>
-      <c r="D5" s="461" t="s">
+      <c r="C5" s="413"/>
+      <c r="D5" s="412" t="s">
         <v>139</v>
       </c>
-      <c r="E5" s="462"/>
-      <c r="F5" s="461" t="s">
+      <c r="E5" s="413"/>
+      <c r="F5" s="412" t="s">
         <v>139</v>
       </c>
-      <c r="G5" s="462"/>
-      <c r="H5" s="461" t="s">
+      <c r="G5" s="413"/>
+      <c r="H5" s="412" t="s">
         <v>139</v>
       </c>
-      <c r="I5" s="462"/>
-      <c r="J5" s="461" t="s">
+      <c r="I5" s="413"/>
+      <c r="J5" s="412" t="s">
         <v>139</v>
       </c>
-      <c r="K5" s="462"/>
-      <c r="L5" s="461" t="s">
+      <c r="K5" s="413"/>
+      <c r="L5" s="412" t="s">
         <v>139</v>
       </c>
-      <c r="M5" s="462"/>
-      <c r="N5" s="460"/>
-      <c r="O5" s="460"/>
-      <c r="P5" s="460"/>
-      <c r="Q5" s="460"/>
+      <c r="M5" s="413"/>
+      <c r="N5" s="427"/>
+      <c r="O5" s="427"/>
+      <c r="P5" s="427"/>
+      <c r="Q5" s="427"/>
       <c r="R5" s="215" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="6" spans="1:18" ht="21" customHeight="1">
-      <c r="B6" s="465" t="s">
+      <c r="B6" s="416" t="s">
         <v>48</v>
       </c>
-      <c r="C6" s="466"/>
+      <c r="C6" s="417"/>
       <c r="D6" s="216" t="s">
         <v>48</v>
       </c>
@@ -19957,11 +19902,11 @@
     </row>
     <row r="7" spans="1:18" ht="21" customHeight="1">
       <c r="A7" s="220"/>
-      <c r="B7" s="463">
+      <c r="B7" s="414">
         <f>'Data Record'!B18</f>
         <v>2.5</v>
       </c>
-      <c r="C7" s="464"/>
+      <c r="C7" s="415"/>
       <c r="D7" s="235">
         <f>'Cert of STD'!T7</f>
         <v>3.7033106020840359E-4</v>
@@ -19995,7 +19940,7 @@
         <v>2.8867513459481293E-6</v>
       </c>
       <c r="L7" s="240">
-        <f>I19</f>
+        <f>'Data Record'!AJ18</f>
         <v>0</v>
       </c>
       <c r="M7" s="236">
@@ -20025,11 +19970,11 @@
     </row>
     <row r="8" spans="1:18" ht="21" customHeight="1">
       <c r="A8" s="220"/>
-      <c r="B8" s="463">
+      <c r="B8" s="414">
         <f>'Data Record'!B21</f>
         <v>5.0999999999999996</v>
       </c>
-      <c r="C8" s="464"/>
+      <c r="C8" s="415"/>
       <c r="D8" s="235">
         <f>'Cert of STD'!T7</f>
         <v>3.7033106020840359E-4</v>
@@ -20063,7 +20008,7 @@
         <v>2.8867513459481293E-6</v>
       </c>
       <c r="L8" s="240">
-        <f>I22</f>
+        <f>'Data Record'!AJ21</f>
         <v>0</v>
       </c>
       <c r="M8" s="236">
@@ -20093,11 +20038,11 @@
     </row>
     <row r="9" spans="1:18" ht="21" customHeight="1">
       <c r="A9" s="220"/>
-      <c r="B9" s="463">
+      <c r="B9" s="414">
         <f>'Data Record'!B24</f>
         <v>7.7</v>
       </c>
-      <c r="C9" s="464"/>
+      <c r="C9" s="415"/>
       <c r="D9" s="235">
         <f>'Cert of STD'!T7</f>
         <v>3.7033106020840359E-4</v>
@@ -20131,7 +20076,7 @@
         <v>2.8867513459481293E-6</v>
       </c>
       <c r="L9" s="240">
-        <f>I25</f>
+        <f>'Data Record'!AJ24</f>
         <v>0</v>
       </c>
       <c r="M9" s="236">
@@ -20161,11 +20106,11 @@
     </row>
     <row r="10" spans="1:18" ht="21" customHeight="1">
       <c r="A10" s="220"/>
-      <c r="B10" s="463">
+      <c r="B10" s="414">
         <f>'Data Record'!B27</f>
         <v>10</v>
       </c>
-      <c r="C10" s="464"/>
+      <c r="C10" s="415"/>
       <c r="D10" s="235">
         <f>'Cert of STD'!T7</f>
         <v>3.7033106020840359E-4</v>
@@ -20199,7 +20144,7 @@
         <v>2.8867513459481293E-6</v>
       </c>
       <c r="L10" s="240">
-        <f>I28</f>
+        <f>'Data Record'!AJ27</f>
         <v>0</v>
       </c>
       <c r="M10" s="236">
@@ -20229,11 +20174,11 @@
     </row>
     <row r="11" spans="1:18" ht="21" customHeight="1">
       <c r="A11" s="220"/>
-      <c r="B11" s="463">
+      <c r="B11" s="414">
         <f>'Data Record'!B30</f>
         <v>12.9</v>
       </c>
-      <c r="C11" s="464"/>
+      <c r="C11" s="415"/>
       <c r="D11" s="235">
         <f>'Cert of STD'!T7</f>
         <v>3.7033106020840359E-4</v>
@@ -20267,7 +20212,7 @@
         <v>2.8867513459481293E-6</v>
       </c>
       <c r="L11" s="240">
-        <f>I31</f>
+        <f>'Data Record'!AJ30</f>
         <v>0</v>
       </c>
       <c r="M11" s="236">
@@ -20297,11 +20242,11 @@
     </row>
     <row r="12" spans="1:18" ht="21" customHeight="1">
       <c r="A12" s="220"/>
-      <c r="B12" s="463">
+      <c r="B12" s="414">
         <f>'Data Record'!B33</f>
         <v>15</v>
       </c>
-      <c r="C12" s="464"/>
+      <c r="C12" s="415"/>
       <c r="D12" s="235">
         <f>'Cert of STD'!T7</f>
         <v>3.7033106020840359E-4</v>
@@ -20335,7 +20280,7 @@
         <v>2.8867513459481293E-6</v>
       </c>
       <c r="L12" s="240">
-        <f>I34</f>
+        <f>'Data Record'!AJ33</f>
         <v>0</v>
       </c>
       <c r="M12" s="236">
@@ -20421,25 +20366,25 @@
       <c r="R15" s="222"/>
     </row>
     <row r="16" spans="1:18" ht="20.100000000000001" customHeight="1">
-      <c r="B16" s="449" t="s">
+      <c r="B16" s="445" t="s">
         <v>148</v>
       </c>
-      <c r="C16" s="450"/>
-      <c r="D16" s="447" t="s">
+      <c r="C16" s="446"/>
+      <c r="D16" s="443" t="s">
         <v>124</v>
       </c>
-      <c r="E16" s="434" t="s">
+      <c r="E16" s="430" t="s">
         <v>149</v>
       </c>
-      <c r="F16" s="434"/>
-      <c r="G16" s="440" t="s">
+      <c r="F16" s="430"/>
+      <c r="G16" s="436" t="s">
         <v>151</v>
       </c>
-      <c r="H16" s="434"/>
-      <c r="I16" s="436" t="s">
+      <c r="H16" s="430"/>
+      <c r="I16" s="432" t="s">
         <v>150</v>
       </c>
-      <c r="J16" s="437"/>
+      <c r="J16" s="433"/>
       <c r="K16" s="166"/>
       <c r="L16" s="166"/>
       <c r="M16" s="166"/>
@@ -20451,15 +20396,15 @@
     </row>
     <row r="17" spans="1:18" ht="20.100000000000001" customHeight="1">
       <c r="A17" s="225"/>
-      <c r="B17" s="451"/>
-      <c r="C17" s="452"/>
-      <c r="D17" s="448"/>
-      <c r="E17" s="435"/>
-      <c r="F17" s="435"/>
-      <c r="G17" s="435"/>
-      <c r="H17" s="435"/>
-      <c r="I17" s="438"/>
-      <c r="J17" s="439"/>
+      <c r="B17" s="447"/>
+      <c r="C17" s="448"/>
+      <c r="D17" s="444"/>
+      <c r="E17" s="431"/>
+      <c r="F17" s="431"/>
+      <c r="G17" s="431"/>
+      <c r="H17" s="431"/>
+      <c r="I17" s="434"/>
+      <c r="J17" s="435"/>
       <c r="K17" s="166"/>
       <c r="L17" s="166"/>
       <c r="M17" s="166"/>
@@ -20471,9 +20416,9 @@
     </row>
     <row r="18" spans="1:18" ht="20.100000000000001" customHeight="1">
       <c r="A18" s="225"/>
-      <c r="B18" s="451"/>
-      <c r="C18" s="452"/>
-      <c r="D18" s="448"/>
+      <c r="B18" s="447"/>
+      <c r="C18" s="448"/>
+      <c r="D18" s="444"/>
       <c r="E18" s="248" t="s">
         <v>128</v>
       </c>
@@ -20486,8 +20431,8 @@
       <c r="H18" s="248" t="s">
         <v>129</v>
       </c>
-      <c r="I18" s="438"/>
-      <c r="J18" s="439"/>
+      <c r="I18" s="434"/>
+      <c r="J18" s="435"/>
       <c r="K18" s="166"/>
       <c r="L18" s="166"/>
       <c r="M18" s="166"/>
@@ -20499,10 +20444,10 @@
     </row>
     <row r="19" spans="1:18" ht="15.95" customHeight="1">
       <c r="A19" s="225"/>
-      <c r="B19" s="430">
+      <c r="B19" s="418">
         <v>2.5</v>
       </c>
-      <c r="C19" s="431"/>
+      <c r="C19" s="419"/>
       <c r="D19" s="249" t="s">
         <v>15</v>
       </c>
@@ -20522,11 +20467,11 @@
         <f>F19/SQRT(4)</f>
         <v>0</v>
       </c>
-      <c r="I19" s="441">
+      <c r="I19" s="437">
         <f>MAX(G19:H21)</f>
         <v>0</v>
       </c>
-      <c r="J19" s="442"/>
+      <c r="J19" s="438"/>
       <c r="K19" s="166"/>
       <c r="L19" s="166"/>
       <c r="M19" s="166"/>
@@ -20538,8 +20483,8 @@
     </row>
     <row r="20" spans="1:18" ht="15.95" customHeight="1">
       <c r="A20" s="225"/>
-      <c r="B20" s="430"/>
-      <c r="C20" s="431"/>
+      <c r="B20" s="418"/>
+      <c r="C20" s="419"/>
       <c r="D20" s="249" t="s">
         <v>16</v>
       </c>
@@ -20559,8 +20504,8 @@
         <f t="shared" ref="H20:H36" si="13">F20/SQRT(4)</f>
         <v>0</v>
       </c>
-      <c r="I20" s="443"/>
-      <c r="J20" s="444"/>
+      <c r="I20" s="439"/>
+      <c r="J20" s="440"/>
       <c r="K20" s="166"/>
       <c r="L20" s="166"/>
       <c r="M20" s="166"/>
@@ -20572,8 +20517,8 @@
     </row>
     <row r="21" spans="1:18" ht="15.95" customHeight="1">
       <c r="A21" s="225"/>
-      <c r="B21" s="430"/>
-      <c r="C21" s="431"/>
+      <c r="B21" s="418"/>
+      <c r="C21" s="419"/>
       <c r="D21" s="249" t="s">
         <v>17</v>
       </c>
@@ -20593,8 +20538,8 @@
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="I21" s="445"/>
-      <c r="J21" s="446"/>
+      <c r="I21" s="441"/>
+      <c r="J21" s="442"/>
       <c r="K21" s="166"/>
       <c r="L21" s="166"/>
       <c r="M21" s="166"/>
@@ -20606,10 +20551,10 @@
     </row>
     <row r="22" spans="1:18" ht="15.95" customHeight="1">
       <c r="A22" s="225"/>
-      <c r="B22" s="430">
+      <c r="B22" s="418">
         <v>5.0999999999999996</v>
       </c>
-      <c r="C22" s="431"/>
+      <c r="C22" s="419"/>
       <c r="D22" s="249" t="s">
         <v>15</v>
       </c>
@@ -20629,11 +20574,11 @@
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="I22" s="441">
+      <c r="I22" s="437">
         <f>MAX(G22:H24)</f>
         <v>0</v>
       </c>
-      <c r="J22" s="442"/>
+      <c r="J22" s="438"/>
       <c r="K22" s="166"/>
       <c r="L22" s="166"/>
       <c r="M22" s="166"/>
@@ -20645,8 +20590,8 @@
     </row>
     <row r="23" spans="1:18" ht="15.95" customHeight="1">
       <c r="A23" s="225"/>
-      <c r="B23" s="430"/>
-      <c r="C23" s="431"/>
+      <c r="B23" s="418"/>
+      <c r="C23" s="419"/>
       <c r="D23" s="249" t="s">
         <v>16</v>
       </c>
@@ -20666,8 +20611,8 @@
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="I23" s="443"/>
-      <c r="J23" s="444"/>
+      <c r="I23" s="439"/>
+      <c r="J23" s="440"/>
       <c r="K23" s="166"/>
       <c r="L23" s="166"/>
       <c r="M23" s="166"/>
@@ -20679,8 +20624,8 @@
     </row>
     <row r="24" spans="1:18" ht="15.95" customHeight="1">
       <c r="A24" s="225"/>
-      <c r="B24" s="430"/>
-      <c r="C24" s="431"/>
+      <c r="B24" s="418"/>
+      <c r="C24" s="419"/>
       <c r="D24" s="249" t="s">
         <v>17</v>
       </c>
@@ -20700,8 +20645,8 @@
         <f>F24/SQRT(4)</f>
         <v>0</v>
       </c>
-      <c r="I24" s="445"/>
-      <c r="J24" s="446"/>
+      <c r="I24" s="441"/>
+      <c r="J24" s="442"/>
       <c r="K24" s="166"/>
       <c r="L24" s="166"/>
       <c r="M24" s="166"/>
@@ -20713,10 +20658,10 @@
     </row>
     <row r="25" spans="1:18" ht="15.95" customHeight="1">
       <c r="A25" s="225"/>
-      <c r="B25" s="430">
+      <c r="B25" s="418">
         <v>7.7</v>
       </c>
-      <c r="C25" s="431"/>
+      <c r="C25" s="419"/>
       <c r="D25" s="249" t="s">
         <v>15</v>
       </c>
@@ -20736,11 +20681,11 @@
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="I25" s="441">
+      <c r="I25" s="437">
         <f>MAX(G25:H27)</f>
         <v>0</v>
       </c>
-      <c r="J25" s="442"/>
+      <c r="J25" s="438"/>
       <c r="K25" s="166"/>
       <c r="L25" s="166"/>
       <c r="M25" s="166"/>
@@ -20752,8 +20697,8 @@
     </row>
     <row r="26" spans="1:18" ht="15.95" customHeight="1">
       <c r="A26" s="226"/>
-      <c r="B26" s="430"/>
-      <c r="C26" s="431"/>
+      <c r="B26" s="418"/>
+      <c r="C26" s="419"/>
       <c r="D26" s="249" t="s">
         <v>16</v>
       </c>
@@ -20773,8 +20718,8 @@
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="I26" s="443"/>
-      <c r="J26" s="444"/>
+      <c r="I26" s="439"/>
+      <c r="J26" s="440"/>
       <c r="K26" s="166"/>
       <c r="L26" s="166"/>
       <c r="M26" s="166"/>
@@ -20786,8 +20731,8 @@
     </row>
     <row r="27" spans="1:18" ht="15.95" customHeight="1">
       <c r="A27" s="225"/>
-      <c r="B27" s="430"/>
-      <c r="C27" s="431"/>
+      <c r="B27" s="418"/>
+      <c r="C27" s="419"/>
       <c r="D27" s="249" t="s">
         <v>17</v>
       </c>
@@ -20807,8 +20752,8 @@
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="I27" s="445"/>
-      <c r="J27" s="446"/>
+      <c r="I27" s="441"/>
+      <c r="J27" s="442"/>
       <c r="K27" s="166"/>
       <c r="L27" s="166"/>
       <c r="M27" s="166"/>
@@ -20820,10 +20765,10 @@
     </row>
     <row r="28" spans="1:18" ht="15.95" customHeight="1">
       <c r="A28" s="225"/>
-      <c r="B28" s="430">
+      <c r="B28" s="418">
         <v>10</v>
       </c>
-      <c r="C28" s="431"/>
+      <c r="C28" s="419"/>
       <c r="D28" s="249" t="s">
         <v>15</v>
       </c>
@@ -20843,11 +20788,11 @@
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="I28" s="441">
+      <c r="I28" s="437">
         <f>MAX(G28:H30)</f>
         <v>0</v>
       </c>
-      <c r="J28" s="442"/>
+      <c r="J28" s="438"/>
       <c r="K28" s="166"/>
       <c r="L28" s="166"/>
       <c r="M28" s="166"/>
@@ -20859,8 +20804,8 @@
     </row>
     <row r="29" spans="1:18" ht="15.95" customHeight="1">
       <c r="A29" s="225"/>
-      <c r="B29" s="430"/>
-      <c r="C29" s="431"/>
+      <c r="B29" s="418"/>
+      <c r="C29" s="419"/>
       <c r="D29" s="249" t="s">
         <v>16</v>
       </c>
@@ -20880,8 +20825,8 @@
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="I29" s="443"/>
-      <c r="J29" s="444"/>
+      <c r="I29" s="439"/>
+      <c r="J29" s="440"/>
       <c r="K29" s="166"/>
       <c r="L29" s="166"/>
       <c r="M29" s="166"/>
@@ -20893,8 +20838,8 @@
     </row>
     <row r="30" spans="1:18" ht="15.95" customHeight="1">
       <c r="A30" s="225"/>
-      <c r="B30" s="430"/>
-      <c r="C30" s="431"/>
+      <c r="B30" s="418"/>
+      <c r="C30" s="419"/>
       <c r="D30" s="249" t="s">
         <v>17</v>
       </c>
@@ -20914,8 +20859,8 @@
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="I30" s="445"/>
-      <c r="J30" s="446"/>
+      <c r="I30" s="441"/>
+      <c r="J30" s="442"/>
       <c r="K30" s="166"/>
       <c r="L30" s="166"/>
       <c r="M30" s="166"/>
@@ -20927,10 +20872,10 @@
     </row>
     <row r="31" spans="1:18" ht="15.95" customHeight="1">
       <c r="A31" s="225"/>
-      <c r="B31" s="430">
+      <c r="B31" s="418">
         <v>12.9</v>
       </c>
-      <c r="C31" s="431"/>
+      <c r="C31" s="419"/>
       <c r="D31" s="249" t="s">
         <v>15</v>
       </c>
@@ -20950,11 +20895,11 @@
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="I31" s="441">
+      <c r="I31" s="437">
         <f t="shared" ref="I31" si="14">MAX(G31:H33)</f>
         <v>0</v>
       </c>
-      <c r="J31" s="442"/>
+      <c r="J31" s="438"/>
       <c r="K31" s="166"/>
       <c r="L31" s="166"/>
       <c r="M31" s="166"/>
@@ -20966,8 +20911,8 @@
     </row>
     <row r="32" spans="1:18" ht="15.95" customHeight="1">
       <c r="A32" s="225"/>
-      <c r="B32" s="430"/>
-      <c r="C32" s="431"/>
+      <c r="B32" s="418"/>
+      <c r="C32" s="419"/>
       <c r="D32" s="249" t="s">
         <v>16</v>
       </c>
@@ -20987,8 +20932,8 @@
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="I32" s="443"/>
-      <c r="J32" s="444"/>
+      <c r="I32" s="439"/>
+      <c r="J32" s="440"/>
       <c r="K32" s="166"/>
       <c r="L32" s="166"/>
       <c r="M32" s="166"/>
@@ -21000,8 +20945,8 @@
     </row>
     <row r="33" spans="1:34" ht="15.95" customHeight="1">
       <c r="A33" s="225"/>
-      <c r="B33" s="430"/>
-      <c r="C33" s="431"/>
+      <c r="B33" s="418"/>
+      <c r="C33" s="419"/>
       <c r="D33" s="249" t="s">
         <v>17</v>
       </c>
@@ -21021,8 +20966,8 @@
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="I33" s="445"/>
-      <c r="J33" s="446"/>
+      <c r="I33" s="441"/>
+      <c r="J33" s="442"/>
       <c r="K33" s="166"/>
       <c r="L33" s="166"/>
       <c r="M33" s="166"/>
@@ -21034,10 +20979,10 @@
     </row>
     <row r="34" spans="1:34" ht="15.95" customHeight="1">
       <c r="A34" s="225"/>
-      <c r="B34" s="430">
+      <c r="B34" s="418">
         <v>15</v>
       </c>
-      <c r="C34" s="431"/>
+      <c r="C34" s="419"/>
       <c r="D34" s="249" t="s">
         <v>15</v>
       </c>
@@ -21057,11 +21002,11 @@
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="I34" s="441">
+      <c r="I34" s="437">
         <f>MAX(G34:H36)</f>
         <v>0</v>
       </c>
-      <c r="J34" s="442"/>
+      <c r="J34" s="438"/>
       <c r="K34" s="166"/>
       <c r="L34" s="166"/>
       <c r="M34" s="166"/>
@@ -21073,8 +21018,8 @@
     </row>
     <row r="35" spans="1:34" ht="15.95" customHeight="1">
       <c r="A35" s="225"/>
-      <c r="B35" s="430"/>
-      <c r="C35" s="431"/>
+      <c r="B35" s="418"/>
+      <c r="C35" s="419"/>
       <c r="D35" s="249" t="s">
         <v>16</v>
       </c>
@@ -21094,8 +21039,8 @@
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="I35" s="443"/>
-      <c r="J35" s="444"/>
+      <c r="I35" s="439"/>
+      <c r="J35" s="440"/>
       <c r="K35" s="166"/>
       <c r="L35" s="166"/>
       <c r="M35" s="166"/>
@@ -21107,8 +21052,8 @@
     </row>
     <row r="36" spans="1:34" ht="15.95" customHeight="1">
       <c r="A36" s="225"/>
-      <c r="B36" s="432"/>
-      <c r="C36" s="433"/>
+      <c r="B36" s="428"/>
+      <c r="C36" s="429"/>
       <c r="D36" s="251" t="s">
         <v>17</v>
       </c>
@@ -21128,8 +21073,8 @@
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="I36" s="445"/>
-      <c r="J36" s="446"/>
+      <c r="I36" s="441"/>
+      <c r="J36" s="442"/>
       <c r="K36" s="166"/>
       <c r="L36" s="166"/>
       <c r="M36" s="166"/>
@@ -22867,16 +22812,22 @@
     </row>
   </sheetData>
   <mergeCells count="42">
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="L5:M5"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B34:C36"/>
+    <mergeCell ref="E16:F17"/>
+    <mergeCell ref="I16:J18"/>
+    <mergeCell ref="G16:H17"/>
+    <mergeCell ref="I19:J21"/>
+    <mergeCell ref="I22:J24"/>
+    <mergeCell ref="I25:J27"/>
+    <mergeCell ref="I28:J30"/>
+    <mergeCell ref="I31:J33"/>
+    <mergeCell ref="I34:J36"/>
+    <mergeCell ref="D16:D18"/>
+    <mergeCell ref="B16:C18"/>
+    <mergeCell ref="B19:C21"/>
+    <mergeCell ref="B31:C33"/>
+    <mergeCell ref="B28:C30"/>
+    <mergeCell ref="B25:C27"/>
     <mergeCell ref="B22:C24"/>
     <mergeCell ref="B2:R2"/>
     <mergeCell ref="B3:E3"/>
@@ -22893,22 +22844,16 @@
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="D5:E5"/>
     <mergeCell ref="F5:G5"/>
-    <mergeCell ref="B34:C36"/>
-    <mergeCell ref="E16:F17"/>
-    <mergeCell ref="I16:J18"/>
-    <mergeCell ref="G16:H17"/>
-    <mergeCell ref="I19:J21"/>
-    <mergeCell ref="I22:J24"/>
-    <mergeCell ref="I25:J27"/>
-    <mergeCell ref="I28:J30"/>
-    <mergeCell ref="I31:J33"/>
-    <mergeCell ref="I34:J36"/>
-    <mergeCell ref="D16:D18"/>
-    <mergeCell ref="B16:C18"/>
-    <mergeCell ref="B19:C21"/>
-    <mergeCell ref="B31:C33"/>
-    <mergeCell ref="B28:C30"/>
-    <mergeCell ref="B25:C27"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="L5:M5"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B11:C11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -23048,111 +22993,111 @@
       <c r="AB3" s="40"/>
     </row>
     <row r="4" spans="1:28">
-      <c r="B4" s="469" t="s">
+      <c r="B4" s="459" t="s">
         <v>86</v>
       </c>
-      <c r="C4" s="470"/>
-      <c r="D4" s="470"/>
-      <c r="E4" s="470"/>
-      <c r="F4" s="470"/>
-      <c r="G4" s="471"/>
-      <c r="I4" s="469" t="s">
+      <c r="C4" s="460"/>
+      <c r="D4" s="460"/>
+      <c r="E4" s="460"/>
+      <c r="F4" s="460"/>
+      <c r="G4" s="461"/>
+      <c r="I4" s="459" t="s">
         <v>81</v>
       </c>
-      <c r="J4" s="470"/>
-      <c r="K4" s="470"/>
-      <c r="L4" s="470"/>
-      <c r="M4" s="470"/>
-      <c r="N4" s="471"/>
-      <c r="P4" s="469" t="s">
+      <c r="J4" s="460"/>
+      <c r="K4" s="460"/>
+      <c r="L4" s="460"/>
+      <c r="M4" s="460"/>
+      <c r="N4" s="461"/>
+      <c r="P4" s="459" t="s">
         <v>81</v>
       </c>
-      <c r="Q4" s="470"/>
-      <c r="R4" s="470"/>
-      <c r="S4" s="470"/>
-      <c r="T4" s="470"/>
-      <c r="U4" s="471"/>
-      <c r="W4" s="469" t="s">
+      <c r="Q4" s="460"/>
+      <c r="R4" s="460"/>
+      <c r="S4" s="460"/>
+      <c r="T4" s="460"/>
+      <c r="U4" s="461"/>
+      <c r="W4" s="459" t="s">
         <v>81</v>
       </c>
-      <c r="X4" s="470"/>
-      <c r="Y4" s="470"/>
-      <c r="Z4" s="470"/>
-      <c r="AA4" s="470"/>
-      <c r="AB4" s="471"/>
+      <c r="X4" s="460"/>
+      <c r="Y4" s="460"/>
+      <c r="Z4" s="460"/>
+      <c r="AA4" s="460"/>
+      <c r="AB4" s="461"/>
     </row>
     <row r="5" spans="1:28" ht="26.25">
-      <c r="B5" s="482" t="s">
+      <c r="B5" s="462" t="s">
         <v>49</v>
       </c>
-      <c r="C5" s="483"/>
-      <c r="D5" s="483"/>
-      <c r="E5" s="483"/>
-      <c r="F5" s="483"/>
-      <c r="G5" s="484"/>
-      <c r="I5" s="472" t="s">
+      <c r="C5" s="463"/>
+      <c r="D5" s="463"/>
+      <c r="E5" s="463"/>
+      <c r="F5" s="463"/>
+      <c r="G5" s="464"/>
+      <c r="I5" s="449" t="s">
         <v>82</v>
       </c>
-      <c r="J5" s="473"/>
-      <c r="K5" s="473"/>
-      <c r="L5" s="473"/>
-      <c r="M5" s="473"/>
-      <c r="N5" s="474"/>
-      <c r="P5" s="472" t="s">
+      <c r="J5" s="450"/>
+      <c r="K5" s="450"/>
+      <c r="L5" s="450"/>
+      <c r="M5" s="450"/>
+      <c r="N5" s="451"/>
+      <c r="P5" s="449" t="s">
         <v>87</v>
       </c>
-      <c r="Q5" s="473"/>
-      <c r="R5" s="473"/>
-      <c r="S5" s="473"/>
-      <c r="T5" s="473"/>
-      <c r="U5" s="474"/>
-      <c r="W5" s="472" t="s">
+      <c r="Q5" s="450"/>
+      <c r="R5" s="450"/>
+      <c r="S5" s="450"/>
+      <c r="T5" s="450"/>
+      <c r="U5" s="451"/>
+      <c r="W5" s="449" t="s">
         <v>88</v>
       </c>
-      <c r="X5" s="473"/>
-      <c r="Y5" s="473"/>
-      <c r="Z5" s="473"/>
-      <c r="AA5" s="473"/>
-      <c r="AB5" s="474"/>
+      <c r="X5" s="450"/>
+      <c r="Y5" s="450"/>
+      <c r="Z5" s="450"/>
+      <c r="AA5" s="450"/>
+      <c r="AB5" s="451"/>
     </row>
     <row r="6" spans="1:28" ht="26.25">
       <c r="A6" s="42"/>
-      <c r="B6" s="485" t="s">
+      <c r="B6" s="465" t="s">
         <v>50</v>
       </c>
-      <c r="C6" s="486"/>
-      <c r="D6" s="487"/>
-      <c r="E6" s="488">
+      <c r="C6" s="466"/>
+      <c r="D6" s="467"/>
+      <c r="E6" s="468">
         <v>42488</v>
       </c>
-      <c r="F6" s="489"/>
-      <c r="G6" s="490"/>
-      <c r="I6" s="475" t="s">
+      <c r="F6" s="469"/>
+      <c r="G6" s="470"/>
+      <c r="I6" s="452" t="s">
         <v>50</v>
       </c>
-      <c r="J6" s="476"/>
-      <c r="K6" s="476"/>
-      <c r="L6" s="477"/>
-      <c r="M6" s="478"/>
-      <c r="N6" s="479"/>
-      <c r="P6" s="475" t="s">
+      <c r="J6" s="453"/>
+      <c r="K6" s="453"/>
+      <c r="L6" s="454"/>
+      <c r="M6" s="455"/>
+      <c r="N6" s="456"/>
+      <c r="P6" s="452" t="s">
         <v>50</v>
       </c>
-      <c r="Q6" s="476"/>
-      <c r="R6" s="476"/>
-      <c r="S6" s="477">
+      <c r="Q6" s="453"/>
+      <c r="R6" s="453"/>
+      <c r="S6" s="454">
         <v>42525</v>
       </c>
-      <c r="T6" s="478"/>
-      <c r="U6" s="479"/>
-      <c r="W6" s="475" t="s">
+      <c r="T6" s="455"/>
+      <c r="U6" s="456"/>
+      <c r="W6" s="452" t="s">
         <v>50</v>
       </c>
-      <c r="X6" s="476"/>
-      <c r="Y6" s="476"/>
-      <c r="Z6" s="477"/>
-      <c r="AA6" s="478"/>
-      <c r="AB6" s="479"/>
+      <c r="X6" s="453"/>
+      <c r="Y6" s="453"/>
+      <c r="Z6" s="454"/>
+      <c r="AA6" s="455"/>
+      <c r="AB6" s="456"/>
     </row>
     <row r="7" spans="1:28">
       <c r="A7" s="42"/>
@@ -23175,7 +23120,7 @@
       <c r="G7" s="50" t="s">
         <v>51</v>
       </c>
-      <c r="I7" s="480">
+      <c r="I7" s="457">
         <v>2</v>
       </c>
       <c r="J7" s="82" t="s">
@@ -23192,7 +23137,7 @@
       <c r="N7" s="86" t="s">
         <v>51</v>
       </c>
-      <c r="P7" s="467">
+      <c r="P7" s="471">
         <v>13.9962</v>
       </c>
       <c r="Q7" s="82" t="s">
@@ -23212,7 +23157,7 @@
       <c r="U7" s="86" t="s">
         <v>51</v>
       </c>
-      <c r="W7" s="467">
+      <c r="W7" s="471">
         <v>49.996499999999997</v>
       </c>
       <c r="X7" s="82" t="s">
@@ -23251,7 +23196,7 @@
       <c r="G8" s="50" t="s">
         <v>51</v>
       </c>
-      <c r="I8" s="481"/>
+      <c r="I8" s="458"/>
       <c r="J8" s="87" t="s">
         <v>85</v>
       </c>
@@ -23266,7 +23211,7 @@
       <c r="N8" s="86" t="s">
         <v>51</v>
       </c>
-      <c r="P8" s="468"/>
+      <c r="P8" s="472"/>
       <c r="Q8" s="87" t="s">
         <v>85</v>
       </c>
@@ -23284,7 +23229,7 @@
       <c r="U8" s="86" t="s">
         <v>51</v>
       </c>
-      <c r="W8" s="468"/>
+      <c r="W8" s="472"/>
       <c r="X8" s="87" t="s">
         <v>85</v>
       </c>
@@ -23321,7 +23266,7 @@
       <c r="G9" s="50" t="s">
         <v>51</v>
       </c>
-      <c r="I9" s="480">
+      <c r="I9" s="457">
         <v>3</v>
       </c>
       <c r="J9" s="82" t="s">
@@ -23360,7 +23305,7 @@
       <c r="G10" s="50" t="s">
         <v>51</v>
       </c>
-      <c r="I10" s="481"/>
+      <c r="I10" s="458"/>
       <c r="J10" s="87" t="s">
         <v>85</v>
       </c>
@@ -23397,7 +23342,7 @@
       <c r="G11" s="50" t="s">
         <v>51</v>
       </c>
-      <c r="I11" s="480">
+      <c r="I11" s="457">
         <v>4</v>
       </c>
       <c r="J11" s="82" t="s">
@@ -23436,7 +23381,7 @@
       <c r="G12" s="50" t="s">
         <v>51</v>
       </c>
-      <c r="I12" s="481"/>
+      <c r="I12" s="458"/>
       <c r="J12" s="87" t="s">
         <v>85</v>
       </c>
@@ -23473,7 +23418,7 @@
       <c r="G13" s="50" t="s">
         <v>51</v>
       </c>
-      <c r="I13" s="480">
+      <c r="I13" s="457">
         <v>5</v>
       </c>
       <c r="J13" s="82" t="s">
@@ -23512,7 +23457,7 @@
       <c r="G14" s="50" t="s">
         <v>51</v>
       </c>
-      <c r="I14" s="481"/>
+      <c r="I14" s="458"/>
       <c r="J14" s="87" t="s">
         <v>85</v>
       </c>
@@ -23549,7 +23494,7 @@
       <c r="G15" s="50" t="s">
         <v>51</v>
       </c>
-      <c r="I15" s="480">
+      <c r="I15" s="457">
         <v>6</v>
       </c>
       <c r="J15" s="82" t="s">
@@ -23588,7 +23533,7 @@
       <c r="G16" s="50" t="s">
         <v>51</v>
       </c>
-      <c r="I16" s="481"/>
+      <c r="I16" s="458"/>
       <c r="J16" s="87" t="s">
         <v>85</v>
       </c>
@@ -23625,7 +23570,7 @@
       <c r="G17" s="50" t="s">
         <v>51</v>
       </c>
-      <c r="I17" s="480">
+      <c r="I17" s="457">
         <v>8</v>
       </c>
       <c r="J17" s="82" t="s">
@@ -23664,7 +23609,7 @@
       <c r="G18" s="50" t="s">
         <v>51</v>
       </c>
-      <c r="I18" s="481"/>
+      <c r="I18" s="458"/>
       <c r="J18" s="87" t="s">
         <v>85</v>
       </c>
@@ -23701,7 +23646,7 @@
       <c r="G19" s="50" t="s">
         <v>51</v>
       </c>
-      <c r="I19" s="480">
+      <c r="I19" s="457">
         <v>10</v>
       </c>
       <c r="J19" s="82" t="s">
@@ -23740,7 +23685,7 @@
       <c r="G20" s="50" t="s">
         <v>51</v>
       </c>
-      <c r="I20" s="481"/>
+      <c r="I20" s="458"/>
       <c r="J20" s="87" t="s">
         <v>85</v>
       </c>
@@ -23777,7 +23722,7 @@
       <c r="G21" s="50" t="s">
         <v>51</v>
       </c>
-      <c r="I21" s="480">
+      <c r="I21" s="457">
         <v>12</v>
       </c>
       <c r="J21" s="82" t="s">
@@ -23816,7 +23761,7 @@
       <c r="G22" s="50" t="s">
         <v>51</v>
       </c>
-      <c r="I22" s="481"/>
+      <c r="I22" s="458"/>
       <c r="J22" s="87" t="s">
         <v>85</v>
       </c>
@@ -23834,7 +23779,7 @@
     </row>
     <row r="23" spans="1:14">
       <c r="A23" s="43"/>
-      <c r="I23" s="480">
+      <c r="I23" s="457">
         <v>16</v>
       </c>
       <c r="J23" s="82" t="s">
@@ -23854,7 +23799,7 @@
     </row>
     <row r="24" spans="1:14">
       <c r="A24" s="43"/>
-      <c r="I24" s="481"/>
+      <c r="I24" s="458"/>
       <c r="J24" s="87" t="s">
         <v>85</v>
       </c>
@@ -23872,7 +23817,7 @@
     </row>
     <row r="25" spans="1:14">
       <c r="A25" s="43"/>
-      <c r="I25" s="480">
+      <c r="I25" s="457">
         <v>18</v>
       </c>
       <c r="J25" s="82" t="s">
@@ -23892,7 +23837,7 @@
     </row>
     <row r="26" spans="1:14">
       <c r="A26" s="43"/>
-      <c r="I26" s="481"/>
+      <c r="I26" s="458"/>
       <c r="J26" s="87" t="s">
         <v>85</v>
       </c>
@@ -23910,7 +23855,7 @@
     </row>
     <row r="27" spans="1:14">
       <c r="A27" s="43"/>
-      <c r="I27" s="480">
+      <c r="I27" s="457">
         <v>20</v>
       </c>
       <c r="J27" s="82" t="s">
@@ -23930,7 +23875,7 @@
     </row>
     <row r="28" spans="1:14">
       <c r="A28" s="43"/>
-      <c r="I28" s="481"/>
+      <c r="I28" s="458"/>
       <c r="J28" s="87" t="s">
         <v>85</v>
       </c>
@@ -23948,7 +23893,7 @@
     </row>
     <row r="29" spans="1:14">
       <c r="A29" s="54"/>
-      <c r="I29" s="480">
+      <c r="I29" s="457">
         <v>22</v>
       </c>
       <c r="J29" s="82" t="s">
@@ -23968,7 +23913,7 @@
     </row>
     <row r="30" spans="1:14">
       <c r="A30" s="54"/>
-      <c r="I30" s="481"/>
+      <c r="I30" s="458"/>
       <c r="J30" s="87" t="s">
         <v>85</v>
       </c>
@@ -23986,7 +23931,7 @@
     </row>
     <row r="31" spans="1:14">
       <c r="A31" s="54"/>
-      <c r="I31" s="480">
+      <c r="I31" s="457">
         <v>25</v>
       </c>
       <c r="J31" s="82" t="s">
@@ -24006,7 +23951,7 @@
     </row>
     <row r="32" spans="1:14">
       <c r="A32" s="54"/>
-      <c r="I32" s="481"/>
+      <c r="I32" s="458"/>
       <c r="J32" s="87" t="s">
         <v>85</v>
       </c>
@@ -24024,7 +23969,7 @@
     </row>
     <row r="33" spans="1:14">
       <c r="A33" s="54"/>
-      <c r="I33" s="480">
+      <c r="I33" s="457">
         <v>28</v>
       </c>
       <c r="J33" s="82" t="s">
@@ -24044,7 +23989,7 @@
     </row>
     <row r="34" spans="1:14">
       <c r="A34" s="54"/>
-      <c r="I34" s="481"/>
+      <c r="I34" s="458"/>
       <c r="J34" s="87" t="s">
         <v>85</v>
       </c>
@@ -24062,7 +24007,7 @@
     </row>
     <row r="35" spans="1:14">
       <c r="A35" s="54"/>
-      <c r="I35" s="480">
+      <c r="I35" s="457">
         <v>30</v>
       </c>
       <c r="J35" s="82" t="s">
@@ -24082,7 +24027,7 @@
     </row>
     <row r="36" spans="1:14">
       <c r="A36" s="54"/>
-      <c r="I36" s="481"/>
+      <c r="I36" s="458"/>
       <c r="J36" s="87" t="s">
         <v>85</v>
       </c>
@@ -24100,7 +24045,7 @@
     </row>
     <row r="37" spans="1:14">
       <c r="A37" s="54"/>
-      <c r="I37" s="480">
+      <c r="I37" s="457">
         <v>75</v>
       </c>
       <c r="J37" s="82" t="s">
@@ -24120,7 +24065,7 @@
     </row>
     <row r="38" spans="1:14">
       <c r="A38" s="55"/>
-      <c r="I38" s="481"/>
+      <c r="I38" s="458"/>
       <c r="J38" s="87" t="s">
         <v>85</v>
       </c>
@@ -24426,14 +24371,16 @@
     </row>
   </sheetData>
   <mergeCells count="34">
-    <mergeCell ref="I5:N5"/>
-    <mergeCell ref="I6:K6"/>
-    <mergeCell ref="L6:N6"/>
-    <mergeCell ref="I35:I36"/>
-    <mergeCell ref="I37:I38"/>
-    <mergeCell ref="I23:I24"/>
-    <mergeCell ref="I31:I32"/>
-    <mergeCell ref="I33:I34"/>
+    <mergeCell ref="W7:W8"/>
+    <mergeCell ref="W4:AB4"/>
+    <mergeCell ref="P5:U5"/>
+    <mergeCell ref="W5:AB5"/>
+    <mergeCell ref="P6:R6"/>
+    <mergeCell ref="S6:U6"/>
+    <mergeCell ref="W6:Y6"/>
+    <mergeCell ref="Z6:AB6"/>
+    <mergeCell ref="P4:U4"/>
+    <mergeCell ref="P7:P8"/>
     <mergeCell ref="B4:G4"/>
     <mergeCell ref="I25:I26"/>
     <mergeCell ref="I27:I28"/>
@@ -24450,16 +24397,14 @@
     <mergeCell ref="I4:N4"/>
     <mergeCell ref="I19:I20"/>
     <mergeCell ref="I21:I22"/>
-    <mergeCell ref="W7:W8"/>
-    <mergeCell ref="W4:AB4"/>
-    <mergeCell ref="P5:U5"/>
-    <mergeCell ref="W5:AB5"/>
-    <mergeCell ref="P6:R6"/>
-    <mergeCell ref="S6:U6"/>
-    <mergeCell ref="W6:Y6"/>
-    <mergeCell ref="Z6:AB6"/>
-    <mergeCell ref="P4:U4"/>
-    <mergeCell ref="P7:P8"/>
+    <mergeCell ref="I5:N5"/>
+    <mergeCell ref="I6:K6"/>
+    <mergeCell ref="L6:N6"/>
+    <mergeCell ref="I35:I36"/>
+    <mergeCell ref="I37:I38"/>
+    <mergeCell ref="I23:I24"/>
+    <mergeCell ref="I31:I32"/>
+    <mergeCell ref="I33:I34"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
